--- a/Scrapping_test/hire_am.xlsx
+++ b/Scrapping_test/hire_am.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C359"/>
+  <dimension ref="A1:C401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -377,75 +377,65 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Արտադրամասում անվտանգության աշխատակից մինչև 40տ</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>(Anywhere)</t>
+          <t>Առաքիչ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Արտադրամասում անվտանգության աշխատակից մինչև 40տ 1օր շուրջօրյա 2օր հանգիստ 100,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Աշխատավարձը(մաքուր)՝ 100.000 դրամ + բարձր %-ներՊահանջներ՝   - Բեռնատար մեքենա վարելու առնվազն 3 տարվա փորձ   - B, C կարգի վարորդական իրավունքի առկայություն   - Աշխատանքային փորձը որպես առաքիչ ցանկալի էՊարտականություններ՝    - Ստուգել բեռի և փաստաթղթերի համապատասխանությունը,   - Կատարել օրվա երթուղին ըստ առաքման ցուցակի,   - Ապահով տեղափոխել արտադրանքը և գույքը,   - Առաքել արտադրանքը վաճառակետ, կազմակերպել բեռնաթափումը, ստանալ գումար,   - Ստուգել ստորագրության և կնիքի պարտադիր առկայությունը փաստաթղթերի վրա և այլն:Հեռ.՝ (010) 27-53-10          091 29-18-92          077 29-18-92Հասցե՝  Կասյան 7-11E-mail`    info@tanger.amwww.tanger.am #գործկա #աշխատանք #work #գործ_կա #առաքիչ #tanger #работа</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Պլաստմասե շշերի արտադրամասում պահանջվում է բանվորուհի -հոսքագծի օպերատոր աղջիկ</t>
+          <t>Ադմինիստրատիվ օգնական</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Պլաստմասե շշերի արտադրամասում պահանջվում է բանվորուհի -հոսքագծի օպերատոր աղջիկ մինչև 45տժ/8-20,00 կիրակի ազատ,օր 5500հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Ռեստորանում ադմինիստրատիվ օգնական մինչև 35 տ. կիրակի հանգիստ, ժ. 11.00-19.00, աշխատավարձը 120.000:ԿենտրոնՀեռ. 077109946</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Մակարոնեղենի արտադրամասում հոսքագծի օպերատոր տղա փորձ պետք չէ</t>
+          <t>Մաքրման ընկերությունում մենեջեր աղջիկ տղա</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Մակարոնեղենի արտադրամասում հոսքագծի օպերատոր տղա փորձ պետք չէ ժ․9-18,00 կիրակի ազատ 140,000աշխատավայրը՝մերձավան հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Մաքրման ընկերությունում մենեջեր աղջիկ տղաժ.09.00-18,00 կիրակի հանգիստ աշխ.՝120.000+տոկոս: Հեռախոսահամար՝ 077712579</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Տուրիստական ընկերությանը անհրաժեշտ է փորձառու ավտոբուսի վարորդներ</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>(Anywhere)</t>
+          <t>Wordpress Developer</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Տուրիստական ընկերությանը անհրաժեշտ է փորձառու ավտոբուսի վարորդներ տարիքային սահմանափակում չկա աշխատանքային լողացող գրաֆիկ,օրական 10,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>❗️❗️❗️We're hiring❗️❗️❗️</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Անձեռոցիկի արտադրամասում տուփեր փաթեթավորող կանայք</t>
+          <t>Մուտքագրող օպերատոր տղա</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -455,169 +445,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Անձեռոցիկի արտադրամասում տուփեր փաթեթավորող կանայք մինչև 45տ ժ․9-18,00 կիրակի ազատ օրական 3000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Կերամիկայի ընկերությունում մուտքագրող օպերատոր տղա 1C-ի իմացությամբ,  ժամերը 09.00-19.00 մեկ օր հանգիստ 150.000+բոնուս+ընդմիջում: հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ռեստորանում գանձապահ տղա փորձը ցանկալի է</t>
+          <t>Բանկում անվտանգության աշխատակիցներ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ռեստորանում գանձապահ տղա փորձը ցանկալի էժ․9,30-00,00 օր ու մեջ օրական 7500հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Բանկում անվտանգության աշխատակիցներ 20-50 տարեկան, ժամերը 09.00-18.00 շաբաթ կիրակի հանգիստ,  աշխատավարձը՝120.000:  հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Արտադրամասում խոհարարի օգնական կին մինչև 50տ</t>
+          <t>Թղթե տոպրակներ պատրաստող կանայք</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Արտադրամասում խոհարարի օգնական կին մինչև 50տ ժ․9-18,00 շաբաթ հանգիստ օրական 4000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Թղթե տոպրակներ պատրաստող կանայք փորձը պարտադիր չէ ժամերը 09.00-18.00 կիրակի հանգիստ,  աշխատավարձը՝ 80.000:հեռախոսահամար՝ 077712579</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ռեստորանում սպասք լվացող կանայք մինչև 50տ</t>
+          <t>Թաղապետարանում փորձառու</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ռեստորանում սպասք լվացող կանայք մինչև 50տ ժ․10-00,00 օր ու մեջ գրաֆիկ օրական 5000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Թաղապետարանում փորձառու սվարչիկ,  ժամերը 09.00-18.00 շաբաթ կես օր կիրակի հանգիստ, աշխատավարձը՝ 150.000: հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Սրճարանում պահանջվում են մատուցողներ-ուհիներ փորձ պետք չէ</t>
+          <t>Ավիատոմսեր վաճառող</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Սրճարանում պահանջվում են մատուցողներ-ուհիներ փորձ պետք չէ ժ․9-00,00 կամ ժ․12-00,00 օրական 10,000+%հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Ավիատոմսեր վաճառող աղջիկ փորձը պարտադիր չէ ժամերը 09.00-19.00 շաբաթ կիրակի հանգիստ, աշխատավարձը՝ 80,000 նախնական, աշխատավայրը՝  Էրեբունիհեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Remote iOS Developer – Intermediate+</t>
+          <t>Գրասենյակում մաքրուհի</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Join the world’s largest virtual company!Work from anywhere – Flexible hoursScopic Software is seeking a Remote iOS Developer to join our team of 250+ professionals across 40 countries. The successful candidate would work with a team of advanced software engineers on diverse projects using the latest technologies.At Scopic, we believe great developers can be found in every corner of the globe, and talent shouldn’t be limited by location. Our employees work in nearly every time zone, from whenever they feel most comfortable, and our software benefits from this diversity of perspectives and expertise.Develop Meaningful Applications for Clients Invested in Your SuccessAll Scopic projects involve working with challenging, innovative applications. When you work with us, you will not just be maintaining old code or wasting time on applications that will never see the light of day. The applications Scopic develops are the cornerstone of our clients’ businesses. Clients and users will rely on you to write quality code and keep mission-critical applications running optimally.Grow Your Skills and Your Career, FastWe offer training opportunities to keep your skills sharp and encourage you to stay up-to-date with ever-evolving technologies. As your skills grow, you will have opportunities to move up in the company. If you work hard and deliver quality results, you will do very well here. Pay raises and promotions are completely merit-based, so your success is in your hands.Become a Valuable Part of a Small, Dynamic International TeamUnlike huge tech corporations like Google and Microsoft, Scopic employees don’t get lost in bureaucracy or sidelined doing the same boring tasks day after day. Most projects last six months to one year, so our developers have the opportunity to try their skills on a diverse range of applications. Scopic programmers work independently and are entrusted with considerable responsibility.Why Work With Scopic Software?•	Flexible working hours, set your own schedule•	Freedom to travel and work from anywhere in the world•	Ability to work wherever you are most comfortable (home, office, park, café, etc.)•	Reliable, consistent workload•	Flexible payment options in $US – salaried and hourly positions available•	Annual pay increases for good performance•	Paid training and other professional growth opportunities•	International travel opportunities (not required)•	Interesting, challenging projects using the latest technologiesRequirements:•	3+ years of relevant experience in Swift•	2+ apps on the App Store•	Experience and willingness to work in at least one of the following:o	Mobile cross-platform development (e.g. using React Native, Ionic, Xamarin, Flutter), o	Native Android development, o	General web development (e.g. JavaScript) •	Good English skills – especially reading and writing•	Bachelor's degree or higher•	Stable internet connection and home computer Salary: $12 – $22 USD/hour depending on location, skills, and experience. This is a full-time home-based position.  Please apply online:  https://scopicsoftware.recruiterbox.com/jobs/fk0jo43?cjb_hash=O_jZFB16&amp;apply_now=trueAbout Scopic SoftwareScopic Software is the world’s largest virtual company. Founded in 2006, we have grown consistently by delivering innovative, cutting-edge software products for our clients and creating an empowering environment for our employees.We build advanced software for clients and users around the globe. With 10+ years in the industry and 1000+ projects under our belt, we’ve developed software for Manufacturing, Media and Entertainment, Fintech, Healthcare, Food and Fitness, and Gaming. Check out our development work on our portfolio: scopicsoftware.com/portfolio/.Learn more about career opportunities at Scopic: scopicsoftware.com/careers.</t>
+          <t>Գրասենյակում մաքրուհի ժամերը 10.00-17.30 շաբաթ կիրակի հանգիստ,  աշխատավարձը՝ 70.000:հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Վաճառքի մենեջեր տեխնիկայի վաճառքով զբաղվող ընկերությունում։</t>
+          <t>Իտալական սպասքի բարձրակարգ սրահում սրահի սպասարկող</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Պարտականություններ՝- Վաճառքի խթանում,- Շուկայի վերլուծություն,- Նոր գործընկերնորի ներգրավվում։Պահանջներ՝ 25-45տ․, բարձրագույն կրթության առկայություն, հայերենի, ռուսերենի և անգլերենի լավ իմացություն, առնվազն 1,5 տարվա աշխատանքային փորձ։Աշխատանքային ժամեր՝ 10։00-20։00։Աշխատավարձ (մաքուր)՝ 200 000 դրամ + բոնուսներ։Ուղարկեք Ձեր ռեզյումեն info@tanger.am հասցեին՝ վերնագրում նշելով "վաճառքի մենեջեր"։</t>
+          <t>Իտալական սպասքի բարձրակարգ սրահում սրահի սպասարկող աղջիկ փորձը պարտադիր չէ, ժամերը 10.30-20.00 1 օր հանգիստ, աշխատավարձը՝  120.000+բոնուս Հեռախոսահամար՝ 077712579</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IT ընկերությանը պահանջվում է տնօրենի օգնական</t>
+          <t>Տուր մենեջեր</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Պարտականություններ՝ - նոր գործընկերների փնտրում,- բանակցություների վարում,- նամակագրույթուն,- ադմինիստրատիվ աշխատանքի կատարում:Պահանջներ՝ -կին 18-30 տ., -ռուսերենի և անգլերենի գերազանց իմացություն, -MS office ծրագրի իմացություն: Աշխատանքային ժամեր՝ 10:00-19:00:Աշխատավարձ (մաքուր)` 100 000 դրամ + բոնուսներ կամ ֆիքսված 150 000 դրամ:Հեռ.: 27-53-10, 091-29-18-92, 077-29-18-92e-mail: info@tanger.amwww.tanger.am</t>
+          <t>Տուրիստական ընկերությունում տուր մենեջեր աղջիկ փորձը պարտադիր չէ անգլերենի իմացությամբ,  ժամերը 11.00-19.00,  աշխատավարձը՝ 100.000 Կենտրոն:հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Մանկապարտեզում խոհարար կին մինչև 45տ</t>
+          <t>Կազմակերպությունում խառատ</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Մանկապարտեզում խոհարար կին մինչև 45տժ․8,30-18,00 շաբաթ-կիրակի ազատ 90,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Կազմակերպությունում խառատ փորձով ժամերը 09.00-18.00 կիրակի հանգիստ,  աշխատավարձը՝ 150.000 Ջրվեժ: հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Գերմանական խոհանոցային պարագաների խանութում վաճառողուհի</t>
+          <t>Գազելի վարորդ  Ջրեղենի ընկերությունում</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Գերմանական խոհանոցային պարագաների խանութում վաճառողուհի լեզուների իմացությամբ շաբաթական 4օր ժ․11-20,00 61,000+բոնուսհեռ 093 360 344 կամ 077 360 378</t>
+          <t>Ջրեղենի ընկերությունում գազելի վարորդ մինչև 45 տարեկան, ժամերը 09.00-19.00 կիրակի հանգիստ,  աշխատավարձը՝140.000: հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Սպորտ սրահում ընդունարանի աշխատակցուհի մինչև 40տ</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>(Anywhere)</t>
+          <t>Թարգմանիչ (Ռուսերենից հայերեն)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Սպորտ սրահում ընդունարանի աշխատակցուհի մինչև 40տժ․8-16,00 և ժ․16,00-00,0070,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Թարգմանիչ (ռուսերենից հայերեն)Աշխատավարձ (մաքուր)՝ 180.000 դրամՊահանջներ՝  - Սեռը՝ իգական  - Տարիքը՝ 25-35 տարեկան  - Բարձրագույն բանասիրական կրթություն   - Հայերենի և ռուսերենի գերազանց իմացություն  - Նվազագույնը 2 տարվա համապատասխան աշխատանքային փորձ Պարտականություններ՝   - Տեքստերի թարգմանություն (բիզնես գործընթացների և ապրանքների նկարագրությունների հետ կապված)Աշխատանքային գրաֆիկը՝  - Երկուշաբթի-ուրբաթ 10:00-18:00Ձեր ինքնակենսագրականը (CV) կարող եք ուղարկել info@tanger.am էլեկտրոնային հասցեին՝ subject բաժնում նշելով հաստիքի անվանումը: Հեռ.՝ (010) 27-53-10          091 29-18-92           077 29-18-92Հասցե՝  Կասյան 7-11E-mail`    info@tanger.amwww.tanger.am #գործկա #աշխատանք #work #գործ_կա #թարգմանչուհի #tanger #работа #translator</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Հյուրանոցում գիշերային ադմինիստրատոր տղա</t>
+          <t>Այգեգործ-բանվորուհիներ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -627,65 +627,65 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Հյուրանոցում գիշերային ադմինիստրատոր տղա փորձ պետք չէ ժ․20-08,00 օր ու մեջ 70,000+բոնուս հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Այգեգործ-բանվորուհիներ 6-օրյա ժ. 08.00-16.00 աշխ. 125000 դրամհեռ. 077109946</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Հյուրանոցում ցերեկային ադմինիստրատոր աղջիկ</t>
+          <t>պրեսսելեր տղա(պատվեր գրանցող)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Հյուրանոցում ցերեկային ադմինիստրատոր աղջիկ լեզուների իմացությամբ օր ու մեջ գրաֆիկով օրական 5000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Արևային էներգիայի համակարգեր տեղադրող ընկերոթյունում պրեսսելեր տղա(պատվեր գրանցող) փորձը պարտադիր չէ, ժամերը 09.00-18.00 5-օրյա, աշխատավարձը՝ 120.000+%: հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Պահանջվում է փորձառու կաթսայատան օպերատոր մինչև 55տ</t>
+          <t>Գրասենյակային ճաշարան շեֆ խոհարար</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Պահանջվում է փորձառու կաթսայատան օպերատոր մինչև 55տ 1օր շուրջօրյա 2 օր հանգիստ 200,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Գրասենյակային ճաշարան շեֆ խոհարար փորձով 5-օրյա (շաբաթ-կիրակի հանգիստ) ժ. 08.00-17.30 աշխ. 8000 ԿենտրոնՀեռ. 077109946</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Արմավիրի մարզում պահանջվում է փորձառու գյուղատնտես -այգեգործ</t>
+          <t>Գրասենյակի ճաշարանում խոհարարի օգնական</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Արմավիրի մարզում պահանջվում է փորձառու գյուղատնտես -այգեգործ տարիքային սահմանափակում չկա ժ․8-18,00 կիրակի ազատ 200,000-250,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Գրասենյակի ճաշարանում խոհարարի օգնական ժ. 08.00-17.30 , շաբաթ-կիրակի հանգիստ աշխ. 4000Կենտրոն Հեռ. 077712579</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Սպորտային խանութում վաճառող-ուհի</t>
+          <t>Գրասենյակի ճաշարանում խոհարար</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -695,167 +695,167 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Սպորտային խանութում վաճառող-ուհիտարիքը՝20-30տ,ժ․10-19,00 1օր հանգիստ 90,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Գրասենյակի ճաշարանում խոհարար ժամը 08.00-17.30 , շաբաթ-կիրակի հանգիստ աշխատավարձը՝ 8000Կենտրոն Հեռ. 077712579</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Գրասենյակում պահանջվում է ադմինիստրատիվ օգնական աղջիկ</t>
+          <t>Անձեռոցիկի արտադրամասում փաթեթավորող</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Գրասենյակում պահանջվում է ադմինիստրատիվ օգնական աղջիկ անգլերենի-ռուսերենի իմացությամբ տարիքը՝30-40տ․ժ․9,30-18,30 կիրակի ազատ հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Անձեռոցիկի արտադրամասում փաթեթավորող կանայք մինչև 55 տարեկան ժամը 9.00-18.00 աշխ. 80000 Հեռ. 077712579</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Արտադրամասում բանվորներ գիշերային հերթափոխով</t>
+          <t>Բուսակերների սրճարանում խոհարար</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Արտադրամասում բանվորներ գիշերային հերթափոխով ժ․20,00-08,00 1օր հանգիստ օրական 5000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Բուսակերների սրճարանում խոհարար փորձը ցանկալի է 1-ին օր ՝ 07.00-18.00, 2-րդ օր՝ 09.00-20.00 և հանգիստ,   աշխատավարձը՝ 7000 Կենտրոն հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Պահանջվում է խնամակալ ծեր տատիկի համար</t>
+          <t>Հյութերի ընկերությունում վարորդ առաքիչ</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Պահանջվում է խնամակալ ծեր տատիկի համար շաբաթական 2-3 օր շուրջօրյա գրաֆիկ՝ օրական 6000 տունը՝կենտրոնհեռ 093 360 344 կամ 077360378</t>
+          <t>Հյութերի ընկերությունում վարորդ առաքիչ մեքենան տրամադրում են փորձը ցանկալի է աշխատավարձը՝ 140.000+տոկոս:  հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Մակարոնեղենի արտադրամասում հոսքագծի օպերատոր տղա փորձ խետք չէ</t>
+          <t>Պետական կառույցում գնումների մասնագետ</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Մակարոնեղենի արտադրամասում հոսքագծի օպերատոր տղա փորձ խետք չէ ժ․9-18,00 կիրակի ազատ 140,000աշխատավայրը՝Մերձավան հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Պետական կառույցում գնումների մասնագետ աղջիկ փորձով բարձրագույն կրթությամբ և լեզուների իմացությամբ, ժամերը 09.00-18.00 5-օրյա, աշխատավարձը՝ 200.000:  հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Մանկապարտեզում խոհարար կին մինչև 45տ</t>
+          <t>Կոսմետիկայի ընկերության գրասենյակում հաշվետար աղջիկ</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Մանկապարտեզում խոհարար կին մինչև 45տժ․8,30-18,00 շաբաթ-կիրակի ազատ 90,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Կոսմետիկայի ընկերության գրասենյակում հաշվետար աղջիկ փորձը պարտադիր չէ ՀԾ-ի իմացությամբ,  ժամերը 09.00-14.00 կիրակի հանգիստ, աշխատավարձը՝  60.000: Հեռախոսահամար՝ 077 712579</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Սպորտ սրահում ընդունարանի աշխատակցուհի մինչև 40տ</t>
+          <t>Կոսմետիկայի ընկերության գրասենյակում գրասենյակային մենեջեր</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Սպորտ սրահում ընդունարանի աշխատակցուհի մինչև 40տժ․8-16,00 և ժ․16,00-00,0070,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Կոսմետիկայի ընկերության գրասենյակում գրասենյակային մենեջեր աղջիկ փորձը պարտադիր չէ,  ժամերը 09.00-18.00, աշխատավարձը՝100.000: հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Հյուրանոցում գիշերային ադմինիստրատոր տղա</t>
+          <t>մենեջեր տղա</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Հյուրանոցում գիշերային ադմինիստրատոր տղա փորձ պետք չէ ժ․20-08,00 օր ու մեջ 70,000+բոնուս հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Կոսմետկայի կենցաղային քիմիայի ընկերության գրասենյակում մենեջեր տղա անգլերենի իմացությամբ, ժամերը 09.00-18.00,  աշխատավարձը՝ 300.000 նախն. (վարորդ, իրավունք) հեռ,077712579</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Պլաստմասե շշերի արտադրամասում պահանջվում է բանվորուհի -հոսքագծի օպերատոր</t>
+          <t>Ավտոդպրոցում հրահանգիչ</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Պլաստմասե շշերի արտադրամասում պահանջվում է բանվորուհի -հոսքագծի օպերատոր աղջիկ մինչև 45տժ/8-20,00 կիրակի ազատ,օր 5500հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Ավտոդպրոցում հրահանգիչ փորձը ցանկալի է 30/55 տարեկան,  աշխատավարձը՝180.000-ից սկսած սեփական մեքենայով: հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Մակարոնեղենի արտադրամասում հոսքագծի օպերատոր տղա փորձ պետք չէ</t>
+          <t>Շին.ընկերությունում գազելի վարորդ</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Մակարոնեղենի արտադրամասում հոսքագծի օպերատոր տղա փորձ պետք չէ ժ․9-18,00 կիրակի ազատ 140,000աշխատավայրը՝մերձավան հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Շին.ընկերությունում գազելի վարորդ մինչև 55 տարեկան, աշխատավարձը՝170.000հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Թարգմանչական գրասենյակում ադմինիստրատիվ օգնական</t>
+          <t>PR մենեջեր</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -865,14 +865,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Թարգմանչական գրասենյակում ադմինիստրատիվ օգնական մինչև 40 տարեկան, լեզուների մինիմալ իմացությամբ, Ժամերը 09.30-18.00:հեռ.077712579</t>
+          <t>Ռեստորանում PR մենեջեր աղջիկ տղա ազատ գրաֆիկով փորձով աշխատավարձը՝ 150.000-ից սկսած:  հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Պահանջվում է կաթսայատան օպերատոր</t>
+          <t>Ռեստորանում հաշվապահ</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -882,14 +882,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Պահանջվում է կաթսայատան օպերատոր՝ փորձառու, մեկ օր շուրջօրյա 2 օր հանգիստ, աշխատավարձը՝ 180.000-200.000:հեռ.077712579</t>
+          <t>Ռեստորանում հաշվապահ փորձով ժամերը 09.00-18.00,  աշխատավարձը՝ 150.000-ից սկսած Կենտրոն:հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Խմորեղենի արտադրամասում փաթեթավորող կանայք</t>
+          <t>Ռեստորանի գրասենյակում ադմինիստրատիվ օգնական</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -899,14 +899,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Խմորեղենի արտադրամասում փաթեթավորող կանայք մինչև 35տ. ժ.09.00-20.00 աշխատավարձը՝ 4000:հեռ.077712579</t>
+          <t>Ռեստորանի գրասենյակում ադմինիստրատիվ օգնական աղջիկ լեզուների իմացությամբ,  ժամերը 11.00-19.00 շաբաթ կես օր,  աշխատավարձը՝ 120.000:հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Մակարոնեղենի արտադրամասում հոսքագծի օպերատոր</t>
+          <t>Մեքենաների խնամքի սրահում վաճառքի մենեջեր տղա</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -916,82 +916,82 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Մակարոնեղենի արտադրամասում հոսքագծի օպերատոր տղա փորձը պարտադիր չէ,  ժամերը 09.00-18.00, աշխատավարձը՝ 140.000:հեռ.077712579</t>
+          <t>Մեքենաների խնամքի սրահում վաճառքի մենեջեր տղա սեփական մեքենայով աշխատավարձը՝ 120.000+%+վառելիք (միջինը 300.000):  հեռախոսահամար՝ 077712579</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Շրջիկ վաճառող-ուհի սուրճի ընկերությունում</t>
+          <t>Կոմիտասում մաքրուհի  օրական 1ժամ</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Շրջիկ վաճառող-ուհի սուրճի ընկերությունում,  ժամերը 10.00-16.00, աշխատավարձը՝ 7000 միջինում:հեռ.077 71 25 79</t>
+          <t>Կոմիտասում գրասենյակում մաքրուհի տարիքային սահմանափակում չկա օրական 1ժամ շաբաթ-կիրակի ազատ 30,000</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Խնամակալ</t>
+          <t>Շին ընկերության գրասենյակում ադմինիստրատիվ օգնական աղջիկ</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Անհրաժեշտ է խնամակալ 60 տարեկան  կնոջ համար շաբաթական 2-3 սուտկա,  աշխատավարձը՝ 6000:հեռ.՝077712579</t>
+          <t>Շին ընկերության գրասենյակում ադմինիստրատիվ օգնական աղջիկ մինչև 40տ word-ի և լեզուների մինիմալ իմացությամբ ժ․9-18,00 կիրակի ազատ 120,000 էրեբունի</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Պլաստամասաների արտադրամասում հոսքագծի օպերատոր</t>
+          <t>գազելի վարորդ մինչև 60տ</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Պլաստամասաների արտադրամասում հոսքագծի օպերատոր կին մինչև 45տ. փորձը պարտադիր չէ ժ.08.00-20.00, աշխատավարձը՝ 5500 ( տրանսպորտով տեղափոխում են Էրեբունի և Շենգավիթ համայքներից) հեռ.077712579</t>
+          <t>Կազմակերպությանը անհրաժեշտ է գազելի վարորդ մինչև 60տ ժ․9-18,00 կիրակի ազատ 170,000նախ հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Մանկապարտեզում  ԽՈՀԱՐԱՐ</t>
+          <t>ֆրանսերենի գերազանց իմացությամբ հաճախորդների սպասարկման մասնագետ</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Մանկապարտեզում անհրաժեշտ է փորձառու ԽՈՀԱՐԱՐ,  ժամերը 08.30-18.00 5-օրյա, աշխատավարձը՝ 90.000:հեռ.077712579</t>
+          <t>Կազմակերպությանն անհրաժեշտ է ֆրանսերենի գերազանց իմացությամբ հաճախորդների սպասարկման մասնագետ ժ․10-19,00 շաբաթ-կիրակի ազատ 100,000նախ հեռ 077 360 344 կամ 093 360 344</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Շինանյութի խանութում վաճառող-մենեջեր</t>
+          <t>Ավտոդպրոցում հրահանգիչ տղա</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1001,116 +1001,116 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Շինանյութի խանութում վաճառող-մենեջեր տղա փորձով, ժամերը 09.00-19.00, աշխատավարձը՝ 120.000-150.000:հեռ.077712579</t>
+          <t>Ավտոդպրոցում հրահանգիչ տղա սեփական մեքենայով մինչև 55տ գրաֆկը՝ լողացող180,000-ից սկսած կենտրոն հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Սպորտ սրահի ընդունարանի աշխատակցուհի</t>
+          <t>հաշվետար աղջիկ EXCEL-ի իմացությամբ</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Սպորտ սրահի ընդունարանի աշխատակցուհի մինչև 40 տարեկան, ժամերը 08.00-16.00 և 16.00-24.00,  աշխատավարձը՝  70.000:հեռ.077712579</t>
+          <t>Արտահանող գրասենյակում ՇՏԱՊ հաշվետար աղջիկ EXCEL-ի իմացությամբ ժ․9-18,30 կիրակի ազատ 130,000-ից սկսած նորք հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Սուպերմարկետում գանձապահ տղա աղջիկ</t>
+          <t>Մսամթերքի արտադրամասում պահեստապետի փորձառու օգնական</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Սուպերմարկետում գանձապահ տղա աղջիկ փորձը պարտադիր չէ,  ժամերը 09.00-22.30, աշխատավարձը՝ 6000: հեռ.077712579</t>
+          <t>Մսամթերքի արտադրամասում պահեստապետի փորձառու օգնական ժ․9-18,30 շաբաթ հանգիստ 150,000նախ նոր նորք հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Խորհրդատու Խոհանոցային պարագաների սրահում</t>
+          <t>Արտադրամասում պահանջվում է փորձառու էլեկտրիկ</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Խոհանոցային պարագաների սրահում խորհրդատու մինչև 35 տարեկան,  ժամերը 11.00-20.00 շաբաթական 4 կամ 5 օր , աշխատավարձը՝ 74.000+տոկոս:հեռ.077712579</t>
+          <t>Արտադրամասում պահանջվում է փորձառու էլեկտրիկ մինչև 50տ ժ․9-18,30 կիրակի ազատ 130,000հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Կարի արտադրամասում օգնական կանայք</t>
+          <t>Սննդի սրահում մաքրուհի տարիքային սահմանափակում չկա</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Կարի արտադրամասում օգնական կանայք փորձը պարտադիր չէ, աշխատավարձը՝ 100.000-ից սկսած հեռ.077 71 25 79</t>
+          <t>Սննդի սրահում մաքրուհի տարիքային սահմանափակում չկա ժ․9-13,00 կամ ժ․13,00-21,00 կամ ժ․17-01,00 ճանապարհում են 80,000 կենտրոն հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ՀԱՑԹՈՒԽ կին տղամարդ</t>
+          <t>աճառքի մենեջեր սեփական մեքենայով</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Ռեստորանում անհրաժեշտ է փորձառու ՀԱՑԹՈՒԽ կին տղամարդ մինչև 55 տարեկան, ժամերը 10.00-23.00 մեկ օր հանգիստ,  աշխատավարձը՝ 6000 օրական: հեռ.077712579</t>
+          <t>Կենցաղային քիմիա ներմուծող կազմակերպությանը անհրաժեշտ է վաճառքի մենեջեր սեփական մեքենայով ժ․9-1800 կիրակի ազատ 150,000-ից սկսած հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ՀՅՈՒՐԸՆԿԱԼ աղջիկ</t>
+          <t>ՍԿՍՆԱԿ հաշվետար կես գրաֆիկով</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ՀՅՈՒՐԸՆԿԱԼ աղջիկ ռեստորանում ռուսերենի իմացությամբ, ժամերը 10.00-24.00 օր ու մեջ, աշխատավարձը՝ 7000 օրական:հեռ.077712579</t>
+          <t>Կազմակերպությանը անհրաժեշտ է ՍԿՍՆԱԿ հաշվետար կես գրաֆիկով հծ-ի իմացությամբ փորձ պետք չէ ժ․9-14,00 կիրակի ազատ 60,000հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Բարձրակարգ սրճարանում փորձառու շեֆ խոհարար</t>
+          <t>Կոսմետիկա ներմուծող գրասենյակում վաճառքի մենեջեր աղջիկ փորձ պետք չէ</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1120,14 +1120,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Բարձրակարգ սրճարանում փորձառու շեֆ խոհարար աղջիկ-տղա տարիքային սահմանափակում չկա 9ժամյա գրաֆիկ 300,000-500,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Կոսմետիկա ներմուծող գրասենյակում վաճառքի մենեջեր աղջիկ փորձ պետք չէ ժ․9-18,00 կիրակի ազատ 100,000նախ հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Կարի արտադրամասում մուտքագրող օպերատոր աղջիկ-տղա</t>
+          <t>Բեռնափոխադրող ընկերությանն անհրաժեշտ է փորձառու վարորդներ E կարգով</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1137,14 +1137,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Կարի արտադրամասում մուտքագրող օպերատոր աղջիկ-տղա 1C-ի իմացությամբ ժ․10-18․00 կիրակի ազատ 120․000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Բեռնափոխադրող ընկերությանն անհրաժեշտ է փորձառու վարորդներ E կարգով Հայաստան-Ռուսաստան բեռնափոխադրում կատարելու համար 400,000-500,000հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Ապակիներ ներմուծող գրասենյակում ադմինիստրատիվ օգնական</t>
+          <t>Պետական հիմնարկում գնումների փորձառու մասնագետ</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1154,14 +1154,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Ապակիներ ներմուծող գրասենյակում ադմինիստրատիվ օգնական աղջիկ փորձ պետք չէ մաթեմատիկական գիտելիքներով ժ․9-18,00 կիրակի ազատ 80,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Պետական հիմնարկում գնումների փորձառու մասնագետ աղջիկ բարձրագույն կրթությամբ և լեզուների գերազանց իմացությամբ ժ․9-18,00 շաբաոթ-կիրակի ազատ 200,000 հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Անհատական դայակ 1տ աղջկա համար</t>
+          <t>Ռեստորանի գրասենյակում ներքին հաշվապահ աղջիկ ծրագիրը սովորեցնում են</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1171,14 +1171,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Անհատական դայակ 1տ աղջկա համար տարիքը՝30-55տ, փորձը ցանակալի է ժ․9-18,00 կիրակի ազատ օրական 5000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Ռեստորանի գրասենյակում ներքին հաշվապահ աղջիկ ծրագիրը սովորեցնում են ժ․9-18,00 կիրակի ազատ 180,000-200,000հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Ավոտյուղերի սրահում փորձառու վաճառքի մենեջեր տղա</t>
+          <t>Ավտոմեքենայի խնամքի պարագաների սրահում վաճառքի մենեջեր</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1188,65 +1188,65 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Ավոտյուղերի սրահում փորձառու վաճառքի մենեջեր տղա սեփական մեքենայով ժ․9-19,00 կիրակի ազատ 100,000+%+մեքենայի ծախս (մինչև 350,000)հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Ավտոմեքենայի խնամքի պարագաների սրահում վաճառքի մենեջեր տղա սեփական մեքենայով,տարիքային սահմանափակում չկա, ժ․9-18,00 կիրակի ազատ 120,000+%+վառելիք (300.000-ից սկսած)հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Գրասենյակային մաքրուհի օրական 3 ժամ</t>
+          <t>Ք.Աբովյանում անվտանգության աշխատակից տղաներ</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Գրասենյակային մաքրուհի օրական 3 ժամ գրասենյակը կոմիտասում էհեռ 093 360 344 կամ 077 360 378</t>
+          <t>Ք.Աբովյանում անվտանգության աշխատակից տղաներ մինչև 35 տարեկան,  1 օր շուրջօրյա 3 օր հանգիստ, աշխատավարձը՝ 80.000 նախնական:հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Էլիտար թաղամասում փորձառու այգեպան</t>
+          <t>Մուտքագրող օպերատոր</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Էլիտար թաղամասում փորձառու այգեպան տարիքային սահմանափակում չկա ժ․9-18․00 կիրակի ազատ 130,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Կազմակերպությունում մուտքագրող օպերատոր 1C-Ի իմացությամբ,  ժամերը 09.30-18.30, աշխատավարձը՝ 150.000հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Ջահերի խանութում վաճառողներ-ուհիներ</t>
+          <t>Հուշանվերների խանութ սրահում վաճառողուհի</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Ջահերի խանութում վաճառողներ-ուհիներ փորձը ցանկալի ժ․10-19,00 1օր ազատ 90․000-ից սկսած հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Հուշանվերների խանութ սրահում վաճառողուհի մինչև 35 տարեկան, ժամերը 09.00-19.00, աշխատավարձը՝ 135.000:հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Տուրիստական հյուրանոցում ադմինիստրատոր</t>
+          <t>Հուշանվերների պահեստում օգնական տղա</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1256,167 +1256,167 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Տուրիստական հյուրանոցում ադմինիստրատոր աղջիկ-տղա լեզուների իմացությամբ շուրջօրյա օր ու մեջ գրաֆիկով օրական 5000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Հուշանվերների պահեստում օգնական տղա ժամերը 09.00-19.00,  աշխատավարձը՝135.000: Հեռախոսահամար՝ 077712579</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Մանրամեծածախ խանութ սրահում մաքրության պատասխանատու</t>
+          <t>Վաճառքի մենեջեր</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Մանրամեծածախ խանութ սրահում մաքրության պատասխանատու ժ․9-19,00 կիրակի ազատ 100,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Վաճառքի մենեջեր աղջիկ տղա կազմակերպության գրասենյակում (վաճառքի ոլորտում փորձով) ժամերը 10.00-19.00 5-օրյա,  աշխատավարձը՝ 150.000+տոկոս: Հեռախոսահամար՝ 077712579</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Սրճարանում պահանջվում է՝ մենեջեր,հյուրընկալ,բարմեն,մաքրուհի,սպասք լվացող,ներքին անվտանգության աշխատա</t>
+          <t>Դուռ տեղադրողներ</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Սրճարանում պահանջվում է՝ մենեջեր,հյուրընկալ,բարմեն,մաքրուհի,սպասք լվացող,ներքին անվտանգության աշխատակիցներ,լողացող ժամային գրաֆիկ․աշխատավարձը ՝բարձրհեռ 093 360 344 կամ 077 360 378</t>
+          <t>Դռների մասնագիտացված ընկերությունում դուռ տեղադրողներ ժ.09.00-19.00 աշխ.՝170.000+% հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Անշարժ գույքի գործակալությանը անհրաժեշտ են օպերատորներ կես գրաֆիկով</t>
+          <t>Էլեկտրոնիկայի սրահում վաճառողուհի</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Անշարժ գույքի գործակալությանը անհրաժեշտ են օպերատորներ կես գրաֆիկով ժ․15-20,00 կամ ժ․18-21,0035,000+%հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Էլեկտրոնիկայի մասնագիտացված սրահում վաճառողուհի մինչև 30 տարեկան, փորձը պարտադիր չէ,  ժամերը 10.00-19.00 1 օր հանգիստ, աշխատավարձը՝  120.000 ԿենտրոնՀեռախոսահամար՝ 077712579</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Դամաֆոններ ընկերությանը անհրաժեշտ են շրջիկ մենեջերներ</t>
+          <t>Վաճառող-ուհիներ</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Դամաֆոններ ընկերությանը անհրաժեշտ են շրջիկ մենեջերներ ժ․10-20,00 1օր ազատ 130,000 կամ ժ․18-20,00 աշխատավարձը՝գործարքային հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Էքստերիերի բարձրակարգ խանութ սրահում վաճառող-ուհիներ  մինչև 35 տարեկան,  ժամերը 09.00-19.00, աշխատավարձը՝130.000+ընդմիջում Կոմիտաս և Նոր Նորք:  հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Գովազդային կայքի ադմինիստրատոր աղջիկ</t>
+          <t>Գանձապահ օպերատոր</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Գովազդային կայքի ադմինիստրատոր աղջիկ ժ․12-19,00 կիրակի ազատ 100,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Էքստերիերի բարձրակարգ խանութ սրահում գանձապահ օպերատոր աղջիկ 1C-ի իմացությամբ, ժամերը 09.00-19.00 1 օր հանգիստ, աշխատավարձը՝ 150.000+ընդմիջում: Հեռախոսահամար՝ 077712579</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Հեռախոսի աքսեսուարների խանութում վաճառողուհի</t>
+          <t>Հաշվապահ տղա</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Հեռախոսի աքսեսուարների խանութում վաճառողուհի մինչև 40տ փորձ պետք չէ ժ․10-20,00 1օր հանգիստ 90,000+%հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Շին. կազմակերպության գրասենյակում հաշվապահ տղա փորձով ՀԾ-ի իմացությամբ, ժամերը 10.00-18.00 5-օրյա, աշխատավարձը՝ 250.000 հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Թղթի արտադրամասում փաթեթավորող տղա</t>
+          <t>Մարկետոլոգ</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Թղթի արտադրամասում փաթեթավորող տղա մինչև 45տ 1օր շուրջօրյա 1օր հանդիստ 165,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Շին.կազմակերպության գրասենյակում մարկետոլոգ տղա աղջիկ փորձով ժամերը 10.00-18.00 5-օրյա, աշխատավարձը՝ 200.000: հեռախոսահամար՝ 077712579</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Անհատական դայակ-դասապատրաստող 8տ աղջկա</t>
+          <t>Էլեկտրոնիկայի մասնագիտացված սրահում վաճառողուհի</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Անհատական դայակ-դասապատրաստող 8տ աղջկա համար ժ․13-23,00 1օր հանգիստ բարձրագույն կրթությամբ և լեզուների լավ իմացությամբ օրական 7000Տունը՝Արգավանդ հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Էլեկտրոնիկայի մասնագիտացված սրահում վաճառողուհի մինչև 30 տարեկան, փորձը պարտադիր չէ,  ժամերը 10.00-19.00 1 օր հանգիստ, աշխատավարձը՝ 120.000 Կենտրոն:Հեռախոսահամար՝ 077712579</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Հաշվապահական գրասենյակում գլխավոր հաշվապահ</t>
+          <t>Ուսումնական կենտրոնում ադմինիստրատոր</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Հաշվապահական գրասենյակում գլխավոր հաշվապահ մինչև 45տ ՀԾ-ի և 1C-ի իմացությամբ ժ,10-18,00 շաբաթ-կիրակի ազատ 400,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Ուսումնական կենտրոնում ադմինիստրատոր աղջիկ լեզուների իմացությամբ, ժամերը 11.00-20.00,  աշխատավարձը՝ 80.000-100.000; հեռախոսահամար՝ 077712579</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Գովազդային գործակալությունում կայքի ադմինիստրատո</t>
+          <t>Վարորդ առաքիչ ռեստորանում</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1426,14 +1426,14 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Գովազդային գործակալությունում կայքի ադմինիստրատոր աղջիկժամերը՝ 12.00-19.00 photoshop-ի իմացությամբ,  աշխատավարձը՝100.000:հեռ.077712579</t>
+          <t>Վարորդ առաքիչ ռեստորանում մինչև 45 տարեկան,. սեփական մեքենայով 11 ժամյա աշխատավարձը՝ 8000-ից սկսած: հեռսխոսահամար՝ 077 71 25 79</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Խաղալիքների խանութում վաճառող-ուհիներ</t>
+          <t>Մոլի Բարձրակարգ սննդի սրահում գանձապահ աղջիկ</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1443,14 +1443,14 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Խաղալիքների խանութում վաճառող-ուհիներ մինչև 35 տարեկան, ժամերը 10.00-21.00,  աշխատավարձը՝ 4000+տոկոս:հեռ.077712579</t>
+          <t>Մոլի Բարձրակարգ սննդի սրահում գանձապահ աղջիկ փորձը պարտադիր չէ 8 ժամյա,  աշխատավարձը՝ 4500: հեռախոսահամար՝ 077712579</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Դամաֆոնների ընկերությունում վաճառքի մենեջեր տղա, աղջիկ</t>
+          <t>Սրճարանում բարմեն</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1460,14 +1460,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Դամաֆոնների ընկերությունում վաճառքի մենեջեր տղա, աղջիկ փորձը պարտադիր չէ, ժամերը 10.00-20.00,  աշխատավարձը՝130.000:հեռ.077712579</t>
+          <t>Սրճարանում բարմեն փորձով ժամերը 10.00-24.00 օր ու մեջ,  աշխատավարձը՝ 7000 Կենտրոն:հեռախոսահամար՝ 077712579</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Մաքրության պատասխանատու</t>
+          <t>Բիզնես կենտրոնում ադմինիստրատոր աղջիկ</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1477,14 +1477,14 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Մանրամեծածախ առևտրի կենտրոնում մաքրության պատասխանատու մինչև 40 տարեկան,  փորձով ժամերը 09.00-19.00,  աշխատավարձը՝ 100.000: հեռ.077712579</t>
+          <t>Բիզնես կենտրոնում ադմինիստրատոր աղջիկ փորձը պարտադիր չէ ժամերը 09.00-18.00 կիրակի հանգիստ,  աշխատավարձը՝ 90.000 նախնական:հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Գովազդային գործակալությունում վաճառքի մենեջեր</t>
+          <t>Մանկական այգում տիրի սրահումաշխատակից տղա</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1494,14 +1494,14 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Գովազդային գործակալությունում վաճառքի մենեջեր աղջիկ տղա փորձը ցանկալի է, ժամերը 09.00-18.00 5-օրյա, աշխատավարձը տեղում:հեռ.077 71 25 79</t>
+          <t>Մանկական այգում տիրի սրահում աշխատակից տղա փորձը պարտադիր չէ,  ժամերը 17.00-23.00 աշխատավարձը՝ 3000 շաբաթ կիրակի,  ժամերը 11.00-23.00՝ 5000 հեռախոսահամար՝ 077712579</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Անհատական դայակ 1 տարեկան երեխայի համար</t>
+          <t>Հյուրանոցում ադմինիստրատոր աղջիկ</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1511,14 +1511,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Անհատական դայակ 1 տարեկան երեխայի համար մինչև 50 տարեկան,  ժամերը 09.00-18.00, աշխատավարձը՝ 5000 օրական:հեռ.077712579</t>
+          <t>Հյուրանոցում ադմինիստրատոր աղջիկ փորձը պարտադիր չէ մեկ օր ցերեկ մեկ օր գիշեր երկու օր հանգիստ լեզուների իմացությամբ, աշխատավարձը՝ 120.000+%: Հեռախոսահամար՝ 077712579</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Անհատական դայակ 8 տարեկան</t>
+          <t>Հյուրանոցում գիշերային հերթափոխի մաքրուհի</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1528,14 +1528,14 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Անհատական դայակ 8 տարեկան աղջիկ երեխայի համար ժամերը 13.00-23.00, բարձրագույն կրթությունը ցանկալի է,  աշխատավարձը՝ 7000:հեռ.077712579</t>
+          <t>Հյուրանոցում գիշերային հերթափոխի մաքրուհի ժամերը 18.00-09.00 օր ու մեջ,  աշխատավարձը՝ 6000:Հեռախոսահամար՝ 077712579</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Էքստերիերի սրահում վաճառող-ուհիներ</t>
+          <t>Բարձրակարգ առևտրի սրահում օպերատոր-գանձապահ</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1545,14 +1545,14 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Էքստերիերի սրահում վաճառող-ուհիներ, ժամերը 09.00-19.00,  լեզուների մինիմալ իմացությամբ, աշխատավարձը՝ 130.000 հեռ.077712579</t>
+          <t>Բարձրակարգ առևտրի սրահում օպերատոր-գանձապահ աղջիկ 1C-ի իմացությամբ, ժամերը 10.00-20.00 , աշխատավարձը՝  250.000:հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Թղթի արտադրամասում հոսքագծի օպերատոր-փաթեթավորող</t>
+          <t>Առաքիչի օգնական առևտրի սրահում</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1562,14 +1562,14 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Թղթի արտադրամասում հոսքագծի օպերատոր-փաթեթավորող տղա մեկ օր շուրջօրյա մեկ օր հանգիստ փորձը պարտադիր չէ, աշխատավարձը՝ 165.000:հեռ.077712579</t>
+          <t>Առաքիչի օգնական առևտրի սրահում ժամերը 10.00-20.00 կիրակի հանգիստ, աշխատավարձը՝ 120.000:հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Պայուսակի արտադրամասում մենեջեր-վաճառող</t>
+          <t>Ք.Աբովյանում փաթեթավորող կանայք</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1579,26 +1579,31 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Պայուսակի արտադրամասում մենեջեր-վաճառող տղա բարձրագույն կրթությամբ,  ժամերը 10.30-20.00, աշխատավարձը՝ 200.000:հեռ.077712579</t>
+          <t>Ք.Աբովյանում փաթեթավորող կանայք սննդամթերքի ընկերությունում ժամերը 18.00-03.00 (ճանապարհումում են) Աբովյանի բնակիչներ, աշխատավարձը՝ 4000-4500:հեռախոսահամար՝ 077712579</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>գործավար-թարգմանչուհի</t>
+          <t>Ապառիկ Ձևակերպող աղջիկներ առևտրի սրահում</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Ընկերությանը պահանջվում է գործավար-թարգմանչուհի Պարտականություններ՝ -նամակագրություն -թարգմանությունների կատարում-գործավարությունՊահանջներ՝ մինչև 35 տարեկան կին, բարձրագույն կրթություն, հայերենի, ռուսերենի և անգլերենի գերազանց իմացություն, MS office ծրագրերի իմացույուն։ Աշխատանքային փորձը ցանկալի է։Աշխատանքային ժամեր՝ 10։00-18։00։Աշխատավարձ (մաքուր)՝ 80 000 դրամ։Հեռ.: 27-53-10, 091-29-18-92, 077-29-18-92e-mail: info@tanger.amwww.tanger.am#ashxatanq #գործկա #թափուրհաստիք #աշխատանք #գործավար #թարգմանիչ #թարգմանչուհի</t>
+          <t>Ապառիկ Ձևակերպող աղջիկներ առևտրի սրահում փորձը ցանկալի է ժամերը 09.00-18.00 կիրակի հանգիստ, աշխատավարձը՝ 90.000+% Կենտրոն:հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Հոսքագծի օպերատոր տղաներ</t>
+          <t>Կահույքագործ արտադրամասում</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1608,14 +1613,14 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Հոսքագծի օպերատոր տղաներ սանտեխնիկայի արտադրամասում մեկ շաբաթ մեկ շաբաթ փորձը պարտադիր չէ, աշխատավարձը՝ 150.000:հեռ.077712579</t>
+          <t>Կահույքագործ արտադրամասում փորձով ժամերը 10.00-20.00,  աշխատավարձը՝ 400.000 (միջինը) Էրեբունի:հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ԾՐԱԳՐԱՎՈՐՈՂ</t>
+          <t>Կաբելային TV-ում տեխնիկական բաժնի աշխատակից տղա</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1625,14 +1630,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ԱՇԽԱՏԱՆՔ ՏԱՆԻՑ Ամերիկյան կազմակերպությունում անհրաժշետ է ԾՐԱԳՐԱՎՈՐՈՂ ազատ գրաֆիկով:հեռ.077 71 25 79</t>
+          <t>Կաբելային TV-ում տեխնիկական բաժնի աշխատակից տղա փորձը պարտադիր չէ ժամերը 10.00-20.00,  աշխատավարձը՝ 140.000-ից սկսած (մինչև 250.000):Հեռախոսահամար՝ 077712579</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ԽԱՂԱՎԱՐ աղջիկ մանկական ժամանցի կենտրոնում</t>
+          <t>Պահածոների արտադրամասում բանվորուհիներ</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1642,14 +1647,14 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>ԽԱՂԱՎԱՐ աղջիկ մանկական ժամանցի կենտրոնում,  ժամերը 18.00-22.00, աշխատավարձը՝ 45.000:հեռ.077 71 25 79</t>
+          <t>Պահածոների արտադրամասում բանվորուհիներ մինչև 60 տարեկան,  փորձը պարտադիր չէ ժամերը 09.00-18.00 կամ 18.00-24.00, աշխատավարձը՝3500 077712579</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Հրահանգիչ տղաներ</t>
+          <t>Մատուցողի օգնական տղա</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1659,26 +1664,31 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>մանկական ժամանցի կենտրոնում կարող են դիմել ուսանողներ աշխատանքը կես գրաֆիկով է, աշխատավարձը՝ 65.000-ից սկսածհեռ.077712579</t>
+          <t>Մատուցողի օգնական տղա սրճարանում փորձը պարտադիր չէ, 12 ժամյա աշխատավարձը՝ 5000-ից սկսած:  Հեռախոսահամար՝ 077712579</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>մաքրուհի, Уборщица</t>
+          <t>Գանձապահ տղա ռեստորանում</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Ընկերությանը պահանջվում է մաքրուհի։Աշխատանքի է հրավիրվում 40-60 տարեկան մաքրուհի։ Աշխատանքային ժամեր՝ 10։00-18։00։Աշխատավաձ (մաքուր)՝ 80 000 դրամ։Հեռ.: 27-53-10, 091-29-18-92, 077-29-18-92e-mail: info@tanger.amwww.tanger.amУборщица в компании.Требуется женщина 40-60 летЧасы работы: 10,00-18,00.Зарплата (чистая): 80 000 драм.Тел.: 27-53-10, 091-29-18-92, 077-29-18-92e-mail: info@tanger.amwww.tanger.am#ashxatanq #գործկա #թափուրհաստիք #աշխատանք #մաքրուհի</t>
+          <t>Գանձապահ տղա ռեստորանում 12 ժամյա փորձը պարտադիր չէ, աշխատավարձը՝ 5000-ից սկսած Կենտրոն:հեռախոսահամար՝ 077712579</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Հեռախոսավարուհի կազմակերպությունում</t>
+          <t>Վարորդ առաքիչ ռեստորանում</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1688,82 +1698,77 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Հեռախոսավարուհի կազմակերպությունում փորձը պարտադիր չէ ժամերը 10.00-16.00 կամ16.00-20.00, աշխատավարձը՝ 40.000, հարմար է ուսանողներին: հեռ.077712579</t>
+          <t>Վարորդ առաքիչ ռեստորանում մինչև 45 տարեկան, սեփական մեքենայով 11 ժամյա աշխատավարձը՝ 8000-ից սկսած: հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>պիցցա պատրաստող տղաներ փորձ պետք չէ</t>
+          <t>Ռեստորանում խոհարարի օգնական</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Պիցցայի սրահում պիցցա պատրաստող տղաներ փորձ պետք չէ ժ․10-22,00 օրական 5000+%հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Ռեստորանում խոհարարի օգնական տղա աղջիկ 12 ժամյա փորձը պարտադիր չէ,  աշխատավարձը՝ ՝5000-ից սկսած: հեռախոսահամար՝ 077 7712579</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>տեսահսկման օպերատոր աղջիկ մինչև 35տ</t>
+          <t>Ռեստորանում սպասք լվացող</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Անվտանգության գրասենյակում տեսահսկման օպերատոր աղջիկ մինչև 35տ 2օր աշխատում եք 2օր հանգիստ ժ․8-8 90,000նախհեռ 093 360 344 կամ 077 360 378</t>
+          <t>Ռեստորանում սպասք լվացող ժամերը 11.30-21.30 օր ու մեջ,  աշխատավարձը՝ 6000:հեռախոսահամար՝ 077712579</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>փորձառու չափագրող Autocad-ի իմացությամբ</t>
+          <t>Հյուրանոցում գիշերային հերթափոխի ադմինիստրատոր</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Կահույքի արտադրամասում փորձառու չափագրող Autocad-ի իմացությամբ ժ․10,30-19,00 կիրակի ազատ 150,000-ից սկսածհեռ 093 360 344 կամ 077 360 378</t>
+          <t>Հյուրանոցում գիշերային հերթափոխի ադմինիստրատոր աղջիկ տղա լեզուների իմացությամբ,  փորձը պարտադիր չէ, ժամերը 21.00-09,00 օր ու մեջ, աշխատավարձը՝  5000: Հեռախոսահամար՝ 077712579</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>գրաֆիկ դիզայներ աղջիկ</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>(Anywhere)</t>
+          <t>Վենսելլեր</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Դիզայներական ստուդիայում պահանջվում է գրաֆիկ դիզայներ աղջիկ photoshop,corel draw,illustrater ծրագրերի իմացությամբ ժ․10-19,00 կիրակի ազատ 100,000-150,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Վենսելլեր (սուրճի վաճառքով զբաղվող ընկերությունում)Աշխատավարձը (մաքուր)՝ ֆիքսված+վաճառքից տոկոսներ, 200.000-250.000 դրամՊահանջներ՝   - Տարիքը՝ 20 տարեկանից բարձր  - Կրթությունը՝ բարձրագույն  - Աշխատանքային փորձը ցանկալի է  - Հայերենի գերազանց իմացություն  - Սեփական մեքենայի առկայությունՊարտականություններ  - այց վաճառակետեր  - վաճառքի գործընթացի կազմակերպում  - ֆինանսական վերահսկողության իրականացում  - մերչնդայզինգԱշխատանքային գրաֆիկը՝  - 09:00-18:00 Վառելիքի ծախսը հոգում է գործատուն:   Ձեր ինքնակենսագրականը (CV) կարող եք ուղարկել info@tanger.am էլեկտրոնային հասցեին՝ subject բաժնում նշելով հաստիքի անվանումը: Հեռ.՝ (010) 27-53-10          091 29-18-92           077 29-18-92Հասցե՝  Կասյան 7-11E-mail`    info@tanger.amwww.tanger.am #գործկա #աշխատանք #work #գործ_կա #վենսելլեր #tanger #работа</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Սուպերմարկետի գրասենյակում մուտքագրող օպերատոր աղջիկ մինչև 45տ</t>
+          <t>Լաբարատորիայում պահանջվում է մաքրուհի</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1773,14 +1778,14 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Սուպերմարկետի գրասենյակում մուտքագրող օպերատոր աղջիկ մինչև 45տ 1C-ի իմացությամբ ժ․9,30-17,00 կիրակի ազատ 90,000նախհեռ 093 360 344 կամ 077 360 378</t>
+          <t>Լաբարատորիայում պահանջվում է մաքրուհի մինչև 50տ ժ․9-17,00 կիրակի ազատ 90,000Զեյթունհեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Ներմուծող գրասենյակում պահանջվում է փորձառու ֆինանսիստ աղջիկ</t>
+          <t>Արագ սննդի կետում հեռախոսավարուհի-պատվեր գրանցող</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1790,286 +1795,286 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Ներմուծող գրասենյակում պահանջվում է փորձառու ֆինանսիստ աղջիկ ՀԾ-ի և 1C-ի իմացությամբ ժ․9-18,00 կիրակի ազատ 120,000-ից սկսածհեռ 093 360 344 կամ 077 360 378</t>
+          <t>Արագ սննդի կետում հեռախոսավարուհի-պատվեր գրանցող աղջիկ փորձ պետք չէ ժ․9-20,00 1օր ազատ 5000օրական կինոհայրենիքհեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Բեռնատարի վարորդ սանտեխնիկայի ընկերությունում</t>
+          <t>Տուրիստական գրասենայում պահանջվում է նամակագրության պատասխանատու աղջիկ</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Բեռնատարի վարորդ սանտեխնիկայի ընկերությունում մեքենան տրամադրում են մինչև 50 տարեկան,  ժամերը 09.00-19.00, աշխատավարձը՝ 180.000: Հեռախոսահամար՝ 077712579</t>
+          <t>Տուրիստական գրասենայում պահանջվում է նամակագրության պատասխանատու աղջիկ լեզուների լավ իմացությամբ ժ․9-18,000 և ժ․13,00-22,00100,000հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Կազմակերպությունում անհրաժեշտ է իրավաբան</t>
+          <t>Փաստաբանական գրասենյակում գործավարուհի փորձ պետք չէ</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Կազմակերպությունում անհրաժեշտ է իրավաբան աղջիկ, փորձը ցանկալի է, բայց ոչ պարտադիր, ժամերը 09.00-18.00: հեռախոսահամար077712579</t>
+          <t>Փաստաբանական գրասենյակում գործավարուհի փորձ պետք չէ համակարգչային գիտելիքներով ժ․9-18,00 շաբաթ-կիրակի ազատ 80,000նախ կենտրոն հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Փաթեթավորող կանայք զուգագուլպաների արտադրամասում</t>
+          <t>Միջազգային գրասենյակի երևանյան մասնաճյուղում մաքրուհի օրական 2ժամ</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Փաթեթավորող կանայք զուգագուլպաների արտադրամասում մինչև  40 տարեկան, ժամերը 09.30-18.00, աշխատավարձը՝ 3000 օրական նախնական:հեռ.077712579</t>
+          <t>Միջազգային գրասենյակի երևանյան մասնաճյուղում մաքրուհի օրական 2ժամ ՝ առավոտյան-երեկույան, մինչև 55տ ժ․9,30-14,00 և ժ․20,00-22,00 80,000 մաշտոցհեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Ադմինիստրատոր-օպերատոր աղջիկ օնլայն խանութում</t>
+          <t>Սուրճի արտադրամասի գրասենյակում հաշվետար աղջիկ</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>մ մինչև 35 տարեկան, ժամերը 11.00-20.00, աշխատավարձը՝ 80.000 նախնական: Հեռախոսահամար՝ 077 71 25 79</t>
+          <t>Սուրճի արտադրամասի գրասենյակում հաշվետար աղջիկ մինչև 40տ ՀԾ-ի և invoicing-ի իմացությամբ ժ․8,30-18,30 կիրակի ազատ 80,000-150,000մալաթիայի բնակչուհիհեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Ինժեների օգնական</t>
+          <t>Բիզնես կենտրոնում ադմինիստրատոր աղջիկ</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Հեռահաղորդակցման ընկերությունում ինժեների օգնական փորձը պարտադիր չէ տեխնիկական կրթությամբ, ժամերը 10.00-19.00: Հեռախոսահամար՝ 077712579</t>
+          <t>Բիզնես կենտրոնում ադմինիստրատոր աղջիկ մինչև 30տ անգլերենի-ռուսերենի գեր իմացություն,ժ․9-18,00 շաբաթ՝ժ․9-14,00 150,000կիրակի ազատհեռ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Ֆինանսիստ աղջիկ ներմուծող կազմակերպությունում</t>
+          <t>Բժշկական կենտրոնում ադմինիստրատոր աղջիկ-տղա</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Ֆինանսիստ աղջիկ ներմուծող կազմակերպությունում, 1C ՀԾ excel ծրագրերի իմացությամբ,  ժամերը 09.00-18.00, աշխատավարձը՝ 120.000 սկսած:հեռ.077712579</t>
+          <t>Բժշկական կենտրոնում ադմինիստրատոր աղջիկ-տղա համակարգչի և լեզուների լավ իմացությամբ,լողացող գրաֆիկ Աջափյակ հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Ադմինիստրատոր տղա</t>
+          <t>Ատամնաբուժարանում ադմինիստրատոր աղջիկ փորձ պետք չէ</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Ադմինիստրատոր տղա հյուրանոցում մեկ օր շուրջօրյա մեկ օր հանգիստ լեզուների մինիմալ իմացությամբ,  աշխատավարձը՝ 10.000:հեռ.077 71 25 79</t>
+          <t>Ատամնաբուժարանում ադմինիստրատոր աղջիկ փորձ պետք չէ ժ․9-15,00 և ժ․15,00-21,00 1օր ազատ 50,000արշակունյաց հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Անվտանգության գրասենյակում տեսախցիկներին հետևող</t>
+          <t>Անհատական դայակ</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Անվտանգության գրասենյակում տեսախցիկներին հետևող աղջիկներ մինչև 35 տարեկան, գիշերային հերթափոխով, ժամերը 20.00-08.00 2 օր աշխտանքի  2 օր հանգիստ,աշխատավարձը՝ 90.000հեռ.077712579</t>
+          <t>Անհատական դայակ մինչև 45տ երկու երեխայի համար ժ․15,00-20,00 1օր ազատ օրական 3500-ից սկսածհեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Ադմինիստրատոր-մատենավար աղջիկ</t>
+          <t>Գրասենայկում պահանջվում է փորձառու վարորդ</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Ադմինիստրատոր-մատենավար աղջիկ բիզնես կենտրոնում լեզուների իմացությամբ,  ադմինիստրատիվ փորձով, ժամերը 09.00-18.00,  աշխատավարձը բարձր: հեռ.077712579</t>
+          <t>Գրասենայկում պահանջվում է փորձառու վարորդ մեքենան տրամադրվում է (nissan) 100,000+յուրաքանչյուր գործողումը 5000դր հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Խոհարարի օգնական</t>
+          <t>ԱՇԽԱՏԱՆՔ ԱԲՈՎՅԱՆՈՒՄ</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Խոհարարի օգնական կին արտադրամասի ճաշարանում մինչև 40 տարեկան, ժամերը 09.00-17.00, աշխատավարձը՝ 75.000 սկսած:հեռ.077712579</t>
+          <t>ԱՇԽԱՏԱՆՔ ԱԲՈՎՅԱՆՈՒՄ պահանջվում են սունկ հավաքող կանայք ժ․9-18,00 կիրակի ազատ 90,000հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Ճաշարանում սպասարկող</t>
+          <t>Բարեգործական գրասենյակում մաքրուհի</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Բիզնես կենտրոնի ճաշարանում սպասարկող ժամերը 09.30-17.30 5-օրյա, աշխատավարձը՝ 3000 օրական:հեռ.077 71 25 79</t>
+          <t>Բարեգործական գրասենյակում մաքրուհի մինչև 45տ ժ․7-16,00 շաբաթ-կիրակի ազատ 96,000հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Սրճարանում մենեջեր տղա</t>
+          <t>Արագ սննդի կետում փորձառու բուրգեր պատրաստող աղջիկ</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Սրճարանում մենեջեր տղա փորձը պարտադիր է լեզուների իմացությամբ,  ժամերը 09.00-24.00, աշխատավարձը՝ 9000 օրական հեռ.077712579</t>
+          <t>Արագ սննդի կետում փորձառու բուրգեր պատրաստող աղջիկ մինչև 45տ ժ․8-17,00 օրական 5000հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Կահույքի արտադրամասում չափագրող</t>
+          <t>Արագ սննդի կետում պահանջվում է սլայոնի խմորի մասնագետ</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Կահույքի արտադրամասում չափագրող փորձով autocad-ի իմացությամբ,  ժամերը՝10.30-19.00, աշխատաավրձը՝ 150.000:Հեռախոսահամար՝ 077712579</t>
+          <t>Արագ սննդի կետում պահանջվում է սլայոնի խմորի մասնագետ մինչև 50տ ժ․8-17,00 կիրակի ազատ 5000օրական հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Հյուրանոցում ադմինիստրատոր աղջիկ</t>
+          <t>Շին կազմակերպության գրասնեյակում ադմինիստրատիվ օգնական աղջիկ</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Հյուրանոցում ադմինիստրատոր աղջիկ մեկ օր շուրջօրյա երկու օր հանգիստ փորձը պարտադիր չէ.  աշխատավարձը՝ 10.000+բոնուսներ:Հեռախոսահամար՝ 077712579</t>
+          <t>Շին կազմակերպության գրասնեյակում ադմինիստրատիվ օգնական աղջիկ ռուսերենի լավ իմացությամբ ժ․10-19,00 շաբաթ-կիրակի ազատ 80,000-120,000կենտրոն հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Մատուցողի օգնական տղա, աղջիկ</t>
+          <t>Արագ սննդի կետում խոհարարի օգնական աղջիկ-տղա փորձ պետք չէ</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Մատուցողի օգնական տղա, աղջիկ սրճարանում փորձը պարտադիր չէ 8 ժամյա կարող են դիմել ուսանողներ աշխատավարձը՝4000:Հեռախոսահամար՝ 077712579</t>
+          <t>Արագ սննդի կետում խոհարարի օգնական աղջիկ-տղա փորձ պետք չէ ժ․8-18,00 շաբաթ-կիրակի ազատ օրական 4000հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Մենեջեր տղա աղջիկ հյուրանոցում</t>
+          <t>Բարձրակարգ հյուրանոցում մենեջեր աղջիկ փորձ պետք չէ</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Մենեջեր տղա աղջիկ հյուրանոցում փորձը ցանկալի է 12 ժամյա գրաֆիկով, աշխատավարձը տեղում:Հեռախոսահամար՝ 077712579</t>
+          <t>Բարձրակարգ հյուրանոցում մենեջեր աղջիկ փորձ պետք չէ լեզուների լավ իմացությամբ 12 ժամյա ցերեկային-գիշերային գրաֆիկ 100,000 կենտրոն հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Գրասենյակում պահանջվում է գործավորուհի մինչև 35տ</t>
+          <t>Հյուրանոցում պահանջվում է մատուցող-բարմեն տղա-աղջիկ փորձ պետք չէ</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2079,14 +2084,14 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Գրասենյակում պահանջվում է գործավորուհի մինչև 35տ լեզուների և համակարգչի իմացությամբ ժ․9,30-19,30 կիրակի ազատ 150,000(աշխատակիցների տեղափոխումը կատարվում է անվճար)աշխատավայրը՝Չարբախհեռ 093 360 344 կամ 077 360 378</t>
+          <t>Հյուրանոցում պահանջվում է մատուցող-բարմեն տղա-աղջիկ փորձ պետք չէ լեզուների մինիմալ իմացությամբ ժ․8,30-20,30 կամ ժ․20,30-08,30 85,000+%+բոնուսհեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Բարձրակարգ կլինիկայում պահանջվում է մայրապետ (սանիտարկա)</t>
+          <t>Սուպերմարկետում համեմունքների բաժնում վաճառողուհի փորձ պետք չէ</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2096,14 +2101,14 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Բարձրակարգ կլինիկայում պահանջվում է մայրապետ (սանիտարկա) մինչև 50տ 1օր շուրջօրյա 2օր հանգիստ 95,000նախհեռ 093 360 344 կամ 077 360 378</t>
+          <t>Սուպերմարկետում համեմունքների բաժնում վաճառողուհի փորձ պետք չէ մինչև 40տ ժ․12-20,00 կամ ժ․11-19,00 1օր ազատ 80,000%կենտրոն հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Պահանջվում է անհատական դայակ 7տ աղջկա համար</t>
+          <t>Ամերիկյան կազմակերպությանը անհրաժեշտ է օպերատոր աղջիկ-տղա</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2113,48 +2118,38 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Պահանջվում է անհատական դայակ 7տ աղջկա համար մինչև 45տ ժ․16-19,00 շաբաթ-կիրակի հանգիստ օրական 3000,հիմնական պարտականությունները՝ ուղեկցել պարապմունքների և դասապատրաստում կատարել հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Ամերիկյան կազմակերպությանը անհրաժեշտ է օպերատոր աղջիկ-տղա անգլերենի գերազանց իմացությամբ ժ․10-19.00 շաբաթ-կիրակի ազատ 100,000կենտրոն հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Խնամքի կենտրոնում պահանջվում են խնամակալներ մինչև 50տ</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>(Anywhere)</t>
+          <t>Մաքրուհի սրճարանում</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Խնամքի կենտրոնում պահանջվում են խնամակալներ մինչև 50տ 1օր շուրջօրյա 2օր հանգիստ 80,000-120,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Աշխատավարձը (մաքուր)՝ 100.000 դրամՊահանջներ՝   - Սեռը՝ իգական  - Տարիքը՝ մինչև 55 տարեկան  - Աշխատանքային փորձը ցանկալի էՊարտականություններ  - Սրահի մաքրության պահպանում:Աշխատանքային գրաֆիկը՝  - 1-ին հերթափոխ 7:30-15:00 -  2-րդ հերթափոխ 15:00-23:00   Ընկերությունը տրամադրում է անվճար սնունդ:Հեռ.՝ (010) 27-53-10          091 29-18-92           077 29-18-92Հասցե՝  Կասյան 7-11E-mail`    info@tanger.amwww.tanger.am #գործկա #աշխատանք #work #գործ_կա #մաքրուհի #tanger #работа</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Անձնական վարորդ մինչև 35տ</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>(Anywhere)</t>
+          <t>Սրճարանի կառավարիչ</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Անձնական վարորդ մինչև 35տ ցանկալի է աշխատանքային փորձով և պարտադիր սպորտային կառուցվածքով(բոյը՝180սմ և ավել),ժ․8,30-20,30 կիրակի ազատ 150,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Կազմակերպության մասին`	Բարեգործական հասարակական կազմակերպություն:Պարտականություններ`	Սրճարանի առօրյա աշխատանքի կազմակերպում և վերահսկում,հյուրերի սպասարկման բարձր մակարդակի կազմակերպում,նոր հաճախորդներ ներգրավելու, հավատարմության աստիճանը բարձրացնելու նպատակով ստեղծագործական գաղափարների, ծրագրերի ներդրում,սպասարկման ստանդարտներին համապատասխանության ապահովում,գնումների/պատվերի կազմակերպում, ընդունում,գույքագրում,ծախսերի վերահսկում, վերլուծություն և օպտիմալացում, գնումների փաստաթղթավարություն,անձնակազմի կառավարում (ուսուցում, գնահատում, հսկողություն, մոտիվացիա, ներգրավում),դրամարկղի հսկողություն,վարչական և գործարար խնդիրների լուծում,աշխատանքի անվտանգության, անվտանգության նորմերին, հրդեհային անվտանգության կանոնների համապատասխանության վերասկում,սանիտարական նորմերի և սննդամթերքի անվտանգության կանոնների պահպանում,կապալառուների հետ բանակցությունների վարում, մատակարարների գների օպտիմալացում,կարգավորող մարմինների հետ փոխգործակցություն:Պահանջներ`	Բարձրագույն կրթություն ցանկալի է,սննդի ոլորտում տնօրենի/ղեկավարի առնվազն 1 տարվա աշխատանքային փորձ,ինքնուրույն որոշումներ կայացնելու ունակություն.սրճարանի անխափան գործունեությունը ապահովելու ունակություն,թիմում համագործակցության և փոխաջակցության մթնոլորտի ձևավորման ունակություն:Անձնական հատկանիշներ	Ակտիվ կյանքի դիրքորոշում;ուժեղ առաջնորդություն և միջանձնային հաղորդակցման հմտություններ, հույզեր կառավարելու ունակություն;խոսակցական հաղորդակցման հմտություններ;գերազանց թիմային հմտություններ;կազմակերպչական հմտություններ;բազմակի խնդիրներ կառավարելու ունակություն:Աշխատանքային փորձ	Ոչ պակաս քան 1 տարիՏարիք`	30-50Սեռ`	Դեր չի խաղումԱշխատանքի տևողությունը`	Լիարժեք աշխատանքային օրԱշխատանքային ժամեր`	11.00 - 23.00Աշխատավարձ`	500 000 AMDՊահանջվող փաստաթղթեր`	Ներկայացնել մանրամասն ռեզյումե լուսանկարով:Հավելյալ տեղեկություններ`	Փորձաշրջանը՝ 1 ամիս,վեցօրյա աշխատանքային գրաֆիկ,սրճարանը գտնվում է Մասիս քաղաքում:Աշխատանքի սկիզբը	01.08.2019Վերջնաժամկետ	01.08.2019</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>գլխավոր հաշվապահ</t>
+          <t>Ներգնա տուր ընկերությունում վարորդ</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2164,94 +2159,99 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Շին ընկերության գրասենյակում գլխավոր հաշվապահ աղջիկ մինչև 45տ ՀԾ-ի իմացությամբ ժ․10-18,00 շաբաթ-կիրակի ազատ 300,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Ներգնա տուր ընկերությունում վարորդ մեքենան տրամադրում են լեզուների մինիմալ իմացությամբ, ժամերը 09.00-18.00 5-օրյա, աշխատավարձը՝  200.000 միջինը: հեռախոսահամար՝ 077712579</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Մանկական պարագաների խանութում պահանջվում է վաճառողուհի  կես գրաֆիկով</t>
+          <t>Բժշկակական կենտրոնում անվտանգության աշխատակից</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Մանկական պարագաների խանութում պահանջվում է վաճառողուհի մինչև 30տ ժ․10-16,00 կամ ժ․16-22,00 1օր հանգիստ հարմար է նաև ուսանողներին 70,000+%հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Բժշկակական կենտրոնում անվտանգության աշխատակից մինչև 45 տարեկան, 1 օր շուրջօրյա 3 օր հանգիստ,  աշխատավարձը՝ 80.000: հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Առանձնատանը պահանջվում է փորձառու այգեգործ</t>
+          <t>Տուր ընկերությունում նամակագրության պատասխանատու</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Առանձնատանը պահանջվում է փորձառու այգեգործ մինչև 50տ ժ․9-18,00 կիրակի ազատ 150,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Տուր ընկերությունում նամակագրության պատասխանատու աղջիկ լեզուների գերազանց իմացությամբ,  ժամերը 9.00-18.00 և 13.00-22.00, աշխատավարձը՝ 100.000 նախնական:հեռախոսահամար՝ 077712579</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Առանձնատանը պահանջվում է խոհարար կին</t>
+          <t>Փաստաբանական գրասենյակում ադմինիստրատիվ օգնական</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Առանձնատանը պահանջվում է խոհարար կին մինչև 50տ հիմնականում պատրաստելու եք հայական ուտելիքներ ժ․9-21,00 կիրակի ազատ 150,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Փաստաբանական գրասենյակում ադմինիստրատիվ օգնական աղջիկ մինչև 35 տարեկան,  ժամերը 09.00-18.00 5-օրյա փորձը պարտադիր չէ, աշխատավարփը՝  80.000 Կենտրոնհեռախոսահամար՝ 077712579</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>հմուտ տնայնագործ մինչև 50տ</t>
+          <t>Գեղեցկության սրահում մենեջեր</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Շտապ պահանջվում է հմուտ տնայնագործ մինչև 50տ ժ․9-18,00 կիրակի ազատ 150,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Գեղեցկության սրահում մենեջեր աղջիկ շաբաթական 3 օր ժամերը 10.00-20.00,  աշխատավարձը՝3000 օրական: հեռախոսահամար՝ 077712579</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Remote Software Operations Manager</t>
+          <t>Բիզնես կենտրոնում ադմինիստրատիվ օգնական</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Join the world’s largest virtual company!Work from anywhere – Flexible hours – Training &amp; travel opportunitiesScopic Software is seeking a skilled Remote Software Operations Manager to join our team of 250+ professionals in over 40 countries. We are looking for a proactive, driven professional we can trust with the rigorous task of ensuring our projects are running as effectively and efficiently as possible. This is a full-time, home-based position.The Operations Manager will work with a co-manager to provide guidance to project managers, put out fires before they start, collaborate with all departments to ensure seamless coordination, and ultimately contribute to the strategic development of the company’s day-to-day operations. This is an ideal position for motivated individuals looking for a diverse, fast-paced, fully remote environment.Responsibilities: •	Support and monitor the onboarding of new projects to ensure clients’ expectations are met•	Monitor active projects to identify and prevent risks, ensure effective implementation and timely delivery within project budgets•	Work with resource management to optimize project personnel assignments•	Address concerns escalated by either project managers or clients•	Interview, hire, train, manage, mentor and evaluate project managers•	Perform day to day tasking and management of assistant operations managers•	Manage client contracts, including management of rate increases•	Liaise with Accounting/Finance to assess and improve project profitability•	Work with HR on performance reviews and associated operational actions•	Suggest and implement SDLC and other process improvements•	Work effectively with the Director of Engineering and other technical personnel to troubleshoot technical challenges and enhance technical workflowsSuccessful candidates will be:•	Skilled in the English language, especially writing•	Comfortable with self-organization, prioritization and multi-tasking in a dynamic environment•	Independently motivated self-starters with strong work ethic•	Industrious and energetic•	Detail-oriented but still able to see the big picture•	Diplomatic but able to provide direct feedback when it is needed•	Receptive to constructive feedback and interested in growth and self-improvement•	Able to manage stress with a positive attitude, even in challenging situations•	Perceptive and understanding, able to communicate clearly and professionally•	Highly adept at detecting and preventing risks and solving problems•	Ready to jump into tasks and do whatever is neededThe right candidate will work with a team of skilled professionals from around the world to keep the company running smoothly and efficiently.At Scopic, we believe talent can be found in every corner of the globe, and you shouldn’t be limited by location. Our employees work in nearly every time zone, from whenever they feel most comfortable, and our software benefits from this diversity of perspectives and expertise.Grow Your Skills and Your Career, FastWe offer training opportunities to keep your skills sharp and encourage you to stay up-to-date with ever-evolving technologies. As your skills grow and you take on additional responsibility, you will have opportunities to move up in the company. If you work hard and deliver quality results, you will do very well here. Pay raises and promotions are completely merit-based, so your success is in your hands.Become a Valuable Part of a Small, Dynamic International TeamUnlike huge tech corporations like Google and Microsoft, Scopic employees don’t get lost in bureaucracy or sidelined doing the same boring tasks day after day. Most projects last six months to one year, so all team members have the opportunity to try their skills on a diverse range of applications. Scopic employees work independently and are entrusted with considerable responsibility.Contribute to Meaningful Applications for Clients Invested in Your SuccessAll Scopic projects involve working with challenging, innovative applications. The applications Scopic works on are the cornerstone of our clients’ businesses. Clients and users will rely on you to ensure the delivery of quality software products.Why Work With Scopic Software?•	Flexible working hours, set your own schedule•	Freedom to travel and work from anywhere in the world•	Ability to work wherever you are most comfortable (home, office, park, café, etc.)•	Reliable, consistent workload•	Flexible payment options in $US – salaried and hourly positions available•	Annual pay increases for good performance•	Paid training and other professional growth opportunities•	International travel opportunities (not required)•	Interesting, challenging projects using the latest technologiesRequired Qualifications:•	Bachelor’s degree in a business or technical field, Master’s degree preferred•	1+ years of experience in full-cycle software project management•	Strong knowledge of the SDLC and how software applications are created•	Familiarity with creating specs and wireframes for software projects•	Excellent English communication skills, both verbal and written•	Demonstrated leadership skills and the aptitude to learn new skills quickly•	Demonstrated risk and client management expertise•	Excellent computer skills and proficiency in Microsoft Office•	Basic technical knowledge and/or experience in the IT industrySalary: Negotiable depending on skills and experience. Hourly and salary positions available. Employees are paid monthly via wire transfer.Please apply online: https://scopicsoftware.recruiterbox.com/jobs/fk0jpwh?cjb_hash=O_vNiY66&amp;apply_now=trueHave questions about this position? Contact us at jobs@scopicsoftware.com.About Scopic SoftwareScopic Software is the world’s largest virtual company. Founded in 2006, we have grown consistently by delivering innovative, cutting-edge software and marketing services to our clients and creating an empowering environment for our employees. We build and market advanced software for clients and users around the globe. With 10+ years in the industry and 1000+ projects under our belt, we’ve brought to life software for Manufacturing, Media and Entertainment, Fintech, Healthcare, Food and Fitness, and Gaming. Check out our work on our portfolio: scopicsoftware.com/portfolio/.Learn more about career opportunities at Scopic: scopicsoftware.com/careers.</t>
+          <t>Բիզնես կենտրոնում ադմինիստրատիվ օգնական անգլերենի ռուսերենի իմացությամբ,  ժամերը 09.00-18.00 շաբաթ 09.00-15.00, աշխատավարձը՝  150.000 Կենտրոն: հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Փոխտնօրեն աղջիկ անշարժ գույքի գրասենյակում</t>
+          <t>Ատամնաբուժարանում ադմինիստրատոր աղջիկ</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2261,14 +2261,14 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Փոխտնօրեն աղջիկ անշարժ գույքի գրասենյակում լեզուների մինիմալ իմացությամբ,  ժամերը 10.00-18.30,  աշխատավարձը՝150.000 հեռ.077712579</t>
+          <t>Ատամնաբուժարանում ադմինիստրատոր աղջիկ փորձը պարտադիր չէ ժամերը 09.00-15.00 և 15.00-21.00, Աշխատավարձը՝ 50.000 նախնական, Արշակունյաց:հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Խոհարար ճաշարանում</t>
+          <t>Հյուրանոցում ադմինիստրատոր տղա</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2278,31 +2278,31 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Բիզնես կենտրոնի ճաշարանում խոհարար կին ժամերը 08.00-18.00 5-օրյա, աշխատավարձը՝ 8000 օրական հեռ.077712579</t>
+          <t>Հյուրանոցում ադմինիստրատոր տղա մեկ օր շուրջօրյա երկու օր հանգիստ փորձը պարտադիր չէ,  աշխատավարձը՝10.000:հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Փաթեթավորող կանայք շոկոլադի արտադրամասում</t>
+          <t>Հյուրանոցում մենեջեր աղջիկ</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Փաթեթավորող կանայք շոկոլադի արտադրամասում ժամերը 08.30-17.30, աշխատավարձը ՝ 80.000 հեռ.077712579</t>
+          <t>Հյուրանոցում մենեջեր աղջիկ 12 ժամյա ցերեկային և գիշերային հերթափոխ լեզուների իմացությամբ,  փորձը պարտադիր չէ, աշխատավարձը՝ 100.000: հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Փաթեթավորող անձեռոցիկի արտադրամասում</t>
+          <t>Շին.կազմակերպության սրահի մենեջեր տղա</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2312,26 +2312,31 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Անձեռոցիկի արտադրամասում փաթեթավորող կանայք մինչև 45 տարեկան,  ժամերը 09.00-18.00,  աշխատավարձը՝ 80.000-100.000 հեռ.077 71 25 79</t>
+          <t>Շին.կազմակերպության սրահի մենեջեր տղա փորձը ցանկալի է ժամերը 10.00-19.00 շաբաթ 10.00-18.00,  աշխատավարձը՝150.000-ից սկսած,աշխատավայրը՝ Կենտրոն:հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Գլխավոր մեխանիկ (աշխատանք ք. Չարենցավանում):</t>
+          <t>Հյուրանոցու գիշերային հերթափոխի ադմինիստրատոր տղա</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Պարտականություններ՝-Վերահսկել և վերանայել արտադրական սարքավորումների և համակարգերի շարունակական շահագործումը, նվազագույնի հասցնել սարքավորումների աշխատանքի չնախատեսված դադարները, կանխատեսել խնդիրները, դրանք լուծել ժամանակին և փնտրել բարելավման հնարավորություններ:-Վերահսկել արտադրական սարքավորումների կանխարգելիչ պահպանման և ընթացիկ վերանորոգման աշխատանքները՝ ըստ կանխարգելիչ պահպանման ժամանակացույցի:-Գնահատել, թե ինչպիսի հմտություն և որքան աշխատուժ է անհրաժեշտ համապատասխան աշխատանքը իրականացնելու համար:-Ստեղծել և թարմացնել կանխարգելիչ պահպանման և ընթացիկ վերանորոգումների առաջադրանքների ցանկը:-Ղեկավարել ընթացիկ աշխատանքների ավարտը պահպանման ժամանակացույցին համապատասխան:Պահանջներ՝ տղամարդ 35-65 տ., համապատասխան բարձրագույն կրթություն, նշված ոլորտում առնվազն 5 տարվա փորձի առկայութուն, հայերենի և ռուսերենի իմացություն: Ցանկալի է բնակվել Չարենցավանում կամ Աբովյանում: Դիմեն կազմակերպչական ունակություններով, բանիմաց, խստապհանջ մարդիկ:Աշխատանքային ժամեր՝ 09:00-18:00Աշխատավարձ (մաքուր)՝ 200.000 դրամ:Հեռ.: 27-53-10, 091-29-18-92, 077-29-18-92e-mail: info@tanger.amwww.tanger.am</t>
+          <t>Հյուրանոցում գիշերային հերթափոխի ադմինիստրատոր տղա  լեզուների իմացությամբ,  փորձը պարտադիր չէ,  ժամերը 21.00-09.00 օր ու մեջ, աշխատավարձը՝ 80.000: 077712579</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Պատվեր գրանցող աղջիկներ  սննդի սրահում</t>
+          <t>Անշարժ գույքի գրասենյակում տնտեսական գծով մենեջեր</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2341,31 +2346,31 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Բարձրակարգ սննդի սրահում պատվեր գրանցող աղջիկներ փորձը պարտադիր չէ,  ժամերը 09.00-17.00 կամ 17.00-01.00, աշխատավարձը՝ 80.000 հեռ.077 71 25 79</t>
+          <t>Անշարժ գույքի գրասենյակում տնտեսական գծով մենեջեր տղա (վարորդական իրավունք) ժամերը 09.30-18.30,  աշխատավարձը՝ 150.000-ից սկսած: հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Գանձապահ արագ սննդի սրահում</t>
+          <t>Անշարժ գույքի գրասենյակում ադմինիստրատիվ օգնական</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Գանձապահ արագ սննդի սրահում փորձը պարտադիր չէ,  ժամերը 09.00-17.00 կամ 17.00-01.00,  աշխատավարձը՝ 90.000 հեռ.077712579</t>
+          <t>Անշարժ գույքի գրասենյակում ադմինիստրատիվ օգնական աղջիկ փորձը պարտադիր չէ ժամերը 09.30-18.30, աշխատավարձը՝ 80.000+%(120.000 միջինը) Կենտրոն;077712579</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Մատուցող-ուհիներ բարձրակարգ հյուրանոցում</t>
+          <t>Արագ սննդի սրահում բուրգեր պատրաստող աղջիկ</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2375,14 +2380,14 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Մատուցող-ուհիներ բարձրակարգ հյուրանոցում փորձը պարտադիր չէ ժամերը 06.00-12.00 կամ 12.00-18.00 կամ 18.00-24.00,  աշխատավարձը՝ 120.000+թեյավճար հեռ.077712579</t>
+          <t>Արագ սննդի սրահում բուրգեր պատրաստող աղջիկ փորձով ժամերը 08.00-19.00 շաբաթ կիրակի հանգիստ,  աշխատավարձը՝ 5000, աշխատավայրը  Կենտրոնհեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Գանձապահի օգնական տղա</t>
+          <t>Խոհարարի օգնական կանայք արագ սննդի սրահում</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -2392,14 +2397,14 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Բարձրակարգ հյուրանոցում անհրաժեշտ է գանձապահի օգնական տղա ռուսերենի իմացությամբ,  ժամերը 19.00-07.00,  աշխատավարձը՝ 9000 հեռ.077712579</t>
+          <t>Խոհարարի օգնական կանայք արագ սննդի սրահում փորձը պարտադիր չէ, ժամերը 08.00-17.00 շաբաթ կիրակի հանգիստ,  աշխատավարձը՝ 3500 Կենտրոն: հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Գլխավոր մենեջեր հյուրանոցում</t>
+          <t>Սլայոնի խմորի մասնագետ</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2409,14 +2414,14 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Հյուրանոցում անհրաժեշտ է փորձառու գլխավոր մենեջեր աղջիկ տղա լեզուների իմացությամբ, ժամերը 10.00-19.00 հեռ.077712579</t>
+          <t>Սլայոնի խմորի մասնագետ կանայք արագ սննդի սրահում ժամերը 08.00-17.00 շաբաթ կիրակի հանգիստ,  աշխատավարձը՝5000 Կենտրոն: հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Խոհարարի օգնականններ սրճարանում</t>
+          <t>Շին.կազմակերպության գրասենյակում ադմինիստրատիվ օգնական</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -2426,82 +2431,72 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Բարձրակարգ սրճարանում անհրաժեշտ են խոհարարի օգնականններ փորձը պարտադիր չէ, ժ.09.00-17.00 կամ 17.00-24.00,  աշխատավարձը՝ 100.000 հեռ.077712579</t>
+          <t>Շին.կազմակերպության գրասենյակում ադմինիստրատիվ օգնական աղջիկ համակարգչի իմացությամբ, ժամերը 10.00-19.00 5-օրյա, աշխատավարձը՝ 80.000-120.000: հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Գրավատանը պահանջվում է սպասարկման աշխատակցուհի</t>
+          <t>Գրասենյակում մաքրուհի</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Գրավատանը պահանջվում է սպասարկման աշխատակցուհի փորձ պետք չէ կես գրաֆիկով 40,000-ից չկա Չարբախի բնակիչհեռ 093 360 344 կամ 077 360 378</t>
+          <t>Գրասենյակում մաքրուհի մինչև 45 տարեկան,   ժամերը 07.00-16.00 շաբաթ կիրակի հանգիստ աշխատավարձը՝ 96.000, աշխատավայրը Կենտրոն: հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Ռեստորանում խոհարարի օգնական աղջիկ մինչև 35տ</t>
+          <t>Գազավորված ըմպելիքների ընկերությունում վաճառքի մենեջեր տղա</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Ռեստորանում խոհարարի օգնական աղջիկ մինչև 35տ օրական 8-10ժամ փորձը պարտադիր չէ 100,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Գազավորված ըմպելիքների ընկերությունում վաճառքի մենեջեր տղա սեփական մեքենայով ժամերը 09.00-18.00, աշխատավարձը՝ 250.000+%+վառելիք:հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Պլաստմասաների արտադրամասում պահանջվում է բանվորուհի-փաթեթավորողներ մինչև 35տ</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>(Anywhere)</t>
+          <t>Վաճառքի խորհրդատու</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Պլաստմասաների արտադրամասում պահանջվում է բանվորուհի-փաթեթավորողներ մինչև 35տ ժ․9-18,00 կիրակի ազատ 90,000-120,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>ՊաշտոնՎաճառքի խորհրդատուՊարտականություններ- Ներկայացնել կազմակերպության ապրանքներն ու ծառայությունները պոտենցիալ հաճախորդներին- Հաճախորդներից պատվերների ընդունում և ձևակերպում- Հաճախորդների հետ հետադարձ կապի պահպանում- Վաճառքի աճի նոր հնարավորությունների բացահայտում- Իր լիազորությունների շրջանակներում ղեկավարի կողմից հանձնարարված այլ առաջադրանքների կատարումՊահանջվող հմտություններ- Պատասխանատու և պարտաճանաչ մոտեցում աշխատանքին- Հաղորդակցման լավ հմտություններ- Վաճառքի ոլորտում փորձառությունը կդիտվի որպես առավելությունԱշխատանքի պայմաններ- Երկուշաբթի-ուրբաթ, 09:00-18:00- Ընկերությունն ապահովում է անվճար վերապատրաստում</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Շոկոլադի արտադրամասում բանվորուհի մինչև 50տ</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>(Anywhere)</t>
+          <t>Ավիատոմսերի վաճառքի օպերատոր</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Շոկոլադի արտադրամասում բանվորուհի մինչև 50տ ժ․8,30-17,30 կիրակի ազատ 80,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Կազմակերպության մասին`	Տուրիստական գործակալություն:Պարտականություններ`	Ավիատոմսերի ամրագրում, դուրս գրում և վաճառք,կորպորատիվ հաճախորդների և անհատների հետ աշխատանք,վերադարձ տոմսերի ձևակերպում, փոխանակում, մասնակի հաշվետվության վարում:Պահանջներ`	Բարձրագույն կրթությունը ցանկալի է;Amadeus, Gabriel, Sirena, Sabre համակարգերի գերազանց իմացություն,առնվազն 1 տարվա փորձ զբոսաշրջության ոլորտում (ավիատոմսերի վաճառք),համակարգչային գիտելիքներ՝ MS Office, Internet,հայերեն լեզվի գերազանց իմացություն,անգլերեն լեզվի իմացությունը ողջունելի է:Անձնական հատկանիշներ	Պատասխանատու անձ,նախաձեռնող, աշխատասեր,թիմային աշխատող,բարյացակամ, հանդուրժող,սթրեսակայուն անձնավորություն,դժվար հաճախորդների հետ ընդհանուր լեզու գտնելու ունակություն:Աշխատանքային փորձ	Ոչ պակաս քան 1 տարիՏարիք`	23-40Սեռ`	Դեր չի խաղումԱշխատանքի տևողությունը	Լիարժեք աշխատանքային օրԱշխատանքային ժամեր`	11.00 - 18.00Պահանջվող փաստաթղթեր`	Ռեզյումե լուսանկարով:Հավելյալ տեղեկություններ	Վեցօրյա աշխատանքային գրաֆիկ,փորձաշրջան` 1ամիս,աշխատավարձը`սկսած 120.000 ՀՀ դրամից, կախված աշխատանքային փորձից և ունակություններից,հավելյալ նպաստ՝ տոկոս տոմսերի վաճառքից:</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Կադրերի բաժնի մասնագետ</t>
+          <t>Հյուրանոցում ադմինիստրատոր տղա գիշերային հերթափոխով</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -2511,337 +2506,337 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Կադրերի բաժնի մասնագետ կազմակերպությունում աշխատանքային օրենսգրքի իմացությամբ ժամերը 09.00-18.00,  աշխատավարձը՝ 130.000 նախնականհեռ.077712579</t>
+          <t>Հյուրանոցում ադմինիստրատոր տղա գիշերային հերթափոխով,  ժամերը 21.00-09.00 օր ու մեջ փորձը պարտադիր չէ, աշխատավարձը՝ 80.000:</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Ծրագրավորման գրասենյակում պահանջվում է ադմինիստրատիվ օգնական</t>
+          <t>Կայքում Word Press մասնագետ</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Ծրագրավորման գրասենյակում պահանջվում է ադմինիստրատիվ օգնական մինչև 30տ աղջիկ ռուսերենի-անգլերենի իմացությամբ և գրասենյակային աշխատանքային փորձով ժ․9-18,00 շաբաթ-կիրակի ազատ 250,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Կայքում Word Press մասնագետ տեքստեր հավաքելու համար անգլերենի ռուսերենի իմացությամբ, ազատ գրաֆիկով:</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Թարգմանչական գրասենյակում պահանջվում է թարգմանչուհի</t>
+          <t>Բժշկակական կենտրոնում անվտանգության աշխատակից</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Թարգմանչական գրասենյակում պահանջվում է թարգմանչուհի ռուսերենի-անգլերենի գերազանց իմացությամբ ժ․10-18,00 կիրակի ազատ հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Բժշկակական կենտրոնում անվտանգության աշխատակից մինչև 45 տարեկան, 1 օր շուրջօրյա 3 օր հանգիստ, աշխատավարձը՝ 80.000:</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Հյուրանոցում պահանջվում է ադմինիստրատոր աղջիկ</t>
+          <t>Գանձապահ աղջիկ տղա</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Հյուրանոցում պահանջվում է ադմինիստրատոր աղջիկ լեզուների լավ իմացությամբ 1օր շուրջօրյա 2օր հանգիստ 100,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Արագ սննդի սրահում գանձապահ աղջիկ տղա մինչև 35 տարեկան,  փորձը պարտադիր չէ, ժամերը 10.00-18.00 և 18.00-02.00, աշխատավարձը՝ 4000+%+թեյավճար:</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Ներմուծող կազմակերպություն հաշվետար տղա-աղջիկ մինչև 35տ 1C-ի իմացությամբ</t>
+          <t>Ռեստորանում անվտանգությյան աշխատակից</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Ներմուծող կազմակերպություն հաշվետար տղա-աղջիկ մինչև 35տ 1C-ի իմացությամբ ժ․9,30-19,00 կիրակի ազատ 120,000նախհեռ 093 360 344 կամ 077 360 378</t>
+          <t>Ռեստորանում անվտանգությյան աշխատակից մինչև 45տ. ժ.21.00-09.00 օր ու մեջ աշխ.՝90.000 հեռ.077 71 25 79 մինչև 45 տարեկան,  ժամերը 21.00-09.00 օր ու մեջ,  աշխատավարձը՝ 90.000:հեռ.077 71 25 79</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Առողջապահական ընկերությանը անհրաժեշտ են հեռախոսավարուհիներ տնից</t>
+          <t>Սրճարանում ԲԱՐՄԵՆԻ ՕԳՆԱԿԱՆ</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Առողջապահական ընկերությանը անհրաժեշտ են հեռախոսավարուհիներ տնից աշխատելու համար տարիքային սահմանափակում չկա․ազատ գրաֆիկ յուրաքանչյուր պատվերից 1000դրհեռ 093 360 344 կամ 077 360 378</t>
+          <t>Սրճարանում ԲԱՐՄԵՆԻ ՕԳՆԱԿԱՆ փորձը պարտադիր չէ շաբաթական 3-4 օր ժամերը 09.00-22.00, աշխատավարձը՝ 4000-ից սկսած Կոմիտաս հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Տանը ռուսերենի դասապատրաստող 2 երեխայի համար</t>
+          <t>Հերթապահ տեսուչ</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Տանը ռուսերենի դասապատրաստող 2 երեխայի համար շաբաթական 3օր ժ․16-19,00 շաբաթ-կիրակի ազատ 20,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Հերթապահ տեսուչ մինչև 45 տարեկան,  ժամերը 08.00-20.00 օր ու մեջ, աշխատավարձը՝ 90.000 հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Համակարգչային աքսեսուարների խանութ-սրահում վաճառողուհի մինչև 35տ</t>
+          <t>SMM-ի մասնագետ</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Համակարգչային աքսեսուարների խանութ-սրահում վաճառողուհի մինչև 35տ ժ․9,30-19,00 կիրակի ազատ 100,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Բրենդային խանութների ցանցում պահանջվում է SMM-ի մասնագետ աղջիկ -տղա փորձով ժամերը 09.00-18.00 կիրակի հանգիստ, աշխատավարձը՝ 150.000 նախնական:Հեռախոսահամար՝ 077712579</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Գեղեցկության սրահում մենեջեր աղջիկ անգլերենի-ռուսերենի լավ իմացությամբ</t>
+          <t>Միջոցառումների կազմակերպիչ</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Գեղեցկության սրահում մենեջեր աղջիկ անգլերենի-ռուսերենի լավ իմացությամբ ժ․10-19,30 1օր հանգիստ 200,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Կազմակերպությանն անհրաժեշտ են միջոցառումների կազմակերպիչ աղջիկներ-տղաներ փորձով, ժամերը 09-18.00 կիրակի ազատ, աշխատավարձը՝ 200.000նախնական: հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Տուրիստական հյուրանոցում մաքրուհի մինչև 50տ</t>
+          <t>Հաշվապահ տղաներ աղջիկներ</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Տուրիստական հյուրանոցում մաքրուհի մինչև 50տ ժ․9-20,00 90,000աշխատավայրը՝դավթաշեն հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Հաշվապահ տղաներ աղջիկներ ՀԾ-ի իմաց. անգլերենի բավարար իմացությամբ,  օրական 4-5 ժամ, աշխատավարձը՝150.000-ից սկսած: հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Բարձրակարգ հյուրանոցում պահանջվում է ադմինիստրատոր</t>
+          <t>Ներմուծող ընկերությունում հաշվետար տղաներ աղջիկներ</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Բարձրակարգ հյուրանոցում պահանջվում է ադմինիստրատոր աղջիկ լեզուների բավարար իմացությամբ ժ․20-09,00 օր ու մեջ գրաֆիկ օրական 5000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Ներմուծող ընկերությունում հաշվետար տղաներ աղջիկներ ՀԾ-ի իմացությամբ, ժամերը 09.00-18.00,  աշխատավարձը՝120.000-ից սկսած հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Կարի արտադրամասում պահանջվում է դերձակ մինչև 55տ</t>
+          <t>Մասնավոր մանկապարտեզում դայակ</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Կարի արտադրամասում պահանջվում է դերձակ մինչև 55տ ժ․10-20,00 1օր հանգիստ աշխատավարձը գործարքային՝ օրական 7000-10,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Մասնավոր մանկապարտեզում դայակ մինչև 45 տարեկան,  ժամերը 08.30-18.30 5-օրյա,  փորձը պարտադիր չէ,  աշխատավարձը՝ 80.000: հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Զովացուցիչ ըմպելիքների արտադրամասի գրասենյակում հաշվետար աղջիկ</t>
+          <t>Շին. ընկերության գրասենյակում հաշվետար աղջիկ</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Զովացուցիչ ըմպելիքների արտադրամասի գրասենյակում հաշվետար աղջիկ MS office-ի և invoicing-ի իմացությամբ ժ․8-18,00 կիրակի ազատ 80,000նախհեռ 093 360 344 կամ 077 360 378</t>
+          <t>Շին. ընկերության գրասենյակում հաշվետար աղջիկ փորձը պարտադիր չէ ժամերը 10.00-19.00 1 օր հանգիստ, աշխատավարձը՝100.000: հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Բիզնես կենտրոնում ադմինիստրատոր աղջիկ</t>
+          <t>Փաթեթավորող կանայք նասկու արտադրամասում</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Բիզնես կենտրոնում ադմինիստրատոր աղջիկ լեզուների լավ իմացությամբ ժ․8,30-19,00 երկու օր աշխատում եք 1օր հանգիստ 100,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Փաթեթավորող կանայք նասկու արտադրամասում մինչև 45 տարեկան, ժամերը 09.00-18.30, աշխատավարձը՝ 80.000: հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Լամինատի խանութում վաճառողուհի ռուսերենի իմացությամբ</t>
+          <t>Անձեռոցիկի արտադրամասում վարորդ առաքիչ</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Լամինատի խանութում վաճառողուհի ռուսերենի իմացությամբ մինչև 35տ ժ․9-19․30 1օր հանգիստ 150․000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Անձեռոցիկի արտադրամասում վարորդ առաքիչ, մեքենան տրամադրում են ժամերը 09.30-18.30, աշխատավարձը՝150.000:հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Իրավաբանական-հաշվապահական գրասենյակում գլխավոր հաշվապահ աղջիկ ՀԾ-ի իմացությամբ</t>
+          <t>Վաճառքի մենեջեր պարենային մթերքների ընկերությունում</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Իրավաբանական-հաշվապահական գրասենյակում գլխավոր հաշվապահ աղջիկ ՀԾ-ի իմացությամբ ժ․10-18,00 շաբաթ-կիրակի ազատ 300,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Վաճառքի մենեջեր պարենային մթերքների ընկերությունում սեփական մեքենայով աշխատավարձը՝ 100.000+%(250.000 միջինը):  հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Հացի արտադրամասում վարորդ առաքիչ</t>
+          <t>Կոսմետիկայի ընկերությունում ԱՌԱՔԻՉԻ ՕԳՆԱԿԱՆ</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Հացի արտադրամասում վարորդ առաքիչ սեփական մեքենայով կես գրաֆիկով ժ․7-13,00 կիրակի ազատ օրական 5000-6000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Կոսմետիկայի ընկերությունում ԱՌԱՔԻՉԻ ՕԳՆԱԿԱՆ, ժամերը 09.00-19.00,  աշխատավարձը՝ 150.000:հեռ.077 71 25 79</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>նշարժ գույքի գործակալություն ադմինիստրատիվ օգնական աղջիկ</t>
+          <t>Ներգնա տուր ընկերությունում վարորդ</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Անշարժ գույքի գործակալություն ադմինիստրատիվ օգնական աղջիկ փորձը պարտադիր չէ համակարգչային ծրագրերի իմացությամբ ժ․10-19,00 կիրակի ազատ 80,000+%հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Ներգնա տուր ընկերությունում վարորդ մեքենան տրամադրում են լեզուների մինիմալ իմացությամբ, ժամերը 09.00-18.00 5-օրյա, աշխատավարձը՝  200.000 միջինը 077712579</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Զվարճանքի սրահում կերպարային խաղավարենր</t>
+          <t>Հյուրանոցում ադմինիստրատոր տղա աղջիկ</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Զվարճանքի սրահում կերպարային խաղավարենր ազատ գրաֆիկով 1ժամը-2000դրհեռ 093 360 344 կամ 077 360 378</t>
+          <t>Հյուրանոցում ադմինիստրատոր տղա աղջիկ լեզուների մինիմալ իմացությամբ,  մեկ օր շուրջօրյա մեկ օր հանգիստ, աշխատավարձը՝ 110.000:  հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Հյուրանոցում ադմինիստրաոր տղա գիշերային հերթափոխով լ</t>
+          <t>Հյուրանոցում ադմինիստրատոր տղա</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Հյուրանոցում ադմինիստրաոր տղա գիշերային հերթափոխով լեզուների բավարար իմացությամբ ժ․18-09,00 օր ու մեջ 80,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Հյուրանոցում ադմինիստրատոր տղա գիշերային հերթափոխով, ժամերը 21.00-09.00 օր ու մեջ փորձը պարտադիր չէ, աշխատավարձը՝  80.000, աշխատավայրը՝  Կենտրոն:հեռ.077 712 579</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Կահույքի սրահի մենեջեր աղջիկ մինչև 35տ</t>
+          <t>Կայքում Word Press մասնագետ</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2851,14 +2846,14 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Կահույքի սրահի մենեջեր աղջիկ մինչև 35տ լեզուների լավ իմացությամբ ժ․10-19,00 կիրակի ազատ 150,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Կայքում Word Press մասնագետ տեքստեր հավաքելու համար անգլերենի ռուսերենի իմացությամբ, ազատ գրաֆիկով:հեռ.077 712 579</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Տուրիստական ընկերությանը անհրաժեշտ է փորձառու վարորդ</t>
+          <t>գրասենյակում օպերատոր աղջիկ</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2868,31 +2863,31 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Տուրիստական ընկերությանը անհրաժեշտ է փորձառու վարորդ մեքենան տրամադրում են, լեզուների լավ իմացությամբ ժ․9-19,00 կիրակի ազատ 100,000+%հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Կազմակերպության գրասենյակում օպերատոր աղջիկ մինչև 30 տարեկան,  ժամերը 09.00-18.00 մեկ օր հանգիստ,  աշխատավարձը՝90.000-120.000, աշխատայրը՝  Կոմիտաս:հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Պլաստմասաների արրտադրամասում պահանջվում է փորձառու հոսքագծի օպերատոր</t>
+          <t>Կազմակերպության գրասենյակում մենեջեր աղջիկ</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Պլաստմասաների արրտադրամասում պահանջվում է փորձառու հոսքագծի օպերատոր 1օր շուրջօրյա 2օր հանգիստ 125,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Կազմակերպության գրասենյակում մենեջեր աղջիկ փորձով ժամերը 09.00-18.00 մեկ օր հանգիստ, աշխատավարձը՝120.000-150.000, աշխատավայրը՝ Կոմիտասհեռ.077 712 579</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Արտադրամասում փորձառու էլեկտրիկ տարիքային սահմանափակում չկա</t>
+          <t>Բժշկակական կենտրոնում անվտանգության աշխատակից</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2902,65 +2897,65 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Արտադրամասում փորձառու էլեկտրիկ տարիքային սահմանափակում չկա ժ․9-18,00 կիրակի ազատ 150,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Բժշկակական կենտրոնում անվտանգության աշխատակից մինչև 45 տարեկան,  1 օր շուրջօրյա 3 օր հանգիստ աշխ.՝80.000 հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Գեղեցկության սրահում մենեջեր աղջիկ</t>
+          <t>Արագ սննդի սրահում գանձապահ աղջիկ տղա</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Գեղեցկության սրահում մենեջեր աղջիկ բարձրագույն կրթությամբ ժ․9-21,00 օր ու մեջ գրաֆիկ 4500օրական հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Արագ սննդի սրահում գանձապահ աղջիկ տղա մինչև 35տ/ փորձը պարտադիր չէ, ժամերը 10.00-18.00 և 18.00-02.00, աշխատավարձը 4000+%+թեյավճար:Կենտրոն 077712579</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Հյուրանոցում պահանջվում է գանձապահի օգնական տղա գիշերային հերթափոխով</t>
+          <t>Գունդ անող կանայք գիշերային հերթափոխով</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Հյուրանոցում պահանջվում է գանձապահի օգնական տղա գիշերային հերթափոխով ժ․19-07,00 օրական 9000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Գունդ անող կանայք գիշերային հերթափոխով փորձը պարտադիր չէ,  ժամերը 23.00-11.00 մեկ օր հանգիստ, աշխատավարձը՝7000 Կենտրոնհեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Կազմակերպությունում անհրաժեշտ է գործավար</t>
+          <t>Վերնիսաժում զարդերի բաժնի վաճառողուհի միայն ՇԱԲԱԹ-ԿԻՐԱԿԻ</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Կազմակերպությունում անհրաժեշտ է գործավար աղջիկ լեզուների իմացությամբ, ժամերը 09.00-18.00,  աշխատավարձը՝140.000 նախնականհեռ.077712579</t>
+          <t>Վերնիսաժում զարդերի բաժնի վաճառողուհի միայն ՇԱԲԱԹ-ԿԻՐԱԿԻ ժ․9-19,00 օրական 4000+3% her 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Ռիո մոլում պահանջվում է վաճառողուհի</t>
+          <t>առաքիչի օգնական տղա փորձ պետք չէ</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2970,31 +2965,31 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Ռիո մոլում պահանջվում է վաճառողուհի ժ․10-16,00 կամ 16-22,00 1օր հանգիստ լեզուների իմացությամբ 70,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Կոսմետիկայի ֆիրմայում ՇՏԱՊ պահանջվում է առաքիչի օգնական տղա փորձ պետք չէ ժ․9-19,00,00 կիրակի ազատ 150,000 հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ԷԼԵԿՏՐԻԿՆԵՐ, ՍԱՆՏԵԽՆԻԿՆԵՐ, ՓԱԿԱՆԱԳՈՐԾՆԵՐ</t>
+          <t>Կիսաֆաբրիկատների արտադրամասում օգնական կին փորձ պետք չէ</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Արտադրական կազմակերպությունում անհրաժեշտ են փորձառու ԷԼԵԿՏՐԻԿՆԵՐ, ՍԱՆՏԵԽՆԻԿՆԵՐ, ՓԱԿԱՆԱԳՈՐԾՆԵՐաշխատանքը հերթափոխային գրաֆիկով է,  աշխատավարձը՝ նախնական 130.000-ից սկսած Հեռ.077712579</t>
+          <t>Կիսաֆաբրիկատների արտադրամասում օգնական կին փորձ պետք չէ ժ․9,30-18,00 օրական 3000(օրավճար)հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Գրասենյակում պահանջվում է վարորդ մեքենան տրամադրում են</t>
+          <t>ԱՇԽԱՏԱՆՔ ՈՒՍԱՆՈՂՆԵՐԻՆ</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3004,14 +2999,14 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Գրասենյակում պահանջվում է վարորդ մեքենան տրամադրում են ժ․9-18,00 շաբաթ-կիրակի ազատ հեռ 093 360 344 կամ 077 360 378</t>
+          <t>ԱՇԽԱՏԱՆՔ ՈՒՍԱՆՈՂՆԵՐԻՆ բնակարանային հարցումներ կատարող աղջիկներ-տղաներ ժ․16,30-21,30 կիրակի ազատ 50,000+%her 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Բիզնես կենտրոնում պահանջվում է ադմինիստրատիվ օգնական աղջիկ</t>
+          <t>աքրուհի տարիքային սահմանափակում չկա,4ժամ օրական</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -3021,14 +3016,14 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Բիզնես կենտրոնում պահանջվում է ադմինիստրատիվ օգնական աղջիկ փորձ պետք չէ համակարգչային ծրագրերի իմացությամբ ժ․9,30-18,00 կիրակի ազատ 70,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Գրասենյակում պահանջվում է մաքրուհի տարիքային սահմանափակում չկա ժ․8-17,00 կամ ժ․9-18,00շաբաթ կես օր,կիրակի ազատ 70,000նախ հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Գրասենյակում զանգերի կենտրոնի օպերատոր աղջիկ տարիքային սահմանափակում չկա</t>
+          <t>փորձառու սլեսարներ,տոկարիստներ և CO2 զոդողներ</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -3038,31 +3033,31 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Գրասենյակում զանգերի կենտրոնի օպերատոր աղջիկ տարիքային սահմանափակում չկա ժ․10-15,00 կամ ժ․15-20,00 1օր ազատ աշխատավարձը՝բարձր,գործարքայինհեռ 093 360 344 կամ 077 360 378</t>
+          <t>Կահույքի սրահում պահանջվում են փորձառու սլեսարներ,տոկարիստներ և CO2 զոդողներ ջրվեժհեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ՈՐԱԿԻ ՎԵՐԱՀՍԿԻՉ աղջիկներ</t>
+          <t>Հեռախոսային օպերատոր աղջիկ երկրորդ գրաֆիկով</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Անձեռոցիկի արտադրամասում անհրաժեշտ են ՈՐԱԿԻ ՎԵՐԱՀՍԿԻՉ աղջիկներ մինչև 40 տարեկան,  փորձը պարտադիր չէ աշխատանքը հերթափոխային գրաֆիկով է,աշխատավարձը՝110.000 սկսած հեռ.077 71 25 79</t>
+          <t>Հեռախոսային օպերատոր աղջիկ մինչև 40տ փորձ պետք չէ ժ․14,00-20,00 1օր հանգիստ 50,000+%մալաթիա հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Շին կազմակերպության գրասենյակում ադմինիստրատիվ օգնական աղջիկ մինչև 30տ</t>
+          <t>Պետական մանկապարտեզում դայակ մինչև 55տ</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -3072,14 +3067,14 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Շին կազմակերպության գրասենյակում ադմինիստրատիվ օգնական աղջիկ մինչև 30տ անգլերենի մինիմալ իմացությամբ ժ․10-18,00 կիրակի ազատ 120,000նախհեռ 093 360 344 կամ 077 360 378</t>
+          <t>Պետական մանկապարտեզում դայակ մինչև 55տ փորձ պետք չէ ժ․8,30-17,30 շաբաթ-կիրակի ազատ 70,000կենտրոն հեռ 093 360 344 կամ 077360378</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Կարի արտադրամասում պահանջվում է փորձառու տեխնոլոգ</t>
+          <t>Սուպերմարկետում անվտանգության աշխատակից տղա</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -3089,31 +3084,31 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Կարի արտադրամասում պահանջվում է փորձառու տեխնոլոգ ժ․9-18,00 կիրակի ազատ 120,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Սուպերմարկետում անվտանգության աշխատակից տղա մինչև 40տ 1օր ցերեկային 1օր գիշերային գրաֆիկով 130,000հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ԿԻՊ ԻՆԺԵՆԵՐՆԵՐ անձեռոցիկի արտադրամասում</t>
+          <t>Մանկական պարագաների սրահում համակարգչային օպերատոր</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>ԿԻՊ ԻՆԺԵՆԵՐՆԵՐ անձեռոցիկի արտադրամասում կարող են դիմել նաև պոլիտեխնիկի ուսանողներ աշխատանքը հերթափոխային գրաֆիկով է աշխատավարձը՝ նախնական 130.000-ից սկսածհեռ.077712579</t>
+          <t>Մանկական պարագաների սրահում համակարգչային օպերատոր աղջիկ մինչև 40տ Excel-ի իմացությամբ,փորձ պետք չէ ժ․10-18,00 կիրակի ազատ 150,000էրեբունիհեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Խմորեղենի արտադրամասում պահանջվում են բանվորուհիներ</t>
+          <t>Ցելեֆոնի արտադրամասում հոսքագծի օպերատոր կին փորձ պետք չէ</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -3123,14 +3118,14 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Խմորեղենի արտադրամասում պահանջվում են բանվորուհիներ ժ․8,30-18,00 կիրակի ազատ 80,000-ից սկսածաշխատավայրը՝մալաթիա հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Ցելեֆոնի արտադրամասում հոսքագծի օպերատոր կին փորձ պետք չէ ժ․9-20,00 օրավճարը 3000աջափնյակհեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Արտադրական տարածքում պահանջվում է պակակ</t>
+          <t>Անձեռոցիկի արտադրամասում վարորդ առաքիչ</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -3140,14 +3135,14 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Արտադրական տարածքում պահանջվում է պակակ մինչև 50տ 1օր շուրջօրյա 2օր ազատ 80,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Անձեռոցիկի արտադրամասում վարորդ առաքիչ մեքենան տրամադրում են ժ․9-19,00 կիրակի ազատ 150,000մալաթիա հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Օնլայն խանութում պահանջվում է փորձառու աշխատակցուհի</t>
+          <t>յուրանոցում մենեջեր աղջիկ փորձ պետք չէ</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -3157,14 +3152,14 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Օնլայն խանութում պահանջվում է փորձառու աշխատակցուհի համակարգչային ծրագրերի իմացությամբ ժ․10-20,00 1օր հանգիստ,օրական 4000-ից սկսած հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Հյուրանոցում մենեջեր աղջիկ փորձ պետք չէ ռուսերենի լավ իմացությամբ 1օր շուրջօրյա 2օր ազատ օրական 8000կենտրոն հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Տուրիստական գրասենյակում պահանջվում է ներգնա տուրիզմի մասնագետ</t>
+          <t>Գրասենյակում պահանջվում է անփորձ հաշվետար աղջիկ Excel-ի իմացությամբ</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -3174,31 +3169,31 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Տուրիստական գրասենյակում պահանջվում է ներգնա տուրիզմի մասնագետ ժ.10-18.00 կիրակի ազատ 100.000+տոկոս հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Գրասենյակում պահանջվում է անփորձ հաշվետար աղջիկ Excel-ի իմացությամբ ժ․9-19,00 1օր ազատ նախ 100,000շենգավիթ հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ԲԱՆՎՈՐ_ՈՒՀԻՆԵՐ Անձեռոցիկի արտադրամասում</t>
+          <t>Կարի արտադրամասում վաճառքի մենեջեր աղջիկ-տղա փորձ պետք չէ</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Անձեռոցիկի արտադրամասում անհրաժեշտ են ԲԱՆՎՈՐ_ՈՒՀԻՆԵՐ աշխատանքը հերթափոխով է աշխատավարձը՝110.000-ից սկսած հեռ.077712579</t>
+          <t>Կարի արտադրամասում վաճառքի մենեջեր աղջիկ-տղա փորձ պետք չէ մեքեանան տրամադրում են 40,000+%(120,000-150,000)հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Հյուրանոցում պահանջվում է անվտանգության աշխատակից</t>
+          <t>Կարի արտադրամասում պիտակավորող կանայք</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -3208,14 +3203,14 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Հյուրանոցում պահանջվում է անվտանգության աշխատակից մինչև 35տ 1օր շուրջօրյա 1օր հանգիստ 110.000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Կարի արտադրամասում պիտակավորող կանայք մինչև 45տ ժ․9-18,00 կիրակի ազատ 80,000նախ շենգավիթ հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Խաղալիքների խանութում գործադիր տնօրեն աղջիկ ցանկալի է աշխատանքային փորրձով</t>
+          <t>Գրասենյակում պահանջվում են հաշվետար աղջիկներ</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -3225,14 +3220,14 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Խաղալիքների խանութում գործադիր տնօրեն աղջիկ ցանկալի է աշխատանքային փորրձով ,աշխատանքային գրաֆիկը հարմարեցվում է,100,000+տոկոս հիմնական պարտականությունները՝հաշվետվությունների կազմումակցաների և զեղչերի կազմակերպում հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Գրասենյակում պահանջվում են հաշվետար աղջիկներ մինչև 40տ փորձ պետք չէ Excel-ի իմացությամբ (սովորեցնում են 1C ծրագիրը) ժ․9-18,00 կիրակի ազատ 80,000նախ հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Բիզնես կենտրոնում մաքրուհի</t>
+          <t>ՇՏԱՊ Գրասենյակային տարածքում մաքրուհի մինչև 50տ</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -3242,14 +3237,14 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Բիզնես կենտրոնում մաքրուհի տարիքային սահմանափակում չկա ժ․7-16,00 կամ ժ․8-17,00, 5օրյա գրաֆիկ 90,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>ՇՏԱՊ Գրասենյակային տարածքում մաքրուհի մինչև 50տ ժ․8-12,00 կիրակի ազատ 70,000հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Պահանջվում են որակի վերահսկող աղջիկներ</t>
+          <t>Բրենդային խանութների ցանցում պահանջվում է փորձառու SMM-ի մասնագետ</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -3259,14 +3254,14 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Պահանջվում են որակի վերահսկող աղջիկներ փորձը պարտադիր չէ միջին մասնագիտական կամ բարձրագույն կրթությամբ, աշխատանքը 3հերթափոխով է ժ․8-16- կամ ժ․16-00,00 կամ ժ․00,00-08,00 աշխատավարձը՝100,000-ից սկսածհեռ 093 360 344 կամ 077 360 378</t>
+          <t>Բրենդային խանութների ցանցում պահանջվում է փորձառու SMM-ի մասնագետ աղջիկ -տղա ժ․9-18,00 կիրակի ազատ 150,000նախ հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Կադրային մասնագետ</t>
+          <t>Կազմակերպությանն անհրաժեշտ են փորձառու միջոցառումենրի կազմակերպիչ աղջիկներ-տղաներ</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -3276,14 +3271,14 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Կադրային մասնագետ պարտադիր 1տ աշխատանքային փորձով և աշխատանքային օրենսգրքի իմացությամբ ժ․9-18,00 կիրակի ազատ 130,000-ից սկսածհեռ 093 360 344 կամ 077 360 378</t>
+          <t>Կազմակերպությանն անհրաժեշտ են փորձառու միջոցառումենրի կազմակերպիչ աղջիկներ-տղաներ ժ․9-18,00 կիրակի ազատ 200,000նախ հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Տեխնիկայի սրահում առաքիչի օգնական</t>
+          <t>Պահանջվում է փորձառու գրաֆիկ դիզայներաղջիկ-տղա</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -3293,14 +3288,14 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Տեխնիկայի սրահում առաքիչի օգնական ժ․9-18,00 կիրակի ազատ աշխատավարձը 90,000-ից սկսածհեռ 093 360 344 կամ 077 360 378</t>
+          <t>Պահանջվում է փորձառու գրաֆիկ դիզայներաղջիկ-տղա ժ․9-18,00 կիրակի ազատ 200,000հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Սրճարանում խոհարարի օգնական աղջիկ փորձ պետք չէ</t>
+          <t>Սրճարանում պահանջվում է բարմենի օգնական տղա փորձ պետք չէ</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -3310,31 +3305,31 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Սրճարանում խոհարարի օգնական աղջիկ փորձ պետք չէ ժ․9-17,00-00,00 100,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Սրճարանում պահանջվում է բարմենի օգնական տղա փորձ պետք չէ շաբաթական 3-4 օր ժ․9-22,00 օրական 4000կոմիտաս հեռ093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Գործադիր տնօրեն խաղալիքների խանութում</t>
+          <t>ադմինիստրատիվ օգնական աղջիկ</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Խաղալիքների խանութում անհրաժեշտ է գործադիր տնօրեն աղջիկ ազատ գրաֆիկով, աշխատավարձը՝ 100.000+%-ներհեռ.077712579</t>
+          <t>Ներմուծող արտադրամասի գրասենյակում պահանջվում է ադմինիստրատիվ օգնական աղջիկ հայերենի գերազանց իմացությամբ,մինչև 35տ, երկրորդ գրաֆիկով ժ․16-21,00 շաբաթ-կիրակի ազատ 125,000Չարբախհեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Արագ սննդի սրահում հեռախոսավարուհի</t>
+          <t>Զարգացման կենտրոնում պահանջվում է դայակ փորձ պետք չէ</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -3344,14 +3339,14 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Արագ սննդի սրահում հեռախոսավարուհի ժ․9-17․00 կամ ժ․17-01․00 80․000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Զարգացման կենտրոնում պահանջվում է դայակ փորձ պետք չէ ժ․8,30-18,30 շաբաթ-կիրակի ազատ 80,000կոմիտասհեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Համերգային ընկերության գրասենյակում պահաջվում է հեռախոսավարուհի-օպերատոր</t>
+          <t>Սպասքի պահեստում պահանջվում է ապրանքներ դասավորող տղաներ</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -3361,48 +3356,48 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Համերգային ընկերության գրասենյակում պահաջվում է հեռախոսավարուհի-օպերատոր ժ․10-18,00 կիրակի ազատ 80,000հեռ 093 360 344 կամ 077 360 344</t>
+          <t>Սպասքի պահեստում պահանջվում է ապրանքներ դասավորող տղաներ մինչև 40տ ժ․9-18,00 կիրակի ազատ 140,000շենգավիթ հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ԱՇԽԱՏԱՆՔ Ք.ԱԲՈՎՅԱՆՈՒՄ</t>
+          <t>Հյուրանոցում մենեջեր աղջիկ փորձ պետք չէ</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>ԱՇԽԱՏԱՆՔ Ք.ԱԲՈՎՅԱՆՈՒՄԿազմակերպությունում անհրաժեշտ է հաշվետար աղջիկ ՀԾ-ի իմացությամբ,  ժամերը 09.0018.00,  աշխատավարձը՝ 3000 (օրավճար)հեռ.077712579</t>
+          <t>Հյուրանոցում մենեջեր աղջիկ փորձ պետք չէ ռուսերենի լավ իմացությամբ 1օր շուրջօրյա 2օր ազատ օրական 8000կենտրոն</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Առաքիչի օգնական</t>
+          <t>Սուպերմարկետում անվտանգության աշխատակից</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Սանտեխնիկայի ընկերությունում պահանջվում է առաքիչի օգնական,  ժամերը 09.00-18.00 1-ին ամիսը՝ 90.000, հետո՝ 110.000 հեռ.077712579</t>
+          <t>Սուպերմարկետում անվտանգության աշխատակից տղա մինչև 40տ 1օր ցերեկային 1օր գիշերային գրաֆիկով 130,000հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Մաքրուհի բիզնես կենտրոնում</t>
+          <t>համակարգչային օպերատոր աղջիկ</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -3412,82 +3407,82 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Բիզնես կենտրոնում անհրաժեշտ է մաքրուհի, ժամերը 07.00-16.00 կամ 08.00-17.00, աշխատավարփձը՝ 90.000 հեռ.077712579</t>
+          <t>Մանկական պարագաների սրահում համակարգչային օպերատոր աղջիկ մինչև 40տ Excel-ի իմացությամբ,փորձ պետք չէ ժ․10-18,00 կիրակի ազատ 150,000էրեբունիհեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Բարձրակարգ սննդի սրահում մենեջեր</t>
+          <t>Իրավաբանական գրասենյակում օգնական աղջիկ փորձ պետք չէ</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Բարձրակարգ սննդի սրահում մենեջեր աղջիկ տղա լեզուների իմացությամբ,  ժամերը 09.00-17.00 կամ 17.00-01.00 կամ 12 ժամյահեռ.077 71 25 79</t>
+          <t>Իրավաբանական գրասենյակում օգնական աղջիկ փորձ պետք չէ իրավաբանակնա կրթությամբ ժ․10-18,00 շաբաթ-կիրակի ազատ 150,000կենտրոն հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Բիզնես կենտրոնում ընդունարանի աշխատակցուհի</t>
+          <t>Ջոբ մարկետ կադրային կենտրոնում պահանջվում է աշխատակցուհի</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Բիզնես կենտրոնում ընդունարանի աշխատակցուհի լեզուների իմացությամբ, ժամերը 08.30-19.00 2 օր աշխատանքի մեկ օր հանգիստ,  աշխատավարձը՝ 100.000 հեռ.077712579</t>
+          <t>Ջոբ մարկետ կադրային կենտրոնում պահանջվում է աշխատակցուհի ժ,10֊18։00 շաբաթ կիրակի ազատՀեռ 077 395 888</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Օպերատոր գործավար անշարժ գույքի գրասենյակում</t>
+          <t>Գրասենյակի տարածքում այգեպան տարիքային սահմանափակում չկա</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Օպերատոր գործավար անշարժ գույքի գրասենյակում փորձը պարտադիր չէ, ժամերը 10.00-19.00 աշխատավարձը՝ 80.000+% Հեռ.077712579</t>
+          <t>Գրասենյակի տարածքում այգեպան տարիքային սահմանափակում չկա ժ․9-19,00 կիրակի ազատ 80,000հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Ծրագրավորման ընկերությունում ԱԴՄԻՆԻՍՏՐԱՏԻՎ ՕԳՆԱԿԱՆ</t>
+          <t>Ներմուծող գրասենյակում հաշվետար աղջիկ տղա</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Ծրագրավորման ընկերությունում ԱԴՄԻՆԻՍՏՐԱՏԻՎ ՕԳՆԱԿԱՆ լեզուների իմաց. փորձով ժ.10.00-18.00 5-օրյա աշխ.՝200.000 հեռ.077712579</t>
+          <t>Ներմուծող գրասենյակում հաշվետար աղջիկ տղա տարիքային սահմանափակում չկա 1ց և ՀԾ-ի իմացությամբ ժ․9-18,00 կիրակի ազատ 120,000հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Փաթեթավորող կանայք անձեռոցիկի արտադրամասում</t>
+          <t>Մանկական սննդի գրասենյակում արտահանման մենեջեր աղջիկ փորձ պետք չէ</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -3497,201 +3492,201 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Փաթեթավորող կանայք անձեռոցիկի արտադրամասում փորձը պարտադիր չէ ժամերը 09.00-19.00,  աշխատավարձը՝3000 օրական հեռ.077712579</t>
+          <t>Մանկական սննդի գրասենյակում արտահանման մենեջեր աղջիկ փորձ պետք չէ լեզուների մինիմալ իմացությամբ ժ․9-18,00 կիրակի ազատ 100,000հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Բարձրակարգ հյուրանոցում գիշերային հերթափոխի ադմինիստրատոր տղա</t>
+          <t>Մարզասրահում ադմինիստրատոր տղա-աղջիկ փորձ պետք չէ</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Բարձրակարգ հյուրանոցում գիշերային հերթափոխի ադմինիստրատոր տղա լեզուների իմացությամբ,  ժամերը 18.00-09.00 օր ու մեջ աշխատավարձը՝ 80.000 հեռ.077712579</t>
+          <t>Մարզասրահում ադմինիստրատոր տղա-աղջիկ փորձ պետք չէ 8ժամյա ցերեկային կամ գիշերային գրաֆիկ օրական 3500+թեյավճարհեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Բարձրակարգ գեղեցկության սրահում մենեջեր</t>
+          <t>Արագ սննդի կետում հեռախոսավարուհիներ փորձ պետք չէ</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Բարձրակարգ գեղեցկության սրահում մենեջեր փորձը ցանկալի է,  ժամերը 09.00-21.00 օր ու մեջ աշխատավարձը ՝ 4500 օրականհեռ.077 71 25 79</t>
+          <t>Արագ սննդի կետում հեռախոսավարուհիներ փորձ պետք չէ ժ․9-21,00 2օր աշխատանքի 1օր հանգիստ 4000+%հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Մատուցողի օգնական տղա սրճարանում</t>
+          <t>Իրավաբանական գրասենյակում տեքստեր հավաքող</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Մատուցողի օգնական տղա սրճարանում կարող են դիմել ուսանողներ ժամերը 09.00-17.00 կամ 17.00-01.00,  աշխատավարձը՝ 3000+տոկոս հեռ.077712579</t>
+          <t>Իրավաբանական գրասենյակում տեքստեր հավաքող աղջիկ մինչև 35տ փորձ պետք չէ համակարգչային գիտելիքներ ժ․10-18,00 շաբաթ-կիրակի ազատ 100,000կենտրոնհեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Սննդամթերքի ընկերության գրասենյակում</t>
+          <t>Տուրիստական գործակալությանը անհրաժեշտ է օպերատոր աղջիկ</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Սննդամթերքի ընկերության գրասենյակում էքսպորտ մենեջեր աղջիկ ռուսերենի իմացությամբ,  ժամերը 09.00-18.00,  աշխատավարձը՝ 150.000+տոկոս հեռ.077 71 25 79</t>
+          <t>Տուրիստական գործակալությանը անհրաժեշտ է օպերատոր աղջիկ լեզուների գերազանց իմացությամբ ժ․10-18,30 կիրակի ազատ 100,000հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Հաշվետար աղջիկ ներմուծող կազմակերպությունում</t>
+          <t>Տուրիստական գրասենյակում փորձառու կայքի խմբագիր պատասխանատու</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Հաշվետար աղջիկ ներմուծող կազմակերպությունում 1C-ի իմացությամբ,  ժամերը 09.30-19.00 աշխատավարձը ՝ 120.000 նախնական հեռ.077712579</t>
+          <t>Տուրիստական գրասենյակում փորձառու կայքի խմբագիր պատասխանատու աղջիկ տարիքային սահմանափակում չկա ժ․10-18,30 կիրակի ազատ 150,000-ից սկսածհեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Խորհրդատու վաճառողուհի մոլի աքսեսուարների սրահում</t>
+          <t>Շտապ պահանջվում է քաղցր բամբակ վաճառող աղջիկ</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Խորհրդատու վաճառողուհի մոլի աքսեսուարների սրահում մինչև 30 տարեկան,  ժամերը 10.00-16.00 կամ 16.00-22.00, աշխատավարփը ՝ 70.000 նախնականհեռ.077712579</t>
+          <t>Շտապ պահանջվում է քաղցր բամբակ վաճառող աղջիկ ժ․17,30-23,30 օրական 3000-6000կենտրոն հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Անվտանգության աշխատակից հյուրանոցում</t>
+          <t>Կուպոնների գրասենյակում վաճառքի մենեջեր աղջիկ փորձ պետք չէ</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Անվտանգության աշխատակից հյուրանոցում մինչև 35 տարեկան (վարորդական իրավուքի առկայություն) ամսական 10 օր, աշխատավարձը՝ 90.000+% հեռ.077712579</t>
+          <t>Կուպոնների գրասենյակում վաճառքի մենեջեր աղջիկ փորձ պետք չէ ժ․10-17,00 կամ ժ․14-21,00 120,000+%her 077 360 378 կամ 093 360 344</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Ռեստորանում գիշերային հերթափոխի գանձապահ տղա</t>
+          <t>Գրասենյակում մաքրուհի կես գրաֆիկով</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Ռեստորանում գիշերային հերթափոխի գանձապահ տղա մինչև 35 տարեկան,  ռուսերենի իմացությամբ,  ժամերը 19.00-07.00, աշխատավարձը՝ 9000հեռ.077712579</t>
+          <t>Գրասենյակում մաքրուհի կես գրաֆիկով ժ,8-12,00 70,000արցախի փողոց հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Առաքիչի օգնական տղաներ սանտեխնիկայի ընկերությունու</t>
+          <t>Ձորաղբյուրի առանձնատանը այգեգործ-բանվոր</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Առաքիչի օգնական տղաներ սանտեխնիկայի ընկերությունում,  ժամերը 09.00-18.30, աշխատավարձը ՝ 135.000հեռ.077 71 25 79</t>
+          <t>Ձորաղբյուրի առանձնատանը այգեգործ-բանվոր մինչև 55տ ժ, 9-18,00 կիրակի ազատ օրական 4000հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Վարորդ կազմակերպությունում</t>
+          <t>Կավիճի արտադրամասում փաթեթավորող կանայք մինչև 45տ</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Վարորդ կազմակերպությունում մեքենան տրամադրում են ժամերը 09.00-18.00 5-օրյա հեռ.077 71 25 79</t>
+          <t>Կավիճի արտադրամասում փաթեթավորող կանայք մինչև 45տ ժ․9-18,00 կիրակի ազատ 110,000էրեբունի հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Անվտանգության աշխատակից գրասենյակային տարածքում</t>
+          <t>Պահանջվում է տան մաքրուհի շաբաթական 1օր օրական</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Անվտանգության աշխատակից գրասենյակային տարածքում մեկ օր շուրջօրյա երկու օր հանգիստ, աշխատավարձը՝ 135.000 հեռ.077712579</t>
+          <t>Պահանջվում է տան մաքրուհի շաբաթական 1օր օրական 2-3ժամ օր՝ 5000դրշենգավիթհեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Ադմինստրատիվ օգնական աղջիկ տպագրական ընկերությունում</t>
+          <t>Առանձնատան խոհարարուհի մինչև 60տ</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -3701,218 +3696,218 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Ադմինստրատիվ օգնական աղջիկ տպագրական ընկերությունում փորձը պարտադր չէ ժամերը 09.00-18.00, աշխատանքի վայրը Կենտրոնհեռ.077712579</t>
+          <t>Առանձնատան խոհարարուհի մինչև 60տ ժ․11-19,00 կիրակի ազատ 100,000 նախ կոմիտաս հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Խմիչքի մասնագիտացված խանութ սրահում վաճառողուհի</t>
+          <t>Շինանյութի խանութի գրասենյակում հաշվետար աղջիկ 1Ց-ի իմացությամբ</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Խմիչքի մասնագիտացված խանութ սրահում վաճառողուհի փորձը պարտադիր չէ մինչև 40 տարեկան,  ժամերը 08.00-20.00 օր ու մեջ, աշխատավարձը՝ 5000 հեռ.077 71 25 79</t>
+          <t>Շինանյութի խանութի գրասենյակում հաշվետար աղջիկ 1Ց-ի իմացությամբ,փորձ պետք չէ ժ․10-19,00 կիրակի ազատ 100,000նախ հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Խորհրդատու վաճառողուհի զարդերի խանութ սրահում</t>
+          <t>Շինանյութի խանութի պահեստում բանվոր-օպերատոր տղա</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Խորհրդատու վաճառողուհի զարդերի խանութ սրահում մինչև 45 տարեկան,  փորձը պարտադիր չէ, ժամերը 13.00-21.00, աշխատավարձը ՝70.000+%-ներ հեռ.077712579</t>
+          <t>Շինանյութի խանութի պահեստում բանվոր-օպերատոր տղա ժ․10-19,00 1օր հանգիստ 165,000(վճարումը 10օրը մեկ)շենգավիթ հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Ադմինստրատիվ օգնական աղջիկ</t>
+          <t>Անհատական դայակ 7ամսական զույգ երեխաների համար</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Ադմինստրատիվ օգնական աղջիկ տպագրական ընկերությունում փորձը պարտադր չէ,  ժամերը 09.00-18.00, աշխատանքի վայրը Կոմիտասհեռ.077712579</t>
+          <t>Անհատական դայակ 7ամսական զույգ երեխաների համար մինչև 45տ օր ու մեջ շուրջօրյա գրաֆիկ օրական 10,000Դավիթաշեն հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Հաշվետար օպերատոր աղջիկ</t>
+          <t>Սրճարանում հյուրընկալ աղջիկ</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Yeghvard</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Հաշվետար օպերատոր աղջիկ ներմուծող կազմակերպությունում 1C-ի իմաց. ժ.09.30-19.00 աշխ.՝120.000 հեռ.077712579</t>
+          <t>Սրճարանում հյուրընկալ աղջիկ ժ․17-00,00 օրական 6000կենտրոն հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Խմորեղենի արտադրամասում վարորդ առաքիչ</t>
+          <t>Չրի արտադրամասում փորձառու տեխնոլոգ</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Խմորեղենի արտադրամասում վարորդ առաքիչ սեփական մեքենայով, ժամերը 09.00-13.00, աշխատավարձը գործարքային միջինում 6000-7000 հեռ.077 71 25 79</t>
+          <t>Չրի արտադրամասում փորձառու տեխնոլոգ ժ․8,30-18,30 կիրակի ազատ 180․000 Արգավանդհեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Խոհարարի օգնական աղջիկ</t>
+          <t>Բրենդային հագուստի խանութում վաճառողուհի մինչև 35տ</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Ռեստորանում անհրաժեշտ է խոհարարի օգնական աղջիկ 8-10 ժամյա փորձը ցանկալի է աշխատավարձը՝100.000 հեռ.077 71 25 79</t>
+          <t>Բրենդային հագուստի խանութում վաճառողուհի մինչև 35տ ժ․10-18,00, ժ,12-20,00 և ժ․14-22,00գրաֆիկը տեղում դասավորվում է 100,000+%կենտրոն her 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Փաթեթավորող կանայք շոկոլադի արտադրամասում</t>
+          <t>Արագ սննդի կետում գիշերային պահակ</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Փաթեթավորող կանայք շոկոլադի արտադրամասում մինչև 50 տարեկան, ժամերը 08.30-17.30, աշխատավարձը՝ 80.000 հեռ.077 71 25 79</t>
+          <t>Արագ սննդի կետում գիշերային պահակ մինչև 65տ ժ․23,00-09,00 1օր ազատ 70,000հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Հոսքագծի օպերատոր աղջիկներ</t>
+          <t>Վերնիսաժում զարդերի բաժնի վաճառողուհի միայն ՇԱԲԱԹ-ԿԻՐԱԿԻ</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Հոսքագծի օպերատոր աղջիկներ պլաստամասաների արտադրամասում փորձը պարտադիր չէ ժամերը 09.00-18.00, աշխատավարձը՝ 90.000-120.000հեռ.077712579</t>
+          <t>Վերնիսաժում զարդերի բաժնի վաճառողուհի միայն ՇԱԲԱԹ-ԿԻՐԱԿԻ ժ․9-19,00 օրական 4000+3% her 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Փաթեթավորող կանայք պլաստամասաների արտադրամասում</t>
+          <t>Կոսմետիկայի ֆիրմայում ՇՏԱՊ պահանջվում է առաքիչի օգնական</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Փաթեթավորող կանայք պլաստամասաների արտադրամասում փորձը պարտադիր չէ ժամերը 09.00-18.00, աշխատավարձը՝ 90.000-120.000 հեռ.077712579</t>
+          <t>Կոսմետիկայի ֆիրմայում ՇՏԱՊ պահանջվում է առաքիչի օգնական տղա փորձ պետք չէ ժ․9-19,00,00 կիրակի ազատ 150,000 հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Այգեպան-բանվոր</t>
+          <t>Կիսաֆաբրիկատների արտադրամասում օգնական կին փորձ պետք չէ</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Այգեպան-բանվոր կազմակերպությունում փորձը պարտադիր չէ,  ժամերը 09.30-18.00, աշխատավարձը ՝ 4000 օրական հեռ.077 71 25 79</t>
+          <t>Կիսաֆաբրիկատների արտադրամասում օգնական կին փորձ պետք չէ ժ․9,30-18,00 օրական 3000(օրավճար)հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Ծրագրավորման ընկերությունում ադմինիստրատոր</t>
+          <t>ԱՇԽԱՏԱՆՔ ՈՒՍԱՆՈՂՆԵՐԻՆ</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Ծրագրավորման ընկերությունում ադմինիստրատոր աղջիկ լեզուների գերազանց իմացությամբ, փորձով ժամերը 09.00-18.00 5-օրյա, աշխատավարձը՝250.000 հեռ.077712579</t>
+          <t>ԱՇԽԱՏԱՆՔ ՈՒՍԱՆՈՂՆԵՐԻՆ բնակարանային հարցումներ կատարող աղջիկներ-տղաներ ժ․16,30-21,30 կիրակի ազատ 50,000+%her 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Ընդունարանի աշխատակցուհի</t>
+          <t>Գրասենյակում պահանջվում է մաքրուհի տարիքային սահմանափակում չկա</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Ընդունարանի աշխատակցուհի ծրագրավորման ընկերության գրասենյակում լեզուների իմացությամբ, ժամերը 09.00-18.00 5-օրյա, աշխատավարձը՝ 200.000հեռ.077712579</t>
+          <t>Գրասենյակում պահանջվում է մաքրուհի տարիքային սահմանափակում չկա ժ․8-17,00 կամ ժ․9-18,00շաբաթ կես օր,կիրակի ազատ 70,000նախ հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Տանը դասապատրաստող(</t>
+          <t>Կահույքի սրահում պահանջվում են փորձառու սլեսարներ,տոկարիստներ և CO2 զոդողներ</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -3922,14 +3917,14 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Տանը դասապատրաստող(բացառությամբ օտար լեզուների)7-րդ դասարանի երկու աշակերտների հետ ժ․16-19,00 շաբաթ-կիրակի ազատ 34,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Կահույքի սրահում պահանջվում են փորձառու սլեսարներ,տոկարիստներ և CO2 զոդողներ ջրվեժ</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>րճարանում խոհարարի օգնական կին մինչև 45տ փորձ պետք չէ</t>
+          <t>Հեռախոսային օպերատոր աղջիկ</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -3939,14 +3934,14 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Սրճարանում խոհարարի օգնական կին մինչև 45տ փորձ պետք չէ շաբաթական 4օր ժ․10-22,00 օրական 5000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Հեռախոսային օպերատոր աղջիկ մինչև 40տ փորձ պետք չէ ժ․14,00-20,00 1օր հանգիստ 50,000+%մալաթիա հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Զարդերի խանութում վաճառողուհի մինչև 45տ</t>
+          <t>Պետական մանկապարտեզում դայակ</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -3956,48 +3951,38 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Զարդերի խանութում վաճառողուհի մինչև 45տ ժ․13-21․00 1օր հանգիստ 70,000+%հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Պետական մանկապարտեզում դայակ մինչև 55տ փորձ պետք չէ ժ․8,30-17,30 շաբաթ-կիրակի ազատ 70,000կենտրոն հեռ 093 360 344 կամ 077360378</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Կոնյակի գործարանում գործավարուհի մինչև 35տ ռուսերենի և համակարգչային ծրագրերի գերազանց իմացությամբ</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>(Anywhere)</t>
+          <t>Մենեջեր անշարժ գույքի գործակալությունում</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Կոնյակի գործարանում գործավարուհի մինչև 35տ ռուսերենի և համակարգչային ծրագրերի գերազանց իմացությամբ ժ․9-18,00 կիրակի ազատ 100,000աշխատավայրը՝Դավթաշեն հեռ 093 360 344 կամ 077 360 378</t>
+          <t>ԱՇԽԱՏԱՎԱՐՁԸ (մաքուր) `100.000-200.000 դրամ + վաճառքից% -ներՊահանջներ,-20-35 տարեկան (իգական)- Անգլերենի Եւ Անգլերենի իմացությունը ցանկալի է-Համակարգչային գիտելիքներ, MS Office- Արագ կողմնորոշվելու, թիմում աշխատելու կարողություն, հաղորդակցային հմտություններՊարտականություններ,- Հեռախոսազանգերի ընդունում- Հաճախորդների հետ հաղորդակցման աշխատանքների կառավարում- Գործակալների աշխատանքի վերահսկում- Աշխատանք տվյալների բազայի հետԱշխատանքային գրաֆիկը,- 5-օրյա, 10: 00-19: 00Ձեր ինքնակենսագրականը (CV) կարող եք Ուղարկել info@tanger.am էլեկտրոնային հասցեին, Թեմայի վերնագիրը բաժնում նշելով հաստիքի անվանումըՀեռ., (010) 27-53-10091 29-18-92077 29-18-92Հասցե, Կասյան 7-11E-mail` info@tanger.amwww.tanger.am#գործկա #աշխատանք #գործ #գործ_կա #գործակալ #անշարժգույք #tanger #work #gorcka #agent</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Կարի արտադրամասում հաշվետար աղջիկ փորձ պետք չէ Excel-ի իմացությամբ</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>(Anywhere)</t>
+          <t>Բժիշկ-վնասվածքաբան</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Կարի արտադրամասում հաշվետար աղջիկ փորձ պետք չէ Excel-ի իմացությամբ ժ․9-18,00 կիրակի ազատ 80,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Պահանջներ՝   -համապատասխան կրթություն   -հայերենի `իմացություն` գերազանց   -Համակարգչային բազային գիտելիքներ  -Աշխատանքային փորձի առկայություն Պարտականություններ՝  -Ռենտգեն ժապավենների վերծանում  -Գիպսային ժապավենների տեղադրումԱշխատանքային գրաֆիկը՝  -Երկուշաբթի-ուրբաթ 09: 00-17: 00 Ձեր ինքնակենսագրականը (CV) կարող եք ուղարկել info@tanger.am էլեկտրոնային հասցեին՝ նշելով հաստիքի անվանումը: Հեռ., (010) 27-53-10               091 29-18-92               077 29-18-92 Հասցե, Կասյան 7-11  E-mail` info@tanger.am  www.tanger.am #գործկա #աշխատանք #գործ #գործ_կա #Tanger #աշխատանքը #gorcka #բժիշկ</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Գեղեցկության սրահում մաքրուհի շաբաթական 3օր</t>
+          <t>Հյուրանոցում գիշերային ադմին աղջիկ-տղա փորձ պետք չէ</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -4007,14 +3992,14 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Գեղեցկության սրահում մաքրուհի շաբաթական 3օր ժամային գրաֆիկը հարմարեցվում է օրակկան 3000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Հյուրանոցում գիշերային ադմին աղջիկ-տղա փորձ պետք չէ լեզուների գերազանց իմացությամբ ժ․18,00-09,00 երկու օր աշխատանքի մեկ օր հանգիստ օրական 9000հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Հյուրանոցում պահանջվում է կաթսայատան աշխատակից փորձը պարտադիր չէ</t>
+          <t>Ռեստորանում փորձառու խոհարար տղա</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -4024,14 +4009,14 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Հյուրանոցում պահանջվում է կաթսայատան աշխատակից փորձը պարտադիր չէ 1օր շուրջօրյա 1օր հանգիստ 100,000-ից սկսած հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Ռեստորանում փորձառու խոհարար տղա 12ժամյա գրաֆիկով 180,000հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Հյուրանոցում պահանջվում է անվտանգության աշխատակից մինչև 35տ</t>
+          <t>հաշվետար աղջիկ 1ց կամ Հծ-ի իմացությամբ</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -4041,14 +4026,14 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Հյուրանոցում պահանջվում է անվտանգության աշխատակից մինչև 35տ 1օր շուրջօրյա 1օր հանգիստ 100,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Առևտրային ընկերությանը անհրաժեշտ է հաշվետար աղջիկ 1ց կամ Հծ-ի իմացությամբ փորձ պետք չէ ժ․10-19,00 կիրակի ազատ 80,000նախհեռ093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Ավանի շինանյութի խանութում վաճառողներ-ուհիներ մինչև 35տ</t>
+          <t>մ ֆորդի վարորդ առաքիչ մինչև 35տ</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -4058,14 +4043,14 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Ավանի շինանյութի խանութում վաճառողներ-ուհիներ մինչև 35տ ժ․9-20,00 1օր հանգիստ 120,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Մրգի պահեստում ֆորդի վարորդ առաքիչ մինչև 35տ ժ․10-18,00 շաբաթ-կիրակի ազատ 100,000+%հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Փաբում շտապ պահանջվում է փորձառու մենեջեր աղջիկ մինչև 35տ</t>
+          <t>տնօրենի օգնական աղջիկ փորձ պետք չէ</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -4075,14 +4060,14 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Փաբում շտապ պահանջվում է փորձառու մենեջեր աղջիկ մինչև 35տ ժ․11-23,30 օր ու մեջ աշխատավայրը՝կենտրոն հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Կահույքի սրահի գրասենյակում տնօրենի օգնական աղջիկ փորձ պետք չէ ժ,9,30-18,30 մինչև 40տ 70,000նախ հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Կահույքի արտադրամաասում հաշվետար տղա ՀԾ-ի իմացությամբ</t>
+          <t>պահեստապետի օգնական տղա</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -4092,14 +4077,14 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Կահույքի արտադրամաասում հաշվետար տղա ՀԾ-ի իմացությամբ ժ․9-18,00 կիրակի ազատ 120,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Սննդամթերքի արտադրամասում պահեստապետի օգնական տղա մինչև 45տ ժ․9-18,00 1օր ազատ 150,000ջրվեժ հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ԷՋՄԻԱԾՆԻ ապակիների արտադրամասում պահանջվում են բանվորներ</t>
+          <t>նորավարտ տեխնոլոգներ(պարենամթերքի բաժին)</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -4109,14 +4094,14 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>ԷՋՄԻԱԾՆԻ ապակիների արտադրամասում պահանջվում են բանվորներ մինչև 45տ ժ․9-18,00 կիրակի ազատ 120,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Արտադրամասում պահանջվում են նորավարտ տեխնոլոգներ(պարենամթերքի բաժին) ժ․9-18,00 1օր ազատ նորք հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Պահանջվում է մուտքագրող օպերատոր տղա Excel-ի իմացությամբ</t>
+          <t>ԱՇԽԱՏԱՆՔ ԱԲՈՎՅԱՆՈՒՄ</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -4126,14 +4111,14 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Պահանջվում է մուտքագրող օպերատոր տղա Excel-ի իմացությամբ ժ․01-09,00 կիրակի ազատ 150,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>ԱՇԽԱՏԱՆՔ ԱԲՈՎՅԱՆՈՒՄ բանվորուհի մսամթերքի արտադրամասում մինչև 50տ ժ․9-18,00 կիրակի ազատ 80,0000հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Դեսպանատանը պահանջվում է անվտանգության աշխատակից</t>
+          <t>ԱՇԽԱՏԱՆՔ ԱԲՈՎՅԱՆՈՒՄ</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -4143,14 +4128,14 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Դեսպանատանը պահանջվում է անվտանգության աշխատակից տարիքը՝22-60տ ցերեկային-գիշերային հերթափոխ 80,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>ԱՇԽԱՏԱՆՔ ԱԲՈՎՅԱՆՈՒՄ վարչական շենքում անվտանգության աշխատակից մինչև 60տ 1օր շուրջօրյա 2օր հանգիստ 90,000հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Բուքմեյքերական գրասենյակում պահանջվում է տեսահսկման օպերատոր տղա</t>
+          <t>Կազմակերպությանը անհրաժեշտ են օպտիկական կաբելներ զոդողներ</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -4160,14 +4145,14 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Բուքմեյքերական գրասենյակում պահանջվում է տեսահսկման օպերատոր տղա ռուսերենի գերազանց իմացությամբ,տարիքը՝ 25-45տ ցերեկային -գիշերային գրաֆիկով օրական 5000-6000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Կազմակերպությանը անհրաժեշտ են օպտիկական կաբելներ զոդողներ մինչև 50տ ժ․9-18,00 շաբաթ -կիրակի ազատ 160,000հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Գրավատանը պահանջվում է սպասարկամ աշխատակցուհի փորձ պետք չէ կես գրաֆիկով</t>
+          <t>Իրավաբանական գրասենյակում օգնական աղջիկ փորձ պետք չէ</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -4177,405 +4162,400 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Գրավատանը պահանջվում է սպասարկամ աշխատակցուհի փորձ պետք չէ կես գրաֆիկով 40,000-ից չկա Չարբախի բնակիչհեռ 093 360 344 կամ 077 360 378</t>
+          <t>Իրավաբանական գրասենյակում օգնական աղջիկ փորձ պետք չէ իրավաբանակնա կրթությամբ ժ․10-18,00 շաբաթ-կիրակի ազատ 150,000կենտրոն հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Հյութերի ընկերության գրասենյակում անհրաժեշտ է հաշվետար</t>
+          <t>Ջոբ մարկետ կադրային կենտրոնում պահանջվում է աշխատակցուհի</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Հյութերի ընկերության գրասենյակում անհրաժեշտ է հաշվետար աղջիկ ՀԾ-ի իմացությամբ,  ժամերը 09.00-18.00,  աշխատավարձը՝ 130.000հեռ.077712579</t>
+          <t>Ջոբ մարկետ կադրային կենտրոնում պահանջվում է աշխատակցուհի ժ,10֊18։00 շաբաթ կիրակի ազատՀեռ 077 395 888</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Բիզնես կենտրոնի գրասենյակում ադմինիստրատոր</t>
+          <t>Գրասենյակի տարածքում այգեպան</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Բիզնես կենտրոնի գրասենյակում ադմինիստրատոր աղջիկ լեզուների իմացությամբ, փորձով ժամերը 10.00-18.00 կամ 09.00-17.00, աշխատավարձը՝ 200.000 հեռ.077712579</t>
+          <t>Գրասենյակի տարածքում այգեպան տարիքային սահմանափակում չկա ժ․9-19,00 կիրակի ազատ 80,000հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Գրասենյակում գանձապահ</t>
+          <t>հաշվետար աղջիկ տղա տարիքային սահմանափակում չկա</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Գրասենյակում գանձապահ աղջիկ 1C-ի իմացությամբ, փորձով ժամերը 09.00-18.00, աշխատավարձը՝ 120.000հեռ.077 71 25 79</t>
+          <t>Ներմուծող գրասենյակում հաշվետար աղջիկ տղա տարիքային սահմանափակում չկա 1ց և ՀԾ-ի իմացությամբ ժ․9-18,00 կիրակի ազատ 120,000հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Անվանգության աշխատակիցներ հյուրանոցում</t>
+          <t>արտահանման մենեջեր աղջիկ փորձ պետք չէ</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Անվանգության աշխատակիցներ հյուրանոցում մինչև 45 տարեկան,  զինծառայած մեկ օր շուրջօրյա երկու օր հանգիստ հեռ.077 71 25 79</t>
+          <t>Մանկական սննդի գրասենյակում արտահանման մենեջեր աղջիկ փորձ պետք չէ լեզուների մինիմալ իմացությամբ ժ․9-18,00 կիրակի ազատ 100,000հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Բարձրակարգ հյուրանոցում անհրաժեշտ է մաքրուհի</t>
+          <t>Մարզասրահում ադմինիստրատոր տղա-աղջիկ փորձ պետք չէ</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Բարձրակարգ հյուրանոցում անհրաժեշտ է մաքրուհի ցերեկային կամ գիշերային հերթափոխով աշխատավարձը  սկսած 100.000-ից հեռ.077712579</t>
+          <t>Մարզասրահում ադմինիստրատոր տղա-աղջիկ փորձ պետք չէ 8ժամյա ցերեկային կամ գիշերային գրաֆիկ օրական 3500+թեյավճարհեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Պատվեր գրանցող աղջիկներ</t>
+          <t>հեռախոսավարուհիներ փորձ պետք չէ</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Սուպերմարկետների ցանցի գրասենայկում օնլայն օպերատոր-պատվեր գրանցող աղջիկներ ժամերը 08.00-16.00 և 16.00-23.00, աշխատավարձը 100.000+% հեռ.077712579</t>
+          <t>Արագ սննդի կետում հեռախոսավարուհիներ փորձ պետք չէ ժ․9-21,00 2օր աշխատանքի 1օր հանգիստ 4000+%հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Սուպերմարկետի կիսաֆաբրիկատների բաժնում անհրաժեշտ է աշխատակցուհի</t>
+          <t>Իրավաբանական գրասենյակում տեքստեր հավաքող աղջիկ մինչև 35տ</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Սուպերմարկետի կիսաֆաբրիկատների բաժնում անհրաժեշտ է աշխատակցուհի փորձը պարտադիր չէ ժամերը 15.00-22.00, աշխատավարձը՝ 90.000 հեռ.077712579</t>
+          <t>Իրավաբանական գրասենյակում տեքստեր հավաքող աղջիկ մինչև 35տ փորձ պետք չէ համակարգչային գիտելիքներ ժ․10-18,00 շաբաթ-կիրակի ազատ 100,000կենտրոնհեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Վարորդ հասարակական կազմակերպությունում</t>
+          <t>Տուրիստական գործակալությանը անհրաժեշտ է օպերատոր աղջիկ</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Վարորդ հասարակական կազմակերպությունում մինչև 45տ. մեքենան տրամադրում են ժամերը 09.00-18.00, աշխատավարձը տեղում հեռ.077 71 25 79</t>
+          <t>Տուրիստական գործակալությանը անհրաժեշտ է օպերատոր աղջիկ լեզուների գերազանց իմացությամբ ժ․10-18,30 կիրակի ազատ 100,000հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Անվտանգության աշխատակիցներ արտադրամասում</t>
+          <t>փորձառու կայքի խմբագիր պատասխանատու աղջիկ</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Անվտանգության աշխատակիցներ արտադրամասում մինչև 40 տարեկան,  մեկ օր շուրջօրյա երկու օր հանգիստ, աշխատավարձը՝14.000 օրականհեռ.077 71 25 79</t>
+          <t>Տուրիստական գրասենյակում փորձառու կայքի խմբագիր պատասխանատու աղջիկ տարիքային սահմանափակում չկա ժ․10-18,30 կիրակի ազատ 150,000-ից սկսածհեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Ավտոմեքենաներ ներկրող կազմակերպությունում օպերատոր աղջի</t>
+          <t>քաղցր բամբակ վաճառող աղջիկ</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Ավտոմեքենաներ ներկրող կազմակերպությունում օպերատոր աղջիկ փորձը պարտադիր չէժամերը 09.00-18.00 5-օրյա, աշխատավարձը՝ 80.000 հեռ.077712579</t>
+          <t>Շտապ պահանջվում է քաղցր բամբակ վաճառող աղջիկ ժ․17,30-23,30 օրական 3000-6000կենտրոն հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Հյուրընկալ աղջիկ սրճարանում</t>
+          <t>վաճառքի մենեջեր աղջիկ փորձ պետք չէ</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Հյուրընկալ աղջիկ սրճարանում, ժամերը 17.00-23.00 կարող են դիմել ուսանողներ աշխատավարձը՝ 3000 օրական հեռ.077712579</t>
+          <t>Կուպոնների գրասենյակում վաճառքի մենեջեր աղջիկ փորձ պետք չէ ժ․10-17,00 կամ ժ․14-21,00 120,000+%her 077 360 378 կամ 093 360 344</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Խորհրդատու աղջիկ մոլի բրենդային հագուստի սրահում</t>
+          <t>Գրասենյակում մաքրուհի կես գրաֆիկով</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Խորհրդատու աղջիկ մոլի բրենդային հագուստի սրահում 22-30 տարեկան,  փորձով լեզուների իմացությամբ,  ժամերը 14.00-22.00,  աշխատավարձը՝ 120.000 հեռ.077 71 25 79</t>
+          <t>Գրասենյակում մաքրուհի կես գրաֆիկով ժ,8-12,00 70,000արցախի փողոց հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Դռնապան բարձրակարգ հյուրանոցում</t>
+          <t>Ձորաղբյուրի առանձնատանը այգեգործ-բանվոր մինչև 55տ</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Դռնապան բարձրակարգ հյուրանոցում լեզուների իմացությամբ,  ժամերը 09.00-21.00 և 21.00-09.00 երկու օր հանգիստ, աշխատավարձը՝ 90.000-100.000 հեռ.077 71 25 79</t>
+          <t>Ձորաղբյուրի առանձնատանը այգեգործ-բանվոր մինչև 55տ ժ, 9-18,00 կիրակի ազատ օրական 4000հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Պիտակավորող աղջիկներ</t>
+          <t>Կավիճի արտադրամասում փաթեթավորող կանայք մինչև 45տ</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Քաղցրավենիքի արտադրամասում պիտակավորող աղջիկներ, ժամերը 09.30-17.30 աշխատավարձը՝ 4000 օրականհեռ.077 71 25 79</t>
+          <t>Կավիճի արտադրամասում փաթեթավորող կանայք մինչև 45տ ժ․9-18,00 կիրակի ազատ 110,000էրեբունի հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Վաճառող շինանյութի խանութ սրահում</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
+          <t>Անշարժ գույքի գործակալ</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Վաճառող շինանյութի խանութ սրահում փորձը պարտադիր չէ,  ժամերը 09.00-19.00, աշխատավարձը՝4000 օրական հեռ.077712579</t>
+          <t>Անշարժ գույքի գործակալԱշխատավարձը (մաքուր)՝ 100.000-200.000 դրամ + վաճառքից %-ներՊահանջներ՝ 20-35 տարեկանՀամակարգչային գիտելիքներ՝ MS Office-ի իմացությունՍովորելու ցանկություն, տրամաբանելու կարողություն, աշխատասիրություն Հայերենի գերազանց իմացությունԱշխատանքային փորձի առկայությունը պարտադիր չէՊարտականություններ՝ Հաճախորդների հետ բանակցությունների վարումԲնակարանների ցուցադրումԱշխատանք տվյալների բազայի հետԱշխատանքային գրաֆիկը՝ Ճկուն աշխատանքային գրաֆիկՁեր ինքնակենսագրականը (CV) կարող եք ուղարկել info@tanger.am էլեկտրոնային հասցեին` subject բաժնում նշելով հաստիքի անվանումը Հեռ.՝ (010) 27-53-10091 29-18-92077 29-18-92Հասցե՝ Կասյան 7-11E-mail` info@tanger.amwww.tanger.am#գործկա #աշխատանք #գործ #գործ_կա #գործակալ #անշարժգույք #tanger #work #gorcka #agent</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Մենեջեր տղա ռեստորանում</t>
+          <t>օպերատոր աղջիկ</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Մենեջեր տղա ռեստորանում փորձով օր ու մեջ, աշխատավարձը՝ 9000 օրական հեռ.077 71 25 79</t>
+          <t>Տուրիստական ընկերությանն անհրաժեշտ է օպեր. աղջիկ, տարիքը 20-40, լեզ. իմաց. ժամը 9:00-15:00, աշխ. 100.000դր. շաբաթ հանգիստ,</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Վարորդ առաքիչ ջրեղենի ընկերությունում</t>
+          <t>կայքի պատասխանատու</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Վարորդ առաքիչ ջրեղենի ընկերությունում մեքենան տրամադրում են փորձը ցանկալի է աշխատավարձը՝ 150.000+տոկոսներհեռ.077712579</t>
+          <t>Տուրիստական ընկ. անհրաժեշտ է կայքի պատասխանատու աղջիկ, փորձով, ժամը 10:00-18:30, աշխ. 150.000դր, կիրակի հանգիստ, հեռ. 077 109946</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Պաղպաղակի արտադրամասում անհրաժեշտ են բանվոր-ուհիներ</t>
+          <t>մաքրուհի</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Պաղպաղակի արտադրամասում անհրաժեշտ են բանվոր-ուհիներ փորձը պարտադիր չէ, ժամերը 09.00-18.00, աշխատավարձը՝ 80.000-110.000 հեռ.077 71 25 79</t>
+          <t>Մաքրուհի միչև 55տ. ժամը 09:00-21:00 կամ 09:00-23:00 սկսվ. 5000 դրամից:ՀԵՌ. 077 109946</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ԱՆվտանգության աշխատակիցներ գրասենյակային տարածքում</t>
+          <t>վարորդ առաքիչ</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>ԱՆվտանգության աշխատակիցներ գրասենյակային տարածքում մինչև 35 տարեկան,  մեկ օր շուրջօրյա երկու օր հանգիստ, աշխատավարձը՝135.000 հեռ.077712579</t>
+          <t>Սննդի կետում անհրաժեշտ է առաքիչ սեփ. մեքենայով, ժամը 10:00-12:00, օր. 2800+%,հեռ. 077 109946</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Հոսքագծի օպերատոր սանտեխնիկայի արտադրամասում</t>
+          <t>արտադրամասի աշխատող</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Հոսքագծի օպերատոր սանտեխնիկայի արտադրամասում փորձը պարտադիր չէ մեկ շաբաթ ցերեկ մեկ շաբաթ գիշեր, աշխատավարձը՝ 150.000 միջինում հեռ.077712579</t>
+          <t>Բանվորուհի Աբովյանում մսամթերքի արտադրամասում աշխ. 80.000դ. ժ․9:00-18:00 կիրակի ազատ մինչև 50տ հեռ. 077 109946</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Վաճառքի մենեջեր աղջիկներ տղաներ կաբելային TV-ու</t>
+          <t>ՄԱՐՔԵԹՈԼՈԳ</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Վաճառքի մենեջեր աղջիկներ տղաներ կաբելային TV-ում հարմար է ուսանողներին, ժամերը 17.30-20.30, աշխատավարձը՝ 50.000+տոկոսներհեռ.077 71 25 79</t>
+          <t>Պահանջվում է ՄԱՐՔԵԹՈԼՈԳ, աշխատանքային փորձը պարտադիր է, տարիքը 25-35հեռ. 077 109946</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Անվտանգության աշխատակիցներ բանկերում</t>
+          <t>ՄԱՔՐՈՒՀԻ</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Անվտանգության աշխատակիցներ բանկերում զիծառայած, ժամերը 09.00-18.00 5-օրյա, աշխատավարձը՝118.000 հեռ.077 71 25 79</t>
+          <t>Կահույքի սրահում մաքրուհի մինչև 60տ. ժ.09:30-16:00 աշխ.100.000 հեռ. 077 109946</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Հուշանվերների սրահում խորհրդատու աղջիկ</t>
+          <t>Տնօրենի օգնական</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Հուշանվերների սրահում խորհրդատու աղջիկ, ժամերը 11.00-22.30 օր ու մեջ, աշխատավարձը՝6000 օրական հեռ.077 71 25 79</t>
+          <t>Տնօրենի օգնական  ներմուծող ընկերությունում մինչև 35տարեկան ժ.09:00-18: 00 աշխատավարձը  120.000 լեզուների իմացությամբ հեռախոս 077109946</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Ադմինիստրատոր աղջիկ ատամնաբուժարանում</t>
+          <t>Իրավաբանական գրասենյակում օգնական աղջիկ</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -4585,14 +4565,14 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Ադմինիստրատոր աղջիկ ատամնաբուժարանում, փորձը պարտադիր չէ, ժամերը 10.00-20.00, աշխատավարձը 80.000 նախնական հեռ.077 71 25 79</t>
+          <t>Իրավաբանական գրասենյակում օգնական աղջիկ փորձ պետք չէ իրավաբանական կրթությամբ,  ժամերը 10.00-18.00 5-օրյա, աշխատավարձը՝150.000, աշխատավայրը՝ԿենտրոնՀեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Վաճառող տղա իտալական բրենդային հագուստի սրահում</t>
+          <t>ԱՇԽԱՏԱՆՔ ք. ԱԲՈՎՅԱՆՈՒՄ  Անվտանգության աշխատակից վարչական շենքում</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -4602,31 +4582,31 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Իտալական բրենդային հագուստի սրահում վաճառող տղա փորձով,  ժամերը 10.00-20.00, աշխատավարձը՝ 150.000 հեռ.077 71 25 79</t>
+          <t>ԱՇԽԱՏԱՆՔ ք. ԱԲՈՎՅԱՆՈՒՄ Անվտանգության աշխատակից վարչական շենքում մինչև 60 տարեկան,  1օր շուրջօրյա 2օր հանգիստ,  աշխատավարձը՝ 90.000:Հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Պայուսակների մասնագիտացված խանութ սրահում վաճառողուհի</t>
+          <t>ԱՇԽԱՏԱՆՔ ԱԲՈՎՅԱՆՈՒՄ  Մսամթերքի արտադրամասում բանվորուհիներ</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>Abovyan</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Պայուսակների մասնագիտացված խանութ սրահում վաճառողուհի, ժամերը 10.30-20.00, աշխատավարձը՝90.000, աշխատանքի վայրը Կենտրոն հեռ.077 71 25 79</t>
+          <t>ԱՇԽԱՏԱՆՔ ԱԲՈՎՅԱՆՈՒՄ Մսամթերքի արտադրամասում բանվորուհիներ մինչև 50 տարեկան, ժամերը 09.00-18.00 կիրակի հանգիստ, աշխատավարձը՝ 80.000:Հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Վարորդ առաքիչ ձեթի արտադրամասում</t>
+          <t>Առևտրային ընկերությանում հաշվետար աղջիկ</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -4636,14 +4616,14 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Վարորդ առաքիչ ձեթի արտադրամասում մեքենան տրամադրում են, ժամերը 09.00-18.00,  աշխատավարձը՝ 150.000 հեռ.077 71 25 79</t>
+          <t>Առևտրային ընկերությանում հաշվետար աղջիկ 1C կամ Հծ-ի իմացությամբ,  փորձ պետք չէ,  ժամերը 10.0-19.00 կիրակի ազատ, աշխատավարձը՝ 80.000 նախնական:հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Ցուցասրահի մենեջեր</t>
+          <t>Զարգացման քոլեջում ԽՄԲԱՎԱՐ</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -4653,14 +4633,14 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Մասնագիտացված դռների սրահում ցուցասրահի մենեջեր աղջիկ ռուսերենի իմացությամբ,  ժամերը 10.00-19.00,  աշխատավարձը՝ 100.000 հեռ.077 71 25 79</t>
+          <t>Զարգացման քոլեջում ԽՄԲԱՎԱՐ մինչև 40 տարեկան,  նախադպրոցական կրթությամբ, ժամերը 08.30-17.30 5-օրյա,  աշխ.՝80.000-ից սկսածԿոմիտաս Հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Անվտանգության աշխատակիցներ սուպերմարկետում</t>
+          <t>Օպտիկական կաբելներ զոդողներ</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -4670,48 +4650,48 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Անվտանգության աշխատակիցներ սուպերմարկետում մեկ օր ցերեկ մեկ օր գիշեր մեկ օր հանգիստ, աշխատավարձը՝ 120.000 հեռ.077 71 25 79</t>
+          <t>Կազմակերպությանը անհրաժեշտ են օպտիկական կաբելներ զոդողներ մինչև 50 տարեկան, ժամերը 09.00-18.00 5-օրյա, աշխատավարձը՝160.000:հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Կերամիկայի արտադրամասում առաքիչի օգնական փորձը պարտադիր չէ</t>
+          <t>Տնօրենի օգնական աղջիկ</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Կերամիկայի արտադրամասում առաքիչի օգնական փորձը պարտադիր չէ ժ 9.00-19.30 կիրակի հանգիստ 150.000+տոկոս հեռ 077109946</t>
+          <t>Կահույքի սրահի գրասենյակում տնօրենի օգնական աղջիկ մինչև 40 տարեկան,  փորձ պետք չէ ժամերը՝ 09.30-18.30,  աշխատավարձը՝ 70.000 նախնական, Նոր Նորք:հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Շոկոլադի պահեստում պահանջվում են բանվորներ մինչև 40տ</t>
+          <t>Ադմինստրատիվ օգնական աղջիկ</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Շոկոլադի պահեստում պահանջվում են բանվորներ մինչև 40տ ժ․11-21,00 կամ ժ․19-02,00 կամ ժ․13-21,00 առաջին ամիսը՝80,000,հետո 140,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Ներմուծող ընկերության գրասենյակում ադմինստրատիվ օգնական աղջիկ լեզուների իմացությամբ, ժամերը 09.30-18.30,  աշխատավարձը՝ 80.000-ից սկսած:հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Ավտոլվացման կետում պահանջվում է պահակ մինչև 50տ</t>
+          <t>գիշերային հերթափոխով ՎԱՃԱՌՈՂ տղաներ</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -4721,14 +4701,14 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Ավտոլվացման կետում պահանջվում է պահակ մինչև 50տ ժ․11-21,00 1օր հանգիստ օրական 3000աշխատավայրը՝Աջափնյակհեռ 093 360 344 կամ 077 360 378</t>
+          <t>Ծաղկի սրահում գիշերային աշխատող տղա, ժամը երեկոյան 8-ից առավոտյան 9:00-ը օր ու մեջ գրաֆիկով, աշխ. 4000 դրհեռ. 077 109946</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Ռեստորանում պահանջվում են հավաքարարներ և սպասք լվացողներ մինչև 45տ</t>
+          <t>ՎԱՐՈՐԴ</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -4738,14 +4718,14 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Ռեստորանում պահանջվում են հավաքարարներ և սպասք լվացողներ մինչև 45տ ժ․10-00,00 օր ու մեջ օր 5000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Վարորդ սեփական մեքենայով , Աշխ. միջինը 150.000, մինչև 40տ. Հեռ. 077 10-99-46</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Անհատական դայակ 1ամսական երեխայի համար մինչև 35տ ռուսերենի գերազանց և անգլերենի բավարար իմացությամբ</t>
+          <t>բանվորներ</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -4755,167 +4735,167 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Անհատական դայակ 1ամսական երեխայի համար մինչև 35տ ռուսերենի գերազանց և անգլերենի բավարար իմացությամբ,աշխատանքային փորձը պարտադիր է ժ․10-22,00 1օր հանգիստ 350,000աշխատավայրը՝կենտրոն հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Պահեստում աշխատելու համար անհրաժեշտ են բանվորներ, աշխ. գրաֆիկը 6-օրյա , ժամը 9:00-19:00, ընմիջումն ապահովում է ընկերությունը աշխատավարրձը 150.000 դրամ</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Բրենդային հագուստի խանութում պահանջվում է մաքրուհի մինչև 65տ</t>
+          <t>Բարձրակարգ հյուրանոցում ադմինիստրատոր տղա աղջիկ</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Բրենդային հագուստի խանութում պահանջվում է մաքրուհի մինչև 65տ աշխատելու եք երկու գրաֆիկով ժ․10-18,00 և 14-22,00 1օր հանգիստ 85,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Բարձրակարգ հյուրանոցում ադմինիստրատոր տղա աղջիկ լեզուների իմացությամբ,  փորձը պարտադիր չէ,  ժամերը 18.00-10.00 1 օր աշխատանքի 2 օր ազատ, աշխատավարձը՝  9000077712579</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Ատամնաբուժական ապրանքների խանութ սրահում պահանջվում է դեղագործ-վաճառողուհի</t>
+          <t>Բարձրակարգ հյուրանոցում խոհարար փորձառու</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Ատամնաբուժական ապրանքների խանութ սրահում պահանջվում է դեղագործ-վաճառողուհի մինչև 35տ ժ․10-18,00 կիրակի ազատ 80․000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Բարձրակարգ հյուրանոցում խոհարար փորձառու  ամսական 20 օր 12 ժամյա,  աշխատավարձը՝ 180.000-ից սկսած, աշխատավայրը՝ Կենտրոն: հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Զարգացման կենտրոնում պահանջվում է դաստիարակչուհի ռուսերենի գերազանց իմացությամբ</t>
+          <t>Բարձրակարգ հյուրանոցում մատուցող-ուհիներ</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Զարգացման կենտրոնում պահանջվում է դաստիարակչուհի ռուսերենի գերազանց իմացությամբ ժ․11-19,00 օր ու մեջ գրաֆիկով օրական 2000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Բարձրակարգ հյուրանոցում մատուցող-ուհիներ փորձը պարտադիր չէ ժամերը 07.00-14.00 և 08.00-23.00,  աշխատավարձը՝8000+թեյավճար, աշխատավայրը՝ Կենտրոն:հեռախոսահամար 077712579</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Գովազդային գործակալությանը անհրաժեշտ է գործակալ աղջիկ</t>
+          <t>Հարսանյաց սրահում խորհրդատու վաճառողուհի</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Գովազդային գործակալությանը անհրաժեշտ է գործակալ աղջիկ ժ․10-18,30 կիրակի ազատ 60,000+%հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Հարսանյաց սրահում խորհրդատու վաճառողուհի մինչև 35 տարեկան,  փորձը ցանկալի է ժամերը 10.30-20.00 1 օր հանգիստ,  աշխավարձը՝ 80.000+տոկոս:077712579</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Պետական մանկապարտեզում պահանջվում է բակի մաքրուհի</t>
+          <t>Կերամիկայի պահեստում բանվորներ</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Պետական մանկապարտեզում պահանջվում է բակի մաքրուհի ժ․8-12 շաբաթ-կիրակի ազատ 25,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Կերամիկայի պահեստում բանվորներ ժամերը 09.00-18.30 կիրակի հանգիստ, աշխատավարձը՝165.000 հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Սրճարանում մաքրուհի</t>
+          <t>ԱՌԱՔԻՉԻ ՕԳՆԱԿԱՆ սանտեխնիկայի ընկերությունում</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Սրճարանում մաքրուհի ժ․8,30-18,00 օրական 3500+%,կամ ժ․8,30-23,00 5000+% 1օր հանգիստ հեռ 093 360 344 կամ 077 360 378</t>
+          <t>ԱՌԱՔԻՉԻ ՕԳՆԱԿԱՆ սանտեխնիկայի ընկերությունում փորձը պարտադիր չէ,  ժամերը 08.30-18.30,  աշխատավարձը՝ 135.000+տոկոս: հեռախոսահամար՝ 077712579</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Նոտարական գրասենյակում թղթեր տանող-բերող աղջիկներ մինչև 45տ</t>
+          <t>Կահույքի խանութ սրահում խորհրդատւ-վաճառողուհի</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Նոտարական գրասենյակում թղթեր տանող-բերող աղջիկներ մինչև 45տ ժ․8․30-17․30 շաբաթ-կիրակի ազատ օր2500հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Կահույքի խանութ սրահում խորհրդատւ-վաճառողուհի մինչև 35 տարեկան,  ժամերը 10.00-19.00,  աշխատավարձը՝100.000, փորձը պարտադիր չէ:հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Ներմուծող ընկերության գրասենյակում ադմինիստրատիվ օգնական աղջիկ մինչև 35տ</t>
+          <t>Կահույքի խանութ սրահում մաքրուհի</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Ներմուծող ընկերության գրասենյակում ադմինիստրատիվ օգնական աղջիկ մինչև 35տ, երկրորդ գրաֆիկով ժ․16-21,30 կիրակի ազատ 125,000աշխատավայրը՝շենգավիթ հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Կահույքի խանութ սրահում մաքրուհի մինչև 60 տարեկան,  ժամերը 09.30-16.00 աշխատավարձը՝100.000:  հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Սուրճի արտադրամասում պահանջվում է փաթեթավորող- բանվորուհի</t>
+          <t>Վարորդ առաքիչ ռեստորանում</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Սուրճի արտադրամասում պահանջվում է փաթեթավորող- բանվորուհի մինչև 45տ արտադրամասային փորձը պարտադիր է ժ․9-18 շաբաթ-կիրակի ազատ 100,000աշխատավայրը՝նոր նորք հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Վարորդ առաքիչ ռեստորանում մինչև 45 տարեկան, սեփական մեքենայով 11 ժամյա, աշխատավարձը՝ 12.000+ընդմիջում : հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Շոկոլադի արտադրամասում պահանջվում է վարորդ առաքիչ</t>
+          <t>Սրահի կառավարիչ տղաներ</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -4925,14 +4905,14 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Շոկոլադի արտադրամասում պահանջվում է վարորդ առաքիչ մեքենան տրամադրում են ժ․9-19,00 կիրակի ազատ 150,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Սրահի կառավարիչ, 27-40տ. սեռ՝ տղա, նվազագույնը 4-տարվա ղեկավարման փորձով, բարձրագույն կրթությունը պարտադիր է : Հեռ. 077 109946</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Ռեստորանում պահանջվում է մենեջեր տղա փորձը ռեստորանային ոլորտում պարտադիր է</t>
+          <t>ԳԱՆՁԱՊԱՀ ԱՂՋԻԿ</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -4942,14 +4922,14 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Ռեստորանում պահանջվում է մենեջեր տղա փորձը ռեստորանային ոլորտում պարտադիր է աշխատանքը օր ու մեջ գրաֆիկով օրական 9000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Արագ սննդի կետում գանձապահ աղջիկներ, 22-35տ. հեռ. 077 109946</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Շոկոլադի արտադրամասում պահանջվում են պիտակավորող կանայք մինչև 35տ</t>
+          <t>Մենեջեր  տղա</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -4959,14 +4939,14 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Շոկոլադի արտադրամասում պահանջվում են պիտակավորող կանայք մինչև 35տ ժ․9,30-17,30 կիրակի ազատ օրական 4000աշխատավայրը՝առինջհեռ 093 360 344 կամ 077 360 378</t>
+          <t>Արագ սննդի կետին անհրաժեշտ է մենեջեր, 12ժամ աշխ. գրաֆիկով, սննդի կետում փորձը պարտադիր է, 1 կամ 2-օր հանգիստհեռ, 077 109946</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Պաղպաղակի արտադրամասում պահանջվում են բանվորուհիներ մինչև 45տ</t>
+          <t>Առաքիչ սեփական մեքենայով</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -4976,133 +4956,133 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Պաղպաղակի արտադրամասում պահանջվում են բանվորուհիներ մինչև 45տժ․9-18,00 կիրակի ազատ 80,000-120,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Առաքիչ սեփական մեքենայով, 20-45տ, 11ժամյա գրաֆիկով, աշխատավարձը օր. 12.000, ընդմիջումը կազմ. հաշվինհեռ. 077109946</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Կաթնամթերքի արտադրամասում պահանջվում է վարորդ առաքիչ մինչև 40տ</t>
+          <t>Առանձնատանը Կառավարիչ կին</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Կաթնամթերքի արտադրամասում պահանջվում է վարորդ առաքիչ մինչև 40տ մեքենան տամադրում ենաշխատավարձը՝ գործարքային,սկսած՝150,000-ից հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Առանձնատանը Կառավարիչ կին մինչև 40 տարեկան,  ժամերը 09.00-21.00 շաբաթ կիրակի հանգիստ, աշխատավարձը՝ 200.000 (վարորդական իրավունքի առկայություն):հեռախոսահամար՝ 077712579</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Սանտեխնիկային սրահում պահանջվում է վաճառող տղա փորձը պարտադիր չէ,</t>
+          <t>Օպերատոր</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Սանտեխնիկային սրահում պահանջվում է վաճառող տղա փորձը պարտադիր չէ,մինչև 35տ ժ․9-18,00 1օր ազատ օրական 4000աշխատավայրը՝շենգավիթ հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Աշխատանք ք.Աբովյանում Ինտերնետ մատակարարող ընկերության գրասենյակում օպերատոր աղջիկ ժամերը 09.00-19.00 5-օրյ, աշխատավարձը՝60.000 նախնական:Հեռախոսահամար՝ 077712579</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Երևան մոլի հագուստի խանութում պահանջվում է վաճառղուհի մինչև 30տ</t>
+          <t>Ներմուծման մենեջեր</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Երևան մոլի հագուստի խանութում պահանջվում է վաճառղուհի մինչև 30տ լեզուների բավարար իմացությամբ ժ․14-22,00 1օր ազատ 120,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Աշխատանք Ք.Աբովյանում Ինտերնետ մատակարարող ընկերության գրասենյակում ներմուծման մենեջեր աղջիկ լեզուների իմացությամբ,  ժամերը 09.00-19.00 5-օրյա,  աշխատավարձը՝ 140.000 Երևանի բնակչի դեպքում՝160.000Հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Հյուրանոցում պահանջվում է դռնապահ մինչև 30տ լ</t>
+          <t>Տուրիստական հյուրանոցում մենեջեր աղջիկ</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Հյուրանոցում պահանջվում է դռնապահ մինչև 30տ լեզուների իմացությամբ ժ․9-21,00 հաջորդ օրը՝21-09,00 և հանգիստ 80,000-100,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Տուրիստական հյուրանոցում մենեջեր աղջիկ փորձը պարտադիր չէ լեզուների իմացությամբ,  1 օր շուրջօրյա 2 օր հանգիստ, աշխատավարձը՝8000+բոնուսներ:հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Ատամնաբուժարանում պահանջվում է ադմինիստրատոր աղջիկ</t>
+          <t>Շին.ընկերության գրասենյակում հաշվապահ</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Ատամնաբուժարանում պահանջվում է ադմինիստրատոր աղջիկ՝22տ-ից բարձր ժ․10-20,00 կիրակի ազատ 80,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Շին.ընկերության գրասենյակում հաշվապահ փորձով ՀԾ-ի կամ 1C-ի իմացությամբ, աշխատավարձը՝ 150.000-ից սկսած,  ժամերը 09.00-19.00 հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Անկողնային պարագաների խանութ սրահում պահանջվում է վաճառողուհի մինչև 40տ</t>
+          <t>Շին.ընկերոթյան գրասենյակում գնումների մասնագետ</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Անկողնային պարագաների խանութ սրահում պահանջվում է վաճառողուհի մինչև 40տ ժ․10-20,00 ամսական 2օր հանգիստ 90,000աշխատավայրը՝կոմիտաս հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Շին.ընկերոթյան գրասենյակում գնումների մասնագետ աղջիկ տղա մինչև 40 տարեկան, ժամերը 09.00-19.00 կիրակի հանգիստ, աշխատավարձը՝ 130,000-ից սկսած հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Թանկարժեք քարերի գրասենյակում պահանջվում է արտաքին կապերի մասնագետ աղջիկ՝</t>
+          <t>Հյուրանոցում անվտանգության աշխատակից</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Թանկարժեք քարերի գրասենյակում պահանջվում է արտաքին կապերի մասնագետ աղջիկ՝փորձով և լեզուների գերազանց իմացությամբ,ժ․10-18,00 կիրակի ազատ 120,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Հյուրանոցում անվտանգության աշխատակից մինչև 35 տարեկան, ժամերը 18.00-09.00 մեկ օր աշխատանքի 2 օր հանգիստ, աշխատավարձը՝100.000: հեռախոսահար՝ 077712579</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Շին ընկերությանը անհրաժեշտ է բեռնատարի փորձառու վարորդ առաքիչ</t>
+          <t>Գնումների մասնագետ</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -5112,14 +5092,14 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Շին ընկերությանը անհրաժեշտ է բեռնատարի փորձառու վարորդ առաքիչ ժ․9-20,00 կիրակի ազատ 180,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Շին. ընկերությունում գնումների մասնագետ տղա, Ժ. 9:00-18:00-ը, մինչև 40 տ, կիր. հանգիստաշխ. 130.000Հեռ. 077 109946</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Լեզուների կենտրոնում պահանջվում է ադմինիստրատոր աղջիկ</t>
+          <t>Գնումների մասնագետ</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -5129,14 +5109,14 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Լեզուների կենտրոնում պահանջվում է ադմինիստրատոր աղջիկ անգլերենի-ռուսերենի գեր իմացությամբ ժ․11-20,00 կիրակի ազատ 80,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Շինարարական  գնումների մասնագետ տղա, Ժամը 9:00-18:00-ը, մինչև 40 տարեկան, կիրակի հանգիստհեռ. 077 109946</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Շին ընկերություն բանվորներ մինչև 45տ ժ․9-19,00 կիրակի ազատ 160,000</t>
+          <t>հաշվապահ</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -5146,14 +5126,14 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Շին ընկերություն բանվորներ մինչև 45տ ժ․9-19,00 կիրակի ազատ 160,000հեռ 09 360 344 կամ 077 360 378</t>
+          <t>Շին. ընկերությանը անհրաժեշտ է հաշվապահ աղջիկ-տղա ՀԾ-ի կամ 1C-ի իմացությամբ, փորձը պարտադիր ժ․09-18:00 կիրակի ազատ աշխ. 150.000</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>ֆուրի փորձառու վարորդ E վարորդական կարգով</t>
+          <t>ներմուծման մենեջեր</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -5163,14 +5143,14 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Բեռնափոխադրող ընկերությանը անհրաժեշտ է ֆուրի փորձառու վարորդ E վարորդական կարգով հեռ 093 360 34 կամ 077 360 378</t>
+          <t>Ինտերնետ մատակարարող ընկերությանը անհրաժեշտ է ներմուծման մենեջեր աղջիկ լեզուների իմացությունը պարտադիր է ժ․09-19:00 կիրակի հանգիստ 140.000-160.000</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Սպասքի խանութում պահանջվում է փորձառու վաճառողուհի մինչև 35տ</t>
+          <t>ԱՆՎՏԱՆԳՈՒԹՅԱՆ ԱՇԽԱՏԱԿԻՑ</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -5180,14 +5160,14 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Սպասքի խանութում պահանջվում է փորձառու վաճառողուհի մինչև 35տ ժ․10-19․30 1օր ազատ 100,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Հյուրանոցում անվտանգության աշխատակից մինչև 35տ. ժ.18.00-09.00 մեկ օր աշխատանքի 2 օր հանգիստ աշխ.՝100.000 հեռ. 077109946</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Ավտոմեքենա ներմուծող ընկերության գրասենյակում համակարգչային օպերատոր</t>
+          <t>ԲԱՆՎՈՐ ՏՂԱՆԵՐ</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -5197,14 +5177,14 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Ավտոմեքենա ներմուծող ընկերության գրասենյակում համակարգչային օպերատոր ժ․9-18,00 շաբաթ-կիրակի ազատ 80,000աշխատավայրը՝ նորքի 9զհեռ 093 360 344 կամ 077 360 378</t>
+          <t>Mr. Gyros - արագ սննդի կետին անհրաժեշտ են բանվորներ, մինչև 60 տարեկան, ժ. 8:00-18:30, աշխ 100.000դր</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Ջերմոցում պահանջվում են բանվորուհիներ մինչև 50տ</t>
+          <t>Դռնապան</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -5214,14 +5194,14 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Ջերմոցում պահանջվում են բանվորուհիներ մինչև 50տժ 9.00-19.00 կիրակի հանգիստ 120,000աշխավայրը՝նորագավիթ հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Հյուրանոցին անհրաժեշտ է դռնապան, ժ.18:00- 09:00, աշխ. 100.000, 1-օր աշխատանք 2օր հանգիստ հեռ. 077 109946</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Անհատական դայակ</t>
+          <t>սպասք լվացող</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -5231,200 +5211,230 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Անհատական դայակ 8ամսական երեխայի համար անգլերենի լավ իմացությամբ ժ․10-18,00 կիրակի ազատ օրական 3000-4000աշխատավայրը՝կենտրոն հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Հյուրանոցում սպասք լվացող ժ. 8:00 -ից 18:00-ը կամ 17:00 -ը , մինչև 55տ, աշխ. 80000 1 օր ազատհեռ. 077 109946</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Անվտանգության աշխատակիցներ բանկերում Անվտանգության աշխատակիցներ բանկերում</t>
+          <t>ՄԵՆԵՋԵՐ ԱՂՋԻԿ</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Անվտանգության աշխատակիցներ բանկերում զիծառայած ժ.09.00-18.00 5-օրյա աշխ.՝118.000 հեռ 077109946</t>
+          <t>Հյուրանոցում մենեջեր աղջիկ, փորձը պարտադիր չէ, լեզուների իմացությամբ 1- օր շուրջօրյա 2-օր ազատ օրական 8000+բոնուսհեռ. 077 109946</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Պահանջվում է Գնումների բաժնի մենեջեր։</t>
+          <t>Զարգացման կենտրոնում պահանջվում են փորձառու հոգեբաններ</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Պարտականություններ՝ -Իրականացնել պահանջվող ապրանքների գծով արտաքին և ներքին շուկայի ուսումնասիրություն և վերլուծություն,-Համակարգել ընկերության կապերը և հարաբերությունները միջազգային և ներքին մատակարարների հետ,-Ժամանակին պլանավորել արտասահմանյան և հայաստանյան մատակարարներից գնումների գործընթացը,-Վարել բանակցություններ մատակարարների հետ ընկերության համար համագործակցության փոխշահավետ պայմաններ ձեռք բերելու նպատակով,-Նախապատրաստել և կանոնավորել նախապայմանագրային փաստաթղթերը, կնքել պայմանագրեր մատակարարների հետ,-Համակարգել և վերահսկել մատակարարների հետ պայմանագրային պայմանների ժամանակին կատարումը,-Ժամանակին պատրաստել և մատակարարներին ուղարկել ապրանքների պատվերները,-Բեռնափոխադրող ընկերությունների մրցակցային առաջարկների մշտական ուսումնասիրություն, բեռնափոխադրման գործընթացի կազմակերպում,-Ճանապարհորդատրանսպորտային փաստաթղթերի պատրաստում,-Ներմուծման գործընթացի կազմակերպում և վերահսկում,-Անհրաժեշտ հաշվետվությունների կազմում և ներկայացում։Պահանջներ՝ մինչև 45 տ., ցանկալի է տնտեսագիտական կամ տեխնիկական ոլորտում բարձրագույն կրթության առկայություն, հայերեն, ռուսերեն, անգլերեն լեզուների իմացություն, MS office ծրագրի իմացություն, մինիմում 3 տարվա համապատասխան աշխատանքային փորձ։ Աշխատանքային գրաֆիկ՝ երկ-ուրբ, ժամը 09։00-18։00։Աշխատավարձը (մաքուր) փորձաշրջանի ընթացքում 200000 դրամ, հետագայում բարձր:Ուղարկեք Ձեր CV-ին info@tanger.am էլ. հասցեին՝ վերնագրում նշելով Գնումների բաժնի մենեջեր:Հեռ. 27-53-10, 077-29-18-92, 091-29-18-92mail: info@tanger.amwww.tanger.am</t>
+          <t>Զարգացման կենտրոնում պահանջվում են փորձառու հոգեբաններ գրաֆիկը հարմարեցվում է,աշխատավարձը՝գործարքայինհեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Պահանջվում է Գանձապահ (ընկերությունը զբաղվում է տեխնիկայի վաճառքով)</t>
+          <t>Զարգացման կենտրոնում պահանջվում են փորձառու պարուսույցներ</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Պարտականություններ՝ -Իրականացնել կանխիկ և անկանխիկ դրամի ընդունում և բացթողում,-Աշխատանքային օրվա ավարտին` դրամարկղի ստուգում և ամփոփում,-Փաստաթղթային և ծրագրային օրական համապատասխանեցում,-Դրամարկղի գործառույթների հետ կապված այլաշխատանքներ:Պահանջներ՝-կին 20-35տ., -Հայերենի և ռուսերենի լավ իմացություն, անգլերենի իմացությունը ցանկալի է,-MS office ծրագրի իմացություն,-1C ծրագրի իմացությունըցանկալի է,-Աշխատանքային փորձը կդիտվի որպես առավելություն։Աշխատանքային գրաֆիկ՝ ժ․10։00-20։00։Աշխատավարձ (մաքուր)` 110000-130000 դրամ:Հեռ.: 27-53-10, 091-29-18-92, 077-29-18-92e-mail: info@tanger.amwww.tanger.am</t>
+          <t>Զարգացման կենտրոնում պահանջվում են փորձառու պարուսույցներ գրաֆիկը հարմարեցվում է,աշխատավարձը՝գործարքայինմալաթիահեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Պահանջվում են րիելտորներ (անշարժ գույքի վաճառք և վարձակալույթուն):</t>
+          <t>Ռիո մոլի խնամքի պարագաների սրահում վաճառողուհի</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Պարտականություններ՝ Գույքի դիտում, գնահատում, հաճախորդներին ցուցադրում:Պահանջներ՝ 23-45տ., բարձրագույն կրթության առկայություն, հայերենի և ռուսերենի իմացություն, MS office ծրագրի իմացույթուն։Անգլերեի իմացությունը և աշխատանքյին փորձը ցանկալի են։Աշխատանքային գրաֆիկ՝ 10։00-19։00։Աշխատավարձ՝ գործարքային։Հեռ.: 27-53-10, 091-29-18-92, 077-29-18-92e-mail: info@tanger.amwww.tanger.am</t>
+          <t>Ռիո մոլի խնամքի պարագաների սրահում վաճառողուհի ժ․10-16,00 կա 16-22,00 50,000նախ հեռ093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Պահանջվում է վաճառող – խորհրդատու (տեխնիկայի վաճառք):</t>
+          <t>Աշխատանք Աղվերանում  փորձառու բարմեն</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Պարտականություններ՝ -Իրականացնել ապրանքների վաճառք,-Հետևել ապրանքների դասավորվածությանն ու մաքրությանը, -Ապահովել բարձր մակարդակի սպասարկում,-Կատարել այլ աշխատանքներ՝ ըստ անհրաժեշտության:Պահանջներ՝ 20-35 տ., Հայերենի գերազանց իմացություն, ռուսերենի լավ իմացույթուն:Անհրաժեշտ է լինել արագաշարժ, կարգապահ, ժպտերես, ունենալ գրագետ և կիրթ խոսք, ինչպես նաև հրահանգները ճշգրիտ կատարելու ունակություն:Աշխատանքային փորձը և անգլերենի իմացությունը կդիտվեն որպես առավելություն:Աշխատանքային գրաֆիկ՝ ժ․10։00-20։00։Աշխատավարձ (մաքուր) 90000-110000 դրամ+բոնուսներ:Հեռ.: 27-53-10, 091-29-18-92, 077-29-18-92e-mail: info@tanger.amwww.tanger.am</t>
+          <t>Աշխատանք Աղվերանում Հյուրանոցում փորձառու բարմեն ժ.10.00-21.00 1օր հանգիստ 100.000+տոկոս+մնալու տեղհեռ 093 360 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Office Manager</t>
+          <t>Մասնագիտացված պայուսակների խանութ սրահում մենեջեր աղջիկ</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>JOB DESCRIPTION:  Prime Commercial LLC is seeking a motivated candidate to fill the position of Office Manager.JOB RESPONSIBILITIES•	Organizing meetings •	Booking transport and accommodation•	Assisting the General Manager•	Ordering stationery •	Dealing with correspondence•	Preparing lettersREQUIRED QUALIFICATIONS •	Knowledge of English and Russian languages•	Knowledge of software packages•	Good interpersonal and time management skills•	Reliability and discretion•	Adaptability•	Organizational skills•	Initiative•	Attention to detailAPPLICATION PROCEDURES:  All interested candidates are welcome to send their CV with a photo to: info@primecommercial.am indicating the position title ("Office Manager") in the subject line of the email.</t>
+          <t>Մասնագիտացված պայուսակների խանութ սրահում մենեջեր աղջիկ փորձը ցանկալի է բարձրագույն կրթ. ժ.10.00-19.00 150.000-ից սկսած հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Վաճառքի մասնագետ</t>
+          <t>Հյուրանոցում դռնապահ տղա գիշերային հերթափոխ</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Աշխատանքի նկարագրությունը` Ռադիոկայանին անհրաժեշտ է վաճառքի մասնագետ:Պարտականությունները`-      Ներկայացնել և վաճառել ռադիոկայանի ծառայությունները փաստացի և պոտենցիալ հաճախորդներին-      Պատրաստել առաջարկներ -      Նպաստել հաճախորդների հետ հարաբերությունների ամրապնդմանը, պահպանմանն ու զարգացմանըՊահանջվող հմտությունները`-      Բարձրագույն կրթություն-      Համոզելու և ազդեցություն գործելու ունակություն-      Հաղորդակցվելու գերազանց ունակությունԴիմելու կարգը` ուղարկեք Ձեր ինքնակենսագրականը info@primecommercial.am հասցեով, նշելով թափուր աշխատատեղի անվանումը:</t>
+          <t>Հյուրանոցում դռնապահ տղա գիշերային հերթափոխ մինչև 35տ. ժ.18.00-09.00 մեկ օր աշխատանքի 2 օր հանգիստ 100,000հեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Պահանջվում է խանութի ադմինիստրատոր</t>
+          <t>Շին հրապարակում փորձառու ինժեներ-հսկիչ</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Պարտականություններ՝1.Ադմինիստրատիվ և կառավարչական գործառույթների իրականացում՝-Աշխատանքային գրաֆիկի կազմում-Վաճառքների խթանում-Հաճախորդմերի սպասարկման որակի բարձրացում-Հաշվետվությունների կազմում և ներկայացում2.Անձնակազմի կառավարում՝-Աշխատակիցների միջև պարտականությունների բաշխում-Անձնակազմի ուսուցման և մոտիվացիայի բարձր մակարդակի ապահովում-Ժողովներ 3.Վաճառք՝-Հաճախորդների սպասարկում և խորհրդատվություն4.Մերչենդայզինգ՝-Ապրանքի ստացում և տեսանելիության ապահովում- Վաճառքի վերլուծություն-Ցուցափեխկի ձևավորում 5.Դրամարկղ՝- Դրամական միջոցների ընդունման, հաշվառման, պահպանման գործառույթներ-Գումարային փաստաթղթաշրջանառություն, ինկասացիա-Խանութի հերթափոխի բացում և փակումՊահանջներ՝ կին 21-35 տ., բարձրագույն կրթություն, հայերեն, ռուսերեն, անգլերենի իմացություն, MS office իմացություն, ադմինիստրատորի աշխատանքի փորձ, դրամարկղային փաստաթղթաշրջանառության իմացություն: Աշխատանքային գրաֆիկ՝ շաբաթական 5 օր, ժամը 10:00 – 22:00Աշխատավարձ (մաքուր)՝ 170.000 դրամ + դրամական պարգևատրումներՈւղարկեք Ձեր CV-ին info@tanger.am էլ. հասցեին՝ վերնագրում նշելով Ադմինիստրատոր:#ashxatanq #gorcka #աշխատանք #թափուրհաստիք #գործկա #ադմինիստրատոր</t>
+          <t>Շին հրապարակում փորձառու ինժեներ-հսկիչ տարիքային սահմանափակում չկա,անգլերենի գեևազանց իմացությամբ ժ․8-19,00 կիրակի ազատ 300,000-ից սկսածհեռ 093 360 344 կամ 077 360 378</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Remote AWS Infrastructure Developer – Senior</t>
+          <t>փաթեթավորող կանայք</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Join the world’s largest virtual ­­company!Work from anywhere – Flexible hoursScopic Software is seeking a Remote AWS Infrastructure Developer – Senior to join our team of 250+ professionals across 40 countries.At Scopic, we believe great developers can be found in every corner of the globe, and talent shouldn’t be limited by location. Our employees work in nearly every time zone, from whenever they feel most comfortable, and our software benefits from this diversity of perspectives and expertise.Develop Meaningful Applications for Clients Invested in Your SuccessAll Scopic projects involve working with challenging, innovative applications. When you work with us, you will not just be maintaining old code or wasting time on applications that will never see the light of day. The applications Scopic develops are the cornerstone of our clients’ businesses. Clients and users will rely on you to write quality code and keep mission-critical applications running optimally.Grow Your Skills and Your Career, FastWe offer training opportunities to keep your skills sharp and encourage you to stay up-to-date with ever-evolving technologies. As your skills grow, you will have opportunities to move up in the company. If you work hard and deliver quality results, you will do very well here. Pay raises and promotions are completely merit-based, so your success is in your hands.Become a Valuable Part of a Small, Dynamic International TeamUnlike huge tech corporations like Google and Microsoft, Scopic employees don’t get lost in bureaucracy or sidelined doing the same boring tasks day after day. Most projects last six months to one year, so our developers have the opportunity to try their skills on a diverse range of applications. Scopic programmers work independently and are entrusted with considerable responsibility.The project will involve:    Programming and system architecture (how the IRM components relate to each other) – Expertise with Python (or Node.js) is critical    Cloud machine instance creation and management    DevOps or cloud-related infrastructure and tools development and support    Automation of the provisioning and monitoring of a complex cloud-based software applicationRequirements:    3+ years professional working experience    Strong Python programming skills    Experience working with Node.js    Experience working with AWS to automate the creation and maintenance of AWS instances    Experience with cloud computing, specifically AWS    Experience with DevOps tasks and system architecture    Intermediate-level spoken and written English    Bachelor's degree or higher (preferred)    Stable internet connection and home computerWhy Work With Scopic Software?    Flexible working hours, set your own schedule    Freedom to travel and work from anywhere in the world    Ability to work wherever you are most comfortable (home, office, park, café, etc.)    Reliable, consistent workload    Flexible payment options in $US – salaried and hourly positions available    Annual pay increases for good performance    Paid training and other professional growth opportunities    International travel opportunities (not required)    Interesting, challenging projects using the latest technologiesSalary: Depending on skills and experience. Part-time, 20 hours per week.Candidate must overlap with PST (GMT-8) working hours. APPLY NOW: https://scopicsoftware.recruiterbox.com/jobs/fk0jqqp?source=Hire%20AMAbout Scopic SoftwareScopic Software is the world’s largest virtual company. Founded in 2006, we have grown consistently by delivering innovative, cutting-edge software products for our clients and creating an empowering environment for our employees.We build advanced software for clients and users around the globe. With 10+ years in the industry and 1000+ projects under our belt, we’ve developed software for Manufacturing, Media and Entertainment, Fintech, Healthcare, Food and Fitness, and Gaming. Check out our development work on our portfolio: scopicsoftware.com/portfolio/.</t>
+          <t>Հուշանվերների արտադրամասում փաթեթավորող կանայք, փորձ պարտ. չէ, շաբաթ կիրակի հանգիստ, ժ 10:00-18:00, աշխ. 80,000 հեռ. 077 109946</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Marketing Manager</t>
-        </is>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
+          <t>Գլխավոր հաշվապահ</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>JOB DESCRIPTION:  Master ADV LLC is seeking an experienced and highly motivated candidate with marketing background to fill the position of Marketing Manager.JOB RESPONSIBILITIES: - Find partners abroad and maintain communication with them;-Participate in local tenders;- Develop marketing and sales strategy of the Company;- Manage and control social media pages;- Develop new sales methods to increase Company's profitability;- Analyze potential strategic partner relationships for Company marketing;- Organize marketing related activities according to the strategy defined.REQUIRED QUALIFICATIONS:- University degree in Business Management, Marketing, Sales or a related field;- Good knowledge of digital and social media marketing;- Excellent organizational skills;- Creative thinking and teamwork skills;- Confident and dynamic personality.APPLICATION PROCEDURES:  All interested candidates are welcome to send their CV with a photo to: info@mecintegral.am indicating the position title ("Marketing Manager") in the subject line of the email.</t>
+          <t>Կազմակերպության մասին`	Բարեգործական հասարակական կազմակերպություն:Պարտականություններ`	Օրենսդրության պահանջներին համապատասխան հաշվապահական հաշվառման կազմակերպում, առաջնային փաստաթղթերի, փաստաթղթերի հոսքի և արխիվացման լիարժեք արտացոլման կազմակերպում և վերահսկում,հաշվապահական հաշվառման քաղաքականության ձևավորում հաշվապահական հաշվառման օրենսդրության համաձայն,հաշիվներում հիմնական միջոցների և գույքագրման օբյեկտների գույքային և դրամական հոսքերի հաշվառման կազմակերպում,հաշվարկների և վճարային պարտավորությունների կատարման նկատմամբ վերահսկողություն, ֆիքսված և դրամական միջոցների գույքագրում,աշխատավարձի, բյուջեի տուրքերի և հարկերի հաշվարկ և փոխանցում,սոցիալական հիմնադրամների ապահովագրական վճարներ, բանկային հաստատություններին վճարումներ,ընկերության դեբիտորական պարտքերի և վճարների հետ աշխատք,ձեռնարկել միջոցներ գումարի և գույքագրման ապօրինի ծախսի կանխարգելման նպատակով, ֆինանսական և տնտեսական օրենսդրության խախտումների կանխարգելման ուղղությամբ,բոլոր մատակարարների և կապալառուների համար գրանցված ծախսերի վերահսկում,աշխատել բանկ-հաճախորդ համակարգում:Պահանջներ`	Բարձրագույն կրթություն, ցանկալի է տեխնիկական;գլխավոր հաշվապահի փորձ առնվազն 5 տարի:հաշվապահական, հարկային, աշխատանքային օրենսդրության, քաղաքացիական իրավունքի վերաբերյալ Հայաստանի օրենսդրության իմացություն;հաշվապահական հաշվառման և հարկային հաշվառման բոլոր ոլորտների վերաբերյալ գործնական գիտելիքներ,հաշվապահական հաշվառման բոլոր բնագավառներում փաստաթղթերի կառավարման իմացություն;գույքագրման ընթացակարգի և գործընկերների հետ հաշվարկների կարգի մասին գիտելիքները.համակարգչային գիտելիքներ` MS Office և 1C ծրագրի (կամ նմանատիպ ծրագրերի) իմացություն,ռուսերենլեզվի լավ իմացություն:Անձնական հատկանիշներ`	Նպատակասլաց, արագաշարժ և ճկուն մտածելակերպ ունեցող անձնավորություն;պատասխանատվության զգացում:Աշխատանքային փորձ`	5 ից ավելՏարիք`	30-50Սեռ`	ԻգականԱշխատանքի տևողությունը`	Լիարժեք աշխատանքային օրԱշխատանքային ժամեր`	09.00 - 18.00Աշխատավարձ`	450.000 AMDՊահանջվող փաստաթղթեր`	Ռեզյումե լուսանկարով և աշխատանքային պարտականությունների նկարագրությամբ:Հավելյալ տեղեկություններ`	Հնգօրյա աշխատանքային գրաֆիկ,փորձաշրջան` 3 ամիս,աշխատավարձը փորձաշրջանի ընթացքում` 350.000 ՀՀ դրամ,կազմակերպության գրասենյակը գտնվում է Մասիս քաղաքում:</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Խորհրդատու վաճառող-ուհի հեռախոսների աքսեսուարների խանութ սրահում</t>
+          <t>հաշվետար աղջիկ</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Խորհրդատու վաճառող-ուհի հեռախոսների աքսեսուարների խանութ սրահում փորձը պարտադիր չէ ժամերը 10.00-19.00, աշխատավարձը 70.000+%-ներ հեռ.077712579</t>
+          <t>ՀԾ - ծրագրին տիրապետող աղջիկ հաշվետար , 10:30 - 19:00, աշխատավարձը 130.000դրամ</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Office Manager</t>
+          <t>Վաճառքի մենեջեր</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>JOB DESCRIPTION:  Prime Commercial LLC is seeking a motivated candidate to fill the position of Office Manager.JOB RESPONSIBILITIES•	Organizing meetings and managing databases •	Booking transport and accommodation•	Ordering stationery and furniture•	Dealing with correspondence, complaints and queries•	Preparing lettersREQUIRED QUALIFICATIONS •	Knowledge of English and Russian languages•	Knowledge of software packages•	Good interpersonal and time management skills•	Reliability and discretion•	Adaptability•	Organizational skills•	Initiative•	Attention to detailAPPLICATION PROCEDURES:  All interested candidates are welcome to send their CV with a photo to: info@primecommercial.am indicating the position title ("Office Manager") in the subject line of the email.</t>
+          <t>Վաճառքի մենեջեր սեփական մեքենայով, Աշխատավարձ  80.000 ֆիկսված + %-ր միջինը 250.000 հեռ. 077 109946</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>տեխնիկայի վաճառող-խորհրդատու</t>
+          <t>Խանութում աշխատող տղաներ</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Պահանջվում է տեխնիկայի վաճառող-խորհրդատու: Պարտականություններ՝ -Հաճախորդների սպասարկում,-Սարքավորումների նկարագիր և վաճառք:Պահանջներ՝ տղամարդ մինչև 55 տ., առնվազն 1 տարվա աշխատանքային փորձ, MS Office ծրագրի տիրապետում, անգլերենի իմացություն:Տեխնիկական ոլորտի կրթությունը կդիտվի որպես առավելություն:Աշխատանքային ժամեր՝ 10:00-19:00, ազատ օրեր՝ շաբաթ, կիրակի:Աշխատավարձ (մաքուր)` սկսած 145000 դրամից:Ուղարկեք Ձեր CV-ին info@tanger.am էլ. հասցեով՝ վերնագրում նշելով հաստիքի անվանումը:Требуется продавец-консультант техники.Обязанности: обслуживание посетителей, описание продукции и продажа.Требования: мужчина до 55 лет, как минимум один год опыта работы, знание компьютерных программ: MS Office, знание английского языка. Техническое образование будет рассмотрено как преимущество.Часы работы: 10.00 – 19.00, свободны дни: суббота и воскресенье.Зарплата (чистая): от 145 000 драм.Ждем ваших резюме на мейл info@tanger.am с пометкой “Продавец-консультант”.#ashxatanq #gorcka #աշխատանք #թափուրհաստիք #գործկա #վաճառող</t>
+          <t>Խանութում աշխատո7-օրյահանգիստը ամեն ամսվա 10-ը և վերջի կիրակինաշխ. 4000 դրամտարիքը 20-30 տարեկանհեռ. 077109946ղ տղաներ</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Վաճառքի մենեջեր</t>
+          <t>Սուրճի արտադրամասում փաթեթավորող կանայք</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -5434,38 +5444,48 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Աշխատանքի նկարագրությունը` Ռադիոկայանին անհրաժեշտ է վաճառքի մասնագետ:Պարտականությունները`-      Ներկայացնել և վաճառել ռադիոկայանի ծառայությունները փաստացի և պոտենցիալ հաճախորդներին-      Պատրաստել առաջարկներ -      Նպաստել հաճախորդների հետ հարաբերությունների ամրապնդմանը, պահպանմանն ու զարգացմանըՊահանջվող հմտությունները`-      Բարձրագույն կրթություն-      Համոզելու և ազդեցություն գործելու ունակություն-      Հաղորդակցվելու գերազանց ունակությունԴիմելու կարգը` ուղարկեք Ձեր ինքնակենսագրականը info@primecommercial.am հասցեով, նշելով թափուր աշխատատեղի անվանումը:</t>
+          <t>Սուրճի արտադրամասում փաթեթավորող կանայք մինչև 45տ. ժ.09:00-19:00 կիրակի հանգիստ աշխ.80.000-ից սկսած հեռ.077109946</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Տնօրենի օգնական խոշոր ընկերությունում</t>
+          <t>Սպասք ներմուծող ընկերության պահեստի աշխատակից տղաներ</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Պարտականություններ՝-Հեռախոսազանգերի պատասխանում-Նամակագրություն-Թարգմանություն-ՓաստաթղթաշրջանառությունՊահանջներ՝ կին, 20-35 տ., բարձրագույն կրթություն, հայերենի, ռուսերենի և անգլերենի իմացություն, համակարգչային ընդհանուր գիտելիքների առկայություն, համապատասխան աշխատանքային փորձ: Անհրաժեշտ է լինել ճկուն, արագ կողմնորոշվող և պարտաճանաչ:Աշխատանքային ժամեր՝ 09:00-18:00Աշխատավարձը (մաքուր)՝ 130000 դրամՀեռ. 27-53-10, 077-29-18-92, 091-29-18-92e-mail: info@tanger.amwww.tanger.am</t>
+          <t>Սպասք ներմուծող ընկերության պահեստի աշխատակից տղաներ ժամերը 09.30-18.30 կիրակի հանգիստ , աշխատավարձը՝ 140.000 նախնական:հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>կադրային տեսուչ-հաշվապահի օգնական</t>
+          <t>Բարձրակարգ հյուրանոցում ադմինիստրատոր տղա</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>ԱՇԽԱՏԱՆՔ Ք. ՉԱՐԵՆՑԱՎԱՆՈՒՄՊահանջվում է կադրային տեսուչ-հաշվապահի օգնական։Պարտականություններ՝-Կադրային գործի վարում-Աշխատավարձի հաշվարկ ՀԾ-7 ծրագրովՊահանջներ՝ կին 22-40տ., բարձրագույն կրթություն, Word, XLS, ՀԾ ծրագրերի իմացություն։ Առնվազն մեկ տարվա համապատասխան աշխատանքային փորձի առկայություն։ Ցանկալի է, որ դիմեն Չարենցավանում, Աբովյանում կամ հարակից տարածքում բնակվող անձիք։Աշխատավարձը (մաքուր)` 100 575 դրամ։Հեռ. 27-53-10, 077-29-18-92, 091-29-18-92e-mail: info@tanger.amРабота в Чаренцаване.Кадровик – помощник бухгалтера.Требования: ведения кадрового делопроизводства, подсчет зарплат по программе ՀԾ:Требования: женщина 22-40 лет, высшее образование, знание программ: MS Office, XLS, ՀԾ. Наличие как минимум одного года опыта работы. Желательно, чтобы место проживание было бы в Чаренцаване, Абовяне или близлежащих местностях.Зарплата (чистая): 100 575 драм.Тел.: 27-53-10, 077-29-18-92, 091-29-18-92.e-mail: info@tanger.am#աշխատանք #գործկա #թափուրհաստիք #հաշվապահ #կադրայինտեսուչ #ashxatanq</t>
+          <t>Բարձրակարգ հյուրանոցում ադմինիստրատոր տղա փորձը պարտադիր չէ ռուսերենի իմացությամբ, մեկ օր շուրջօրյա երկու օր հանգիստ 10.000 հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Փաթեթավորող կանայք համեմունքների արտադրամասում</t>
+          <t>Ապառիկ ձևակերպող</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -5475,14 +5495,14 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Փաթեթավորող կանայք համեմունքների արտադրամասում ժամերը 09.00-18.00, աշխատավարձը 70.000-80.000հեռ.077 71 25 79</t>
+          <t>Կահույքի բարձրակարգ սրահում ապառիկ ձևակերպող աղջիկ փորձը պարտադիր չէ 1C-ի իմացությամբ,  ժամերը 10.00-20.00 մեկ օր հանգիստ, աշխատավարձը՝ 120.000+%: Հեռախոսահամար՝  077712579</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Խորհրդատու աղջիկ բրենդային կոսմետիկայի խանութ սրահում</t>
+          <t>Բարձրակարգ արագ սննդի սրահում գանձապահ</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -5492,14 +5512,14 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Խորհրդատու աղջիկ բրենդային կոսմետիկայի խանութ սրահում ժամերը 11.00-20.00, երեք օր աշխատանքի մեկ օր հանգիստ փորձը պարտադիր չէ, աշխատավարձը փորձաշրջանի ընթացքում 90.000, որից հետո՝ 175.000հեռ.077 71 25 79</t>
+          <t>Բարձրակարգ արագ սննդի սրահում գանձապահ աղջիկ տղա փորձը պարտադիր չէ մինչև 35 տարեկան, ժամերը  08.00-22.00 օր ու մեջ, աշխատավարձը՝ 6000հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Մուտքագրող օպերատոր աղջիկ ներմուծող կազմակերպությունում</t>
+          <t>ԽՈՀԱՐԱՐԻ ՕԳՆԱԿԱՆ սննդի սրահում</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -5509,14 +5529,14 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Մուտքագրող օպերատոր աղջիկ ներմուծող կազմակերպությունում մինչև 40 տարեկան,  ժամերը 10.00-18.00, excel-ի իմացությամբ. աշխատավարձը 100.000-150.000 հեռ.077 71 25 79</t>
+          <t>ԽՈՀԱՐԱՐԻ ՕԳՆԱԿԱՆ սննդի սրահում փորձով ժամերը 08.00-21.00 օր ու մեջ, աշխ.ատավարձը՝ 5000 հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Ռուսերենի դաստիարակ կես գրաֆիկով</t>
+          <t>Պայուսակների մասնագիտացված խանութ սրահում վաճառողուհ</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -5526,31 +5546,31 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Ռուսերենի դաստիարակ մասնավոր մանկապարտեզում փորձով,  ժամերը 10.00-12.30, աշխատավարձը  60.000 հեռ. 077 71 25 79</t>
+          <t>Պայուսակների մասնագիտացված խանութ սրահում վաճառողուհի մինչև 35 տարեկան, փորձը ցանկալի է ժամերը 10.00-19.00, աշխատավարձը՝ 100.000: հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Ավտոպապահեստամասերի սրահում ադմինիստրատիվ օգնական</t>
+          <t>Պայուսակների մասնագիտացված ընկերությունում մենեջեր</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>(Anywhere)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Ավտոպապահեստամասերի սրահում ադմինիստրատիվ օգնական աղջիկ համակարգչի իմացությամբ,  ժամերը 10.00-19.00, աշխատավարձը 100.000 հեռ.077 71 25 79</t>
+          <t>Պայուսակների մասնագիտացված ընկերությունում մենեջեր աղջիկ փորձը ցանկալի է բարձրագույն կրթությամբ, ժամերը 10.00-19.00 150.000-ից սկսած: Հեռախոսահամար՝ 077712579</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Գանձապահ խաղալիքների խանութում</t>
+          <t>Գրենական իրերի խանութ սրահում մենեջեր աղջիկ</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -5560,14 +5580,14 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Գանձապահ խաղալիքների խանութում ժամերը 11.00-21.00 օր ու մեջ կամ ամեն օր, աշխատավարձը 3000+տոկոսներ,  աշխատանքի վայրը Կենտրոն հեռ.077712579</t>
+          <t>Գրենական իրերի խանութ սրահում մենեջեր աղջիկ փորձով գրաֆիկն հարմարեցվում է, աշխատավարձը՝150.000-ից սկսած:Հեռախոսահամար՝ 077712579</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Գանձապահ աղջիկ արագ սննդի կետում</t>
+          <t>Ներմուծող ընկերությունում հաշվետար աղջիկ</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -5577,14 +5597,14 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Գանձապահ աղջիկ արագ սննդի կետում ժամերը 10.00-24.00 ամեն օր կամ օր ու մեջ կես կամ լրիվ գրաֆիկով, աշխատավարձը  5000 միջինումհեռ.077712579</t>
+          <t>Ներմուծող ընկերությունում հաշվետար աղջիկ ՀԾ-ի իմացությամբ, ժամերը 10.30-19.00 շաբաթ կիրակի հանգիստ, աշխատավարձը՝ 130.000+բոնուսներ,  Կենտրոն:հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Պարուսույց մասնավոր մանկապարտեզում</t>
+          <t>Հյուրանոցում դաշնակահար տղա աղջի</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -5594,14 +5614,14 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Պարուսույց մասնավոր մանկապարտեզում լրիվ կամ կես գրաֆիկով շաբաթական 3-4 օր, աշխատավարձը 30.000-70.000 հեռ.077 71 25 79</t>
+          <t>Հյուրանոցում դաշնակահար տղա աղջիկ փորձով շաբաթական 4օր (ցանկալի է հյուրանոցային-ռեստորանային փորձով), ժամերը 14.00-18.00, աշխատավարձը՝ 10.000:Հեռախոսահամար՝ 077712579</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Բուժքույր մասնավոր մանկապարտեզում</t>
+          <t>Պահանջվում է տնայնագործ-դայակ</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -5611,14 +5631,14 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Բուժքույր մասնավոր մանկապարտեզում փորձով կամ կրթությամբ, ժամերը 08.30-15.00, աշխատավարձը 50.000-60.000հեռ.077 71 25 79</t>
+          <t>Պահանջվում է տնայնագործ-դայակ 9 ամսական երեխայի համար փորձով մինչև 50 տարեկան, ժամերը 09.00-21.00 օր ու մեջ,  աշխատավարձը՝ 8000Կենտրոն Հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Հյուրանոցում ընդունարանի աշխատակցուհի</t>
+          <t>Տպարանում մենեջերի օգնական</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -5628,14 +5648,14 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Հյուրանոցում ընդունարանի աշխատակցուհի անգլերենի ռուսերենի իմացությամբ, ժամերը 09.00-19.00, աշխատավարձը  օրական 3000+տոկոսներ հեռ.077712579</t>
+          <t>Տպարանում մենեջերի օգնական փորձը պարտադիր չէ ժամերը 09.30-18.00 աշխատավարձը՝ 80.000-ից սկսած:հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Մենեջեր գեղեցկության սրահում</t>
+          <t>Սուրճի արտադրամասում փաթեթավորող կանայք</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -5645,14 +5665,14 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Մենեջեր գեղեցկության սրահում մինչև 40 տարեկան, ժամերը 10.00-20.00, աշխատավարձը 4000+%-ներ, աշխատանքի վայրը  Կենտրոն հեռ.077 71 25 79</t>
+          <t>Սուրճի արտադրամասում փաթեթավորող կանայք փորձը պարտադիր չէ մինչև 45 տարեկան,  ժամերը 09.00-18.00, աշխատավարձը՝ 80.000-ից սկսած: հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Ցուցասրահի սպասարկող աղջիկ փորձը պարտադիր չէ</t>
+          <t>Սուրճի արտադրամասում վարորդ առաքիչ</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -5662,14 +5682,14 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Ցուցասրահի սպասարկող աղջիկ փորձը պարտադիր չէ մինչև 35 տարեկան,  ռուսերենի իմացությամբ, ժամերը 10.00-19.00, աշխատավարձը 100.000 հեռ.077 71 25 79</t>
+          <t>Սուրճի արտադրամասում վարորդ առաքիչ սեփական մեքենայով Երևանում և մարզերում,  աշխատավարձը՝ 150.000-200.000+վառելիք:</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Ադմինիստրատիվ օգնական աղջիկ սննդամթերքի ընկերության գրասենյակու</t>
+          <t>Էքստերիերի սրահում վաճառող-ուհիներ</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -5679,14 +5699,14 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Ադմինիստրատիվ օգնական աղջիկ սննդամթերքի ընկերության գրասենյակում մինչև 35 տարեկանժամերը 09.00-18.00 ռուսերենի word excel ծրագրերի իմացությամբ, աշխատավարձը 150.000Հեռ.077 71 25 79</t>
+          <t>Էքստերիերի սրահում վաճառող-ուհիներ փորձը պարտադիր չէ ժամերը 09.00-19.00, աշխատավարձը՝ 130.000:հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Վաճառող-ուհիներ մոլի աքսեսուարների խանութ սրահում</t>
+          <t>Կոսմետիկայի ֆիրմային սրահում խորհրդատու-վաճառողուհի</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -5696,14 +5716,14 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Վաճառող-ուհիներ մոլի աքսեսուարների խանութ սրահում փորձը պարտադիր չէ ժամերը 10.00-17.00 և 17.00-22.00, աշխատավարձը 80.000+%-ներ հեռ.077 71 25 79</t>
+          <t>Կոսմետիկայի ֆիրմային սրահում խորհրդատու-վաճառողուհի մինչև 35 տարեկան, փորձը ցանկալի է,  ժամերը 11.00-20.30 երկու և կես օր աշխ.-ի մեկ և կես օր հանգիստ, աշխատավարձը՝  1-ին ամիսը՝ 90.000, հետո՝ 175.000:հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Հոսքագծի օպերատոր տղաներ կախովի առաստաղների արտադրամասում</t>
+          <t>Մաքրուհի կահույքի բարձրակարգ սրահում</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -5713,14 +5733,14 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Հոսքագծի օպերատոր տղաներ կախովի առաստաղների արտադրամասում սովորեցնում են ժամերը 09.00-18.00 , աշխատավարձը 200.000 միջինումհեռ.077 71 25 79</t>
+          <t>Մաքրուհի կահույքի բարձրակարգ սրահում տարիքային սահմանափակում չկա ժամերը 10.00-19.00 մեկ օր հանգիստ,  աշխատավարձը՝100.000:հեռախոսահամար՝ 077712579</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Մաքրուհի սրճարանում</t>
+          <t>Կահույքի բարձրակարգ սրահում գանձապահ</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -5730,14 +5750,14 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Մաքրուհի սրճարանում ժամերը 16.00-22.00, աշխատավարձը 60.000+սնունդ կիրակի հանգիստ, Կենտրոն հեռ.077 71 25 79</t>
+          <t>Կահույքի բարձրակարգ սրահում գանձապահ աղջիկ 1C-ի իմացոթյամբ, ժամերը 10.00-20.00 մեկ օր հանգիստ,  աշխատավարձը՝ 150.000:հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Փաթեթավորող կանայք տնտեսական  ապրանքների ընկերությունում</t>
+          <t>Կահույքի բարձրակարգ սրահում ապառիկ ձևակերպող</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -5747,14 +5767,14 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Տնտեսական ապրանքների ընկերությունում փաթեթավորող կանայք մինչև 35 տարեկան, ժամերը 09.00-18.00, աշխատավարձը  70.000 փորձը պարտադիր չէհեռ.077 71 25 79</t>
+          <t>Կահույքի բարձրակարգ սրահում ապառիկ ձևակերպող աղջիկ փորձը պարտադիր չէ 1C-ի իմացությամբ,  ժամերը 10.00-20.00 մեկ օր հանգիստ, աշխատավարձը՝  120.000+%: Հեռախոսահամար՝ 077712579</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Առաքիչի օգնականներ շին. ընկերոթյունում</t>
+          <t>Կահույքի բարձրակարգ սրահում վաճառող-ուհիներ</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -5764,14 +5784,14 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Առաքիչի օգնականներ շին. ընկերոթյունում, ժամերը 09.00-18.00, աշխատավարձը 140.000հեռ.077 71 25 79</t>
+          <t>Կահույքի բարձրակարգ սրահում վաճառող-ուհիներ փորձը պարտադիր չէ ժամերը 10.00-20.00 աշխատավարձը՝ 130.000+տոկոս:հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Սննդամթերքի ընկերության գրասենյակում հաշվետար օպերատոր</t>
+          <t>Համակարգչային օպերատոր</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -5781,14 +5801,14 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Սննդամթերքի ընկերության գրասենյակում հաշվետար օպերատոր աղջիկ փորձը պարտադիր չէ 1C 8.3-ի իմացությամբ, աշխատավարձը 150.000ժամերը 09.00-20.00հեռ.077712579</t>
+          <t>Նախագծային ընկերությունում համակարգչային օպերատոր աղջիկ word excel-ի իմացությամբ, ժամերը 09.00-18.00 5-օրյա, աշխատավարձը՝  100.000-ից սկսած Կենտրոն:077712579</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Հյուրընկալ աղջիկ մանկական սրճարանում</t>
+          <t>Գրենական իրերի խանութ սրահում վաճառողուհի</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -5798,14 +5818,14 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Հյուրընկալ աղջիկ մանկական սրճարանում ժամերը 11.00-22.30, աշխատավարձը 4000-5000 փորձը պարտադիր չէ ամեն օր կամ օր ու մեջհեռ.077 71 25 79</t>
+          <t>Գրենական իրերի խանութ սրահում վաճառողուհի փորձը ցանկալի էժամերը 09.00-21.00, աշխատավարձը՝ 350.00-4000, Նորք Մարաշ:հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Հաշվետար օպերատոր հաշվապահական ընկերությունում</t>
+          <t>Կարի արտադրմասում կարողներ</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -5815,14 +5835,14 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Հաշվետար օպերատոր հաշվապահական ընկերությունում ՀԾ- ի իմացությամբ, ժամերը 09.00-18.00, աշխատավարձը 110.000-120.000հեռ.077 71 25 79</t>
+          <t>Կարի արտադրմասում կարողներ փորձը պարտադիր չէ ժամերը 09.00-18.00,  աշխատավարձը՝ 4000 (միջինը), Էրեբունի:հեռախոսահամար՝ 077712579</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Բուժքույր ատամնաբուժարանում</t>
+          <t>Բարձրակարգ հյուրանոցում ադմինիստրատոր տղա</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -5832,48 +5852,43 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Բուժքույր ատամնաբուժարանում փորձը պարտադիր չէ ժամերը 09.00-19.00, աշխատավարձը 80.000-90.000 հեռ.077 71 25 79</t>
+          <t>Բարձրակարգ հյուրանոցում ադմինիստրատոր տղա փորձը պարտադիր չէ ռուսերենի իմացությամբ,  մեկ օր շուրջօրյա երկու օր հանգիստ, աշխատավարձը՝ 10.000: Հեռախոսահամար 077712579</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Ծերերին զբաղեցնող</t>
-        </is>
-      </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
+          <t>Remote Intermediate Android Developer</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Ծերերին զբաղեցնող կանայք խնամքի կենտրոնում ժամերը 10.00-17.00, աշխատավարձը  70.000 նախնական հեռ.077 71 25 79</t>
+          <t>Start a career with the world’s largest virtual company!Work from anywhere – Flexible hours – Training &amp; travel opportunitiesScopic Software is seeking a skilled Remote Intermediate Android Developer to join our team of 250+ professionals across 40 countries.At Scopic, we believe great developers can be found in every corner of the globe, and talent shouldn’t be limited by location. Our employees work in nearly every time zone, from whenever they feel most comfortable, and our software benefits from this diversity of perspectives and expertise.We are looking for a talented developer, who doesn’t shy away from complex problems. The right candidate will work with a small team of advanced software engineers to build industry-leading applications with the latest technologies. As a developer, you will be responsible for building complex software applications. These are some of the technologies and skills you can find us using: C++, Java, OpenGL, Vue.js, Magento, C#, Python, OpenCV, Bootstrap, Ionic, Swift, ASP.NET, CUDA, Yii , ReactNative, HTML5, Node.js, Angular, Symfony, Xamarin, PHP, React, Django, Qt, MySQL, Blockchain, PostgreSQL, MongoDB, 3D, AR/VR. Develop Meaningful Applications for Clients Invested in Your SuccessAll Scopic projects are challenging, innovative applications. When you work with us, you will not just be maintaining old code or wasting time on applications that will never see the light of day. The applications Scopic develops are the cornerstone of our clients’ businesses. Clients and users will rely on you to write quality code and keep mission-critical applications running optimally.Grow Your Skills and Your Career, FastWe offer training opportunities to keep your skills sharp and encourage you to stay up-to-date with ever-evolving technologies. As your skills grow, you will have opportunities to move up in the company. If you work hard and deliver quality results, you will do very well here. Pay raises and promotions are completely merit-based, so your success is in your hands.Become a Valuable Part of a Small, Dynamic International TeamUnlike huge tech corporations like Google and Microsoft, Scopic employees don’t get lost in bureaucracy or sidelined doing the same boring tasks day after day. Most projects last six months to one year, so our developers have the opportunity to try their skills on a diverse range of applications. Scopic programmers work independently and are entrusted with considerable responsibility.Why Work With Scopic Software?•	Flexible working hours, set your own schedule•	Freedom to travel and work from anywhere in the world•	Ability to work wherever you are most comfortable (home, office, park, café, etc.)•	Reliable, consistent workload•	Flexible payment options in $US – salaried and hourly positions available•	Annual pay increases for good performance•	Paid training and other professional growth opportunities•	International travel opportunities (not required)•	Interesting, challenging projects using the latest technologiesRequirements:•	3+ years of software development experience.•	Strong Android SDK programming skills; •	Strong Java skills; •	Strong OOP skills;•	Hybrid frameworks experience; •	Javascript experience;•	Experience with cross-platform mobile development, is a plus;•	Experience with iOS development using Swift and Objective C, is a plus;Other Requirements:•	Strong English reading, writing, and speaking skills.•	Bachelor's degree or higher.•	Stable internet connection and home computer.•	Dedication and discipline to work remotely from home.Salary: $10-$20 per hour depending on skills and experience. Part-time positions available, full-time can be considered for the right candidate. Please apply online: https://scopicsoftware.recruiterbox.com/jobs/fk01bzj?cjb_hash=O_Diyu68&amp;apply_now=trueAbout Scopic SoftwareScopic Software is the world’s largest virtual company. Founded in 2006, we have grown consistently by delivering innovative, cutting-edge software products for our clients and creating an empowering environment for our employees.We build advanced software for clients and users around the globe. With 10+ years in the industry and 1000+ projects under our belt, we’ve developed software for Manufacturing, Media and Entertainment, Fintech, Healthcare, Food and Fitness, and Gaming. Check out our development work on our portfolio: scopicsoftware.com/portfolio/.Learn more about career opportunities at Scopic: scopicsoftware.com/careers.</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Մենեջեր մատնահարդարման սրահում</t>
+          <t>Հաշվետար տղա</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>Maralik</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Բարձրակարգ մատնահարդարման սրահում մենեջեր աղջիկ 25-40 տարեկան, սպասարկման ոլորտում փորձով,  ժամերը 10.00-20.00, աշխատավարձը  օրական 4000+%-ներհեռ. 077712579</t>
+          <t>Եվրոպատուհաների ընկերության գրասենյակում հաշվետար տղա 1C e-invoicing ծրագրերի իմացությամբ,  ժամերը 09.00-19.00,  աշխատավարձը՝ 170.000 նախնական:  հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Ադմինիստրատոր աղջիկ անշարժ գույքի գրասենայկում</t>
+          <t>Չինական ռեստորանում խոհարարի օգնական</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -5883,14 +5898,14 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Ադմինիստրատոր աղջիկ անշարժ գույքի գրասենայկում փորձը պարտադիր չէ ժամերը 11.00-19.00, աշխատավարձը նախնական 100.000+%-ներ Կենտրոն հեռ.077 71 25 79</t>
+          <t>Չինական ռեստորանում խոհարարի օգնական տղա աղջիկ փորձը պարտադիր չէ,  ժամերը 10.00-23.00 օր ու մեջ,  աշխատավարձը՝ 4000-ից սկսած:հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Մենեջերի օգնական տղա</t>
+          <t>Մանկական զարգացման կենտրոնում դայակ</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -5900,65 +5915,65 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Մենեջերի օգնական տղա բարձրակարգ հյուրանոցում մինչև 35 տարեկան,  մեկ օր շուրջօրյա մեկ օր հանգիստ, աշխատավարձը օրական  10.000 փորձը պարտադիր չէհեռ.077712579</t>
+          <t>Մանկական զարգացման կենտրոնում դայակ փորձը պարտադիր չէ մինչև 50 տարեկան,  ժամերը 08.30-19.00 5-օրյա,  աշխատավարձը՝ 70.000 նախնական:հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Ատամնաբուժարանում բուժքույր փորձը պարտադիր չէ</t>
+          <t>Թարգմանչական գրասենյակում ադմինիստրատիվ օգնական</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Ատամնաբուժարանում բուժքույր փորձը պարտադիր չէ ժ․10-19,00 օր ու մեջ հերթափոխային տարբերակով 80,000-90,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Թարգմանչական գրասենյակում ադմինիստրատիվ օգնական աղջիկ լեզուների իմացությամբ, ժամերը 10.00-18.00 շաբաթ 10.00-16.00, աշխատավարձը՝ 70.000: հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Արտադրամասում պահանջվում է կամազի փորձառու վարորդ տարիքային սահմանափակում չկա</t>
+          <t>Ֆրանսիական կոսմետիկայի ընկերությունում վաճառքի մենեջեր</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Արտադրամասում պահանջվում է կամազի փորձառու վարորդ տարիքային սահմանափակում չկա ժ․9-19,00 կիրակի ազատ 150,000աշխատավայրը՝Էջմիածին հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Ֆրանսիական կոսմետիկայի ընկերությունում վաճառքի մենեջեր կանայք մինչև 40 տարեկան,  ժամերը 10.00-18.00,  աշխատավարձը՝ 70.000+տոկոս: հեռախոսահամար 077 71 25 79</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Անշարժ գույքի գրասենյակաում պահանջվում է ադմինիստրատիվ օգնական աղջիկ</t>
+          <t>Հյուրանոցում ադմինիստրատոր տղա մեկ օր շուրջօրյա երեք օր հանգիստ</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>(Anywhere)</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Անշարժ գույքի գրասենյակաում պահանջվում է ադմինիստրատիվ օգնական աղջիկ համակարգչային գիտելիքներվ ժ․11-19,00 կիրակի ազատ նախնական 100,000+%հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Հյուրանոցում ադմինիստրատոր տղա մեկ օր շուրջօրյա երեք օր հանգիստ,աշխատավարձը՝ 7000 օրական:հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Բարձրակարգ հյուրանոցում պահանջվում է մենեջերի օգնական տղա փորձը պարտադիր չէ,լ</t>
+          <t>Մարզասրահում ադմինիստրատոր աղջիկ</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -5968,14 +5983,14 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Բարձրակարգ հյուրանոցում պահանջվում է մենեջերի օգնական տղա փորձը պարտադիր չէ,լեզուների շփման մակարդակ,աշխատանքը 1օր շուրջօրյա 1օր հանգիստ օրական 10,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Մարզասրահում ադմինիստրատոր աղջիկ համակարգչի իմացությամբ, ժամերը 09.00-22.00 օր ու մեջ,  աշխատավարձը՝4000 փորձը պարտադիր չէ:հեռ.077712579</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Կազմակերպությանը անհրաժեշտ է հաշվետար աղջիկ փորձը պարտադիր չէ 1C-ի իմացությամբ</t>
+          <t>ԳՐԱՍԵՆՅԱԿԱՅԻՆ ԱՇԽԱՏԱԿԻՑ</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -5985,14 +6000,14 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Կազմակերպությանը անհրաժեշտ է հաշվետար աղջիկ փորձը պարտադիր չէ 1C-ի իմացությամբ ժ․9-20,00 կիրակի ազատ 150,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Անշարժ գույքի գրասենյակում ԳՐԱՍԵՆՅԱԿԱՅԻՆ ԱՇԽԱՏԱԿԻՑ Autocad-ի իմաց. ժ.09.00-18.00 Աշխ.90.000-ից սկսածՀեռ. 077 10 99 46</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Խմիչքների արտադրամասի գրասենյակում պահանջվում մուտքագրող օպերատոր աղջիկ-տղա</t>
+          <t>ՄԵՆԵՋԵՐ ԱՂՋԻԿ</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -6002,14 +6017,14 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Խմիչքների արտադրամասի գրասենյակում պահանջվում մուտքագրող օպերատոր աղջիկ-տղա ՀԾ-ի իմացությամբ ժ․9-18,00 կիրակի ազատ 90,000-ից սկսածհեռ 093 360 344 կամ 077 360 378</t>
+          <t>Բարձրակարգ սրճարանում ՄԵՆԵՋԵՐ ԱՂՋԻԿ փորձը պարտադիր չէ ժ.17.00-24.00 շաբաթական 4օրԱշխ.6000-ից սկսածՀեռ. 077 10 99 46</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Գովազդային գործակալությանը անհրաժեշտ է թիմ լիդեր աղջիկ աշխատանքային փորձը կազմակերպչական ոլորտում պա</t>
+          <t>ՕՊԵՐԱՏՈՐ ԱՂՋԻԿ</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -6019,14 +6034,14 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Գովազդային գործակալությանը անհրաժեշտ է թիմ լիդեր աղջիկ աշխատանքային փորձը կազմակերպչական ոլորտում պարտադիր է ժ․10-20,00 կիրակի ազատ 150,000-200,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Անշարժ գույքի գրասենյակում ՕՊԵՐԱՏՈՐ ԱՂՋԻԿ Ms Ofice- ի իմաց. փորձը պարտադիր չէ ժ.09.30-16.00 կամ 15.00-21.30 Աշխ. 65.000Հեռ. 077 10 99 46</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Կազմակերպությանը անհրաժեշտ է հեռախոսավարուհի-օպերատոր պատվեր գրանցելու համար</t>
+          <t>ՄԱՔՐՈՒՀԻ</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -6036,14 +6051,14 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Կազմակերպությանը անհրաժեշտ է հեռախոսավարուհի-օպերատոր պատվեր գրանցելու համար ժ․10-18,00 կիրակի ազատ 80,000+%հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Ոստիկանության ճաշարանում ՄԱՔՐՈՒՀԻ մինչև 50տ.Ժ.09.00-18.00 շաբաթ կիրակի հանգիստ(կատարվում է անվճար տեղափոխում)Աշխ. 4000Հեռ. 077 10 99 46</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Ռեստորանում պահանջվում է մաքրուհի միայն առաջին գրաֆիկով</t>
+          <t>ԱՆՎՏԱՆԳՈՒԹՅԱՆ ԱՇԽԱՏԱԿՑՈՒՀԻՆԵՐ</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -6053,14 +6068,14 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Ռեստորանում պահանջվում է մաքրուհի միայն առաջին գրաֆիկով ժ․8,30-17,30 1օր ազատ 80,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Արզնի քաղաքի պահնորդական ընկերությանը անհրաժեշտ են ԱՆՎՏԱՆԳՈՒԹՅԱՆ ԱՇԽԱՏԱԿՑՈՒՀԻՆԵՐ մինչև 50տ.փորձը պարտադիր չէԺ.14.00-23.00(ցանկության դեպքում`առողջարանում կտրամադրվի անվճր համար)Աշխ.80.000Հեռ.077 10 99 46</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Արտադրամասի տարածքում պահանջվում է պահակ մինչև 60տ</t>
+          <t>ԱՆՎՏԱՆԳՈՒԹՅԱՆ ԱՇԽԱՏԱԿԻՑՆԵՐ</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -6070,14 +6085,14 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Արտադրամասի տարածքում պահանջվում է պահակ մինչև 60տ աշխատանքը 1օր շուրջօրյա 2օր ազատ 70,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Շինարարական ընկերության գրասենյակում ԱՆՎՏԱՆԳՈՒԹՅԱՆ ԱՇԽԱՏԱԿԻՑՆԵՐ 1օր շուրջօրյա 2օր հանգիստ գրաֆիկովԱշխ. 90.000Հեռ. 077 10 99 46</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Ատամնաբուժարանում բուժքույր փորձը պարտադիր չէ</t>
+          <t>ՕՊԵՐԱՏՈՐ ԱՂՋԻԿ ՏՂԱ</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -6087,14 +6102,14 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Ատամնաբուժարանում բուժքույր փորձը պարտադիր չէ ժ․9-19,00 ամեն օր կամ օր ու մեջ գրաֆիկոբ 80,000-90,000հեռ 093 360 344 կամ 077 360 378․9-19,00 ամեն օր կամ օր ու մեջ գրաֆիկոբ 80,000-90,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Շինարարական ընկերության գրասենյակում ՕՊԵՐԱՏՈՐ ԱՂՋԻԿ ՏՂԱ փորձով և 1C 8.3-Ի իմաց. ժ.09.00-18.00 կիրակի հանգ. Աշխ.150.000 Հեռ. 077 10 99 46</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Տնտեսական ապրանքների խանութ սրահում սեփական մեքենայով վաճառքի մենեջեր տղա</t>
+          <t>ՎԱՃԱՌՈՂՈՒՀԻ</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -6104,14 +6119,14 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Տնտեսական ապրանքների խանութ սրահում սեփական մեքենայով վաճառքի մենեջեր տղա ժ․9-19,00 կիրակի ազատ աշխատավարձը՝գործարքային 250,000-300,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Օծանելիքի բարձրակարգ խանութ-սրահում ՎԱՃԱՌՈՂՈՒՀԻ փորձը պարտադիր չէ մինչև 35տ.ժ.10.00-20.30 1օր հանգիստԱշխ.150.000Հեռ. 077 10 99 46</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Խնամքի կենտրոնում ծերերին զբաղեցնող(գիրք կարդալ,զբոսանքի տանել, և այլն)</t>
+          <t>ԱՌԱՔԻՉԻ ՕԳՆԱԿԱՆ</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -6121,14 +6136,14 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Խնամքի կենտրոնում ծերերին զբաղեցնող(գիրք կարդալ,զբոսանքի տանել, և այլն) ժ․10-17,00 կիրակի ազատ 70,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Քաղցրավենիքի արտադրամասում ԱՌԱՔԻՉԻ ՕԳՆԱԿԱՆ մինչև 27տ.ժ.09.00-18.00 Աշխ. 90.000Հեռ. 077 10 99 46</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Հացի արտադրամասում պահանջվում է հացթուխ տղամարդ աշխատանքային փորձը պարտադիր</t>
+          <t>ՓԱԹԵԹԱՎՈՐՈՂ ՏՂԱՆԵՐ</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -6138,14 +6153,14 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Հացի արտադրամասում պահանջվում է հացթուխ տղամարդ աշխատանքային փորձը պարտադիր է 12ժամյա ցերեկային և գիշերային գրաֆիկով աշխատավարձը՝բարձր,կախված փորձից հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Հացի բարձրակարգ արտադրամասում ՓԱԹԵԹԱՎՈՐՈՂ ՏՂԱՆԵՐ գիշերային հերթափոխովԱշխ.4500ՀԵռ. 077 10 99 46</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Հյուրանոցային պարագաների արտադրամասում փաթեթավորող կանայք մինչև 35տ</t>
+          <t>ԵՎՐՈԴՌՆԵՐ ՏԵՂԱԴՐՈՂ</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -6155,14 +6170,14 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Հյուրանոցային պարագաների արտադրամասում փաթեթավորող կանայք մինչև 35տ ժ․9-18,00 կիրակի ազատ 70,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Եվրոպատուհանների արտադրամասում ԵՎՐՈԴՌՆԵՐ ՏԵՂԱԴՐՈՂ մինչև 65տ.ժ.10.00-19.00Աշխ.100.000-ից սկսածՀեռ.077 10 99 46</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Արևածաղկի արտադրամասում պահանջվում է բանվոր-փաթեթավարող տղա</t>
+          <t>ԵՎՐՈԴՌՆԵՐ ՏԵՂԱԴՐՈՂ</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -6172,14 +6187,14 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Արևածաղկի արտադրամասում պահանջվում է բանվոր-փաթեթավարող տղա մինչև 45տ ժ․9-19,00 կիրակի ազատ օրական 4000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Եվրոպատուհանների արտադրամասում ԵՎՐՈԴՌՆԵՐ ՏԵՂԱԴՐՈՂ մինչև 65տ.ժ.10.00-19.00Աշխ.100.000-ից սկսածՀեռ.077 10 99 46</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Օպտիկայի խանութ սրահում վաճառողուհի փորձը պարտադիր չէ</t>
+          <t>ԱՌԱՔԻՉԻ ՕԳՆԱԿԱՆ</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -6189,14 +6204,14 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Օպտիկայի խանութ սրահում վաճառողուհի փորձը պարտադիր չէ ժ․11-20,00 1օր ազատ 80,000 նախ հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Շինանյութ արտադրող ընկերությունում ԱՌԱՔԻՉԻ ՕԳՆԱԿԱՆ փորձը պարտադիր չէ ժ.09.00-18.00Աշխ.140.000 Հեռ. 077 10 99 46</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Կերամիկայի արտադրամասում պահանջվում է հոսքագծի օպերատոր տղա փորձը պարտադիր չէ</t>
+          <t>ՀԱՇՎԵՏԱՐ ԱՂՋԻԿ</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -6206,14 +6221,14 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Կերամիկայի արտադրամասում պահանջվում է հոսքագծի օպերատոր տղա փորձը պարտադիր չէ 8ժամյա գրաֆիկ օրական 4000նախհեռ 093 360 344 կամ 077 360 378</t>
+          <t>Ջրեղենի ընկերությունում ՀԱՇՎԵՏԱՐ ԱՂՋԻԿ մինչև 35տ. փորձը պարտադիր չէ ժ.09.30-18.00 կիր. հանգիստ Աշխ.100.000Հեռ. 077 10 99 46</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Պանրի արտադրամասում պահանջվում է բանվորուհի տարիքային սահմանափակում չկա</t>
+          <t>ԸՆՏԱՆԵԿԱՆ ՎԱՐՈՐԴ</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -6223,14 +6238,14 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Պանրի արտադրամասում պահանջվում է բանվորուհի տարիքային սահմանափակում չկա ժ․9-18,00 կիրակի ազատ 120,000-150,000աշխատավայրը՝նորագավիթ,տեղափոխումը կատարվում է ֆիրմայի կողմից հեռ 093 360 344 կամ 077 360 378</t>
+          <t>ԸՆՏԱՆԵԿԱՆ ՎԱՐՈՐԴ մինչև 45տ.Ժ.08.30-19.00 1օր հանգիստԱշխ. 150.000Հեռ. 077 10 99 46</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Նորագավիթում արտադրամասի տարածքում մաքրուհի տարիքային սահմանափակում չկա</t>
+          <t>ՄԵՆԵՋԵՐ ԱՂՋԻԿ</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -6240,14 +6255,14 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Նորագավիթում արտադրամասի տարածքում մաքրուհի տարիքային սահմանափակում չկա ժ․8-17,00 կիրակ ազատ 80,000-100,000տեղափոխումը կատարվում է ֆիրմայի կողմից հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Բարձրակարգ սրճարանում ՄԵՆԵՋԵՐ ԱՂՋԻԿ փորձը պարտադիր չէ ժ.17.00-24.00 շաբաթական 4օրԱշխ.6000-ից սկսածՀեռ. 077 10 99 46</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Սննդի կետում պահանջվում է երկրորդ գրաֆիկով մաքրուհի</t>
+          <t>ԱԴՄԻՆԻՍՏՐԱՏՈՐ ԱՂՋԻԿ</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -6257,14 +6272,14 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Սննդի կետում պահանջվում է երկրորդ գրաֆիկով մաքրուհի մինչև 60տ ժ․16-22,00 60,000 հեռ 093 360 344 կամ 077 360 378</t>
+          <t>IT ոլորտում գործունեություն ծավալող գրասենյակում ԱԴՄԻՆԻՍՏՐԱՏՈՐ ԱՂՋԻԿ մինչև 35տ. Ms Office-ի իմաց.ժ.10.00-18.00 կիր. հանգիստԱշխ. 80.000-ից սկսածՀեռ. 077 10 99 46</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Մատնահարդարման բարձրակարգ սրահում մենեջեր աղջիկ</t>
+          <t>ՎԱՃԱՌՔԻ ՄԵՆԵՋԵՐ</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -6274,14 +6289,14 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Մատնահարդարման բարձրակարգ սրահում մենեջեր աղջիկ սպասարկման ոլոչտում փորձը պարտադիր է ժ․10-20,00 1օր հանգիստ օրական 4000+բոնուսհեռ 093 360 344 կամ 077 360 378</t>
+          <t>Կոշիկի բարձրակարգ խանութ-սրահում ՎԱՃԱՌՔԻ ՄԵՆԵՋԵՐփորձով,Ms Office-ի և լեզուների իմաց.Ժ.09.00-18.00 1օր հանգիստԱշխ. 120.000Հեռ. 077 10 99 46</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Կարի արտադրամասում պահանջվում է պահեստապետի օգնական տղա մինչև 40տ</t>
+          <t>ԱԴՄԻՆԻՍՏՐԱՏՈՐ ԱՂՋԻԿ</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -6291,14 +6306,14 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Կարի արտադրամասում պահանջվում է պահեստապետի օգնական տղա մինչև 40տ ժ․9-18,00 կիրակի ազատ 90,000-ից սկսած հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Ներմուծող ընկերության գրասենյակում ԱԴՄԻՆԻՍՏՐԱՏՈՐ ԱՂՋԻԿ լեզուների իմաց. ժ.09.00-18.00 2օր հանգիստ Աշխ՝120.000-ից սկսածՀեռ. 077 10 99 46</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Բրենդային կոշիկի սրահում վաճառողուհի 8ժամյա գրաֆիկով</t>
+          <t>ՎԱՃԱՌՔԻ ՄԵՆԵՋԵՐ</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -6308,14 +6323,14 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Բրենդային կոշիկի սրահում վաճառողուհի 8ժամյա գրաֆիկով 1օր ազատ աշխատավայրը՝կենտրոն հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Կոշիկի բարձրակարգ խանութ-սրահում ՎԱՃԱՌՔԻ ՄԵՆԵՋԵՐփորձով,Ms Office-ի և լեզուների իմաց.Ժ.09.00-18.00 1օր հանգիստԱշխ. 120.000Հեռ. 077 10 99 46</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Ատամնաբուժարանում բուժքույր փորձը պարտադիր չէ</t>
+          <t>ԱԴՄԻՆԻՍՏՐԱՏՈՐ ԱՂՋԻԿ</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -6325,14 +6340,14 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Ատամնաբուժարանում բուժքույր փորձը պարտադիր չէ ժ․10-19,00 օր ու մեջ հերթափոխային տարբերակով 80,000-90,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Ներմուծող ընկերության գրասենյակում ԱԴՄԻՆԻՍՏՐԱՏՈՐ ԱՂՋԻԿ լեզուների իմաց. ժ.09.00-18.00 2օր հանգիստ Աշխ՝120.000-ից սկսածՀեռ. 077 10 99 46</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Արտադրամասում պահանջվում է կամազի փորձառու վարորդ տարիքային սահմանափակում չկա</t>
+          <t>ԱԴՄԻՆԻՍՏՐԱՏՈՐ ԱՂՋԻԿ</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -6342,14 +6357,14 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Արտադրամասում պահանջվում է կամազի փորձառու վարորդ տարիքային սահմանափակում չկա ժ․9-19,00 կիրակի ազատ 150,000աշխատավայրը՝Էջմիածին հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Ներմուծող ընկերության գրասենյակում ԱԴՄԻՆԻՍՏՐԱՏՈՐ ԱՂՋԻԿ լեզուների իմաց. ժ.09.00-18.00 2օր հանգիստ Աշխ՝120.000-ից սկսածՀեռ. 077 10 99 46</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Անշարժ գույքի գրասենյակաում պահանջվում է ադմինիստրատիվ օգնական աղջիկ</t>
+          <t>ԲԱՆՎՈՐ ՏՂԱՆԵՐ</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -6359,14 +6374,14 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Անշարժ գույքի գրասենյակաում պահանջվում է ադմինիստրատիվ օգնական աղջիկ համակարգչային գիտելիքներվ ժ․11-19,00 կիրակի ազատ նախնական 100,000+%հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Ջրեղենի ընկերությունում ԲԱՆՎՈՐ ՏՂԱՆԵՐ մինչև 45տ.Ժ. 08.30-19.00 1օր հանգիստԱշխ.110.000Հեռ. 077 10 99 46</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Բարձրակարգ հյուրանոցում պահանջվում է մենեջերի օգնական տղա փորձը պարտադիր չէ</t>
+          <t>ՎԱՐՈՐԴ ԱՌԱՔԻՉ</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -6376,7 +6391,706 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Բարձրակարգ հյուրանոցում պահանջվում է մենեջերի օգնական տղա փորձը պարտադիր չէ,լեզուների շփման մակարդակ,աշխատանքը 1օր շուրջօրյա 1օր հանգիստ օրական 10,000հեռ 093 360 344 կամ 077 360 378</t>
+          <t>Ջրեղենի ընկերությունում ՎԱՐՈՐԴ ԱՌԱՔԻՉ փորձը պարտադիր չէ մեքենան տրամադրում ենԺ. 08.30-19.00 1օր հանգիստԱշխ. 150.000-ից սկսածՀեռ. 077 10 99 46</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>ՎԱՃԱՌՔԻ ՄԵՆԵՋԵՐ</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>(Anywhere)</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Արևածաղկ և չիպսեր արտադրուղ ընկերությունում ՎԱՃԱՌՔԻ ՄԵՆԵՋԵՐ մեքենան տրամադրում ենժ.09.00-18.00 2օր հանգիստԱշխ.100.000+%(250.000միջ.)Հեռ. 077 10 99 46</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>CRM մենեջեր (տեխնիկայի վաճառք)</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Պարտականություններ՝ -Հաճախորդների բազայի վարում,-Ընկերության հաճախորդների հետ կապի պահպանում, - Առկա տեղեկատվության վերլուծությունների անցկացում, -Նոր հաճախորդների ներգրավման աշխատանքների կատարում:Պահանջներ՝ -22-45տ., -բարձրագույն կրթություն, -հայերենի գերազանց, ռուսերենի և ագնլերենի լավ իմացություն, -նշված ոլորտում առնվազն 1,5 տարվա փորձի առկայություն, bitrix ծրագրի տիրապետում:Աշխատանքային ժամեր՝ 10:00-20:00:Աշխատավարձ (մաքուր)` 200000 - 300000 դրամ + բոնուսներ: Հեռ.: 27-53-10, 091-29-18-92, 077-29-18-92e-mail: info@tanger.amwww.tanger.am</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Վեբ կայքի / ինտերնետ խանութի մենեջեր (տեխնիկայի վաճառք)</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Պարտականություններ՝-Ինտերնետ վաճառքների խթանում,-Կայքի զարգացում և առաջխաղացում:Պահանջմեր՝ -22-45տ., -բարձրագույն կրթություն, -հայերենի գերազանց և ռուսերենի, անգլերենի լավ իմացություն,-MS office ծրագրի իմացություն,-առնվազն 1,5 տարվա փորձի առկայություն նշված ոլորտում: Աշխատանքային ժամեր՝ 10:00-20:00: Աշխատավարձ (մաքուր) մինչև 300000 դրամ + բոնուսներ: Հեռ.: 27-53-10, 091-29-18-92, 077-29-18-92e-mail: info@tanger.amwww.tanger.am</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Գլխավոր հաշվապահ</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Պարտականություններ`Ընթացիկ հաշվապահական փաստաթղթերի կազմում և մշակում,փաստաթղթավարություն, հիմնական միջոցների հաշվառում, նյութերի մուտքագրում և հաշվառում,հարկային հաշվետվությունների պատրաստում,աշխատավարձի և արձակուրդային փոխանցումների հաշվառում և փոխանցում,դրամարկղային և բանկային հաշիվների վարում,իրացման ծավալների վերաբերյալ ակտերի կազմում,վիճվարչության և այլ վիճակագրական հաշվետվությունների պատրաստում և հանձնում,Առողջապահության Նախարարության համար հաշվետվությունների պատրաստում և հանձնում,աշխատակիցների աշխատանքային պայմանագրերի վարում (կնքում, փոփոխում և լուծում),հրամանների պատրաստում:Պահանջներ`	Բարձրագույն տնտեսագիտական կրթություն,աշխատանքային փորձ գլխավոր հաշվապահի պաշտոնում առնվազն 2-3 տարի,հայկական ծրագրերի (ՀԾ) իմացություն,համակարգչային գիտելիքներ՝ MS Office, MS Excel,ցանկալի է`ռուսերեն և անգլերեն լեզուների իմացություն,ArmMed ծրագրի իմացություն:Անձնական հատկանիշներ`	Նպատակասլաց, արագաշարժ և ճկուն մտածելակերպ ունեցող անձնավորություն;պատասխանատվության զգացում:Աշխատանքային փորձ	2-3 տարիՏարիք	30-45Սեռ	ԻգականԱշխատանքի տևողությունը	Լիարժեք աշխատանքային օրԱշխատանքային ժամեր	09.30 - 18.30Աշխատավարձ	280.000 AMDՊահանջվող փաստաթղթեր	Ռեզյումե լուսանկարով և աշխատանքային պարտականությունների նկարագրությամբ:Հավելյալ տեղեկություններ	Հնգօրյա աշխատանքային գրաֆիկ, շաբաթ՝ մինչև 14.30 անհրաժեշտության դեպքում,փորձաշրջան` 3 ամիս,աշխատավարձը փորձաշրջանի ընթացքում` 200.000 ՀՀ դրամ:</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Պլաստամասե շշերի արտադրամասում շիշ փչող կանայք և տղաներ</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Պլաստամասե շշերի արտադրամասում շիշ փչող կանայք և տղաներ,  ժամերը 09.00-18.00 կիրակի հանգիստ, աշխատավարձը՝ 4000 նախնական:հեռ.077712579</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Վարորդ առաքիչ շինանյութի ընկերությունում</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>(Anywhere)</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Վարորդ առաքիչ շինանյութի ընկերությունում սեփական մեքենայով (մինչև 3 տոննա), ժամերը 09.00-18.00,  աշխատավարձը՝10.000 օրական+վառելիք:հեռ.077712579</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Շինանյութի ընկերությունում առաքիչի օգնական</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Շինանյութի ընկերությունում առաքիչի օգնական փորձը պարտադիր չէ ժամերը 09.00-18,00, աշխատավարձը՝ 140.000:հեռ.077712579</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Շին.ընկերության գրասենյակում 1C Օպերատոր</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Շին.ընկերության գրասենյակում 1C Օպերատոր աղջիկ տղա փորձով,  1C 8.3-Ի իմացությամբ,  ժամերը 09.00-18.00 կիրակի հանգիստ,  աշխատավարձը՝150.000:հեռ.077712579</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>ԳԱՆՁԱՊԱՀ</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>(Anywhere)</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Ռեստորանային համալիրում ԳԱՆՁԱՊԱՀ աղջիկ տաղա փորձով Ժ.11.00-23.00 1օր հանգիստԱշխ. 8000-ից սկսածՀեռ.077 10 99 46</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>ԱԴՄԻՆԻՍՏՐԱՏՈՐ ԱՂՋԻԿ</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>(Anywhere)</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>IT ոլորտում գործունեություն ծավալող գրասենյակում ԱԴՄԻՆԻՍՏՐԱՏՈՐ ԱՂՋԻԿ մինչև 35տ. Ms Office-ի իմաց.ժ.10.00-18.00 կիր. հանգիստԱշխ. 80.000-ից սկսածՀեռ. 077 10 99 46</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>ՎԱՃԱՌՈՂՈՒՀԻ</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>(Anywhere)</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Կոշիկի բարձրակարգ խանութ-սրահում ՎԱՃԱՌՈՂՈՒՀԻ մինչև 35տ. փորձը պարտադիր չէ Ժ.10.00-22.00 1օր հանգիստԱշխ. 90.000+%Հեռ. 077 10 99 46</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>ԱԴՄԻՆԻՍՏՐԱՏՈՐ ՏՂԱ</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>(Anywhere)</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Բարձրակարգ հյուրանոցում ԱԴՄԻՆԻՍՏՐԱՏՈՐ ՏՂԱ փորձը պարտադիր չէ ռուսերենի իմաց. 1 օր շուրջօրյա 2 օր հանգիստ գրաֆիկովԱշխ.10.000+թեյավճարՀեռ. 077 10 99 46</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>ՎԱՃԱՌՔԻ ՄԵՆԵՋԵՐ</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>(Anywhere)</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Կոշիկի բարձրակարգ խանութ-սրահում ՎԱՃԱՌՔԻ ՄԵՆԵՋԵՐփորձով,Ms Office-ի և լեզուների իմաց.Ժ.09.00-18.00 1օր հանգիստԱշխ. 120.000Հեռ. 077 10 99 46</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>ԱԴՄԻՆԻՍՏՐԱՏՈՐ ԱՂՋԻԿ</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>(Anywhere)</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Ներմուծող ընկերության գրասենյակում ԱԴՄԻՆԻՍՏՐԱՏՈՐ ԱՂՋԻԿ լեզուների իմաց. ժ.09.00-18.00 2օր հանգիստ Աշխ՝120.000-ից սկսածՀեռ. 077 10 99 46</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>ԲԱՆՎՈՐ ՏՂԱՆԵՐ</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>(Anywhere)</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Ջրեղենի ընկերությունում ԲԱՆՎՈՐ ՏՂԱՆԵՐ մինչև 45տ.Ժ. 08.30-19.00 1օր հանգիստԱշխ.110.000Հեռ. 077 10 99 46</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>ՊԼԱՍՏՄԱՍԵ ՇՇԵՐ ՓՉՈՂ և ՓԱԹԵԹԱՎՈՐՈՂ</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>(Anywhere)</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Արտադրամասում սարքավորումներով Արտադրամասում սարքավորումներով ՊԼԱՍՏՄԱՍԵ ՇՇԵՐ ՓՉՈՂ և ՓԱԹԵԹԱՎՈՐՈՂ տղաներ աղջիկներԺ.09.00-18.00 կիր.հանգ.Աշխ.4000-ից սկսածՀեռ. 077 10 99 46</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>ՓԱԹԵԹԱՎՈՐՈՂ ՏՂԱՆԵՐ և ԱՂՋԻԿՆԵՐ</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>(Anywhere)</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Պլաստմասե շշերի արտադրամասում ՓԱԹԵԹԱՎՈՐՈՂ ՏՂԱՆԵՐ և ԱՂՋԻԿՆԵՐտարիքային սահմանափակում չկա (դիմեն նաև ուսանողներ)Ժ.09.00-18.00 կիր. հանգիստԱշխ.3500-ից սկսածՀեռ. 077 10 99 46</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>ՎԱՃԱՌՈՂ-ԲԱՆՎՈՐ</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>(Anywhere)</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Ջեռուցման կաթսաներ վերանուրոգուղ ընկերությունում ՎԱՃԱՌՈՂ-ԲԱՆՎՈՐ մինչև 50տ. ժ.10.00-19.00 1օր հանգիստԱշխ.150.000Հեռ. 077 10 99 46</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>ԱՅԳԵՊԱՆ փորձով</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>(Anywhere)</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Գրասենյակային տարածքում ԱՅԳԵՊԱՆ փորձով Աշխ.150.000-ից սկսած Հեռ.077 10 99 46</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>գիշերային հերթափոխով ՎԱՃԱՌՈՂ տղաներ</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>(Anywhere)</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Սուպերմարկետում գիշերային հերթափոխով ՎԱՃԱՌՈՂ տղաներ ժ. 24.00-09.00 Աշխ. 110.000Հեռ. 077 10 99 46</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>ՀԱՇՎԱՊԱՀ ԱՂՋԻԿ</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>(Anywhere)</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Իրավաբանական ընկերությունում ՀԱՇՎԱՊԱՀ ԱՂՋԻԿ փորձով և ՀԾ-ի իմաց. ժ.10.00-18.00 2օր Աշխ.՝200.000-իցԿենտրոնՀեռ. 077 10 99 46</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>ՓԱՍՏԱԲԱՆ ԱՂՋԻԿ</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>(Anywhere)</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Իրավաբանական ընկերությանում ՓԱՍՏԱԲԱՆ ԱՂՋԻԿ (արտոնագրված) ժ.09.00-18.00 2օր հանգիստԱշխ.200.000-ից սկսածՀեռ. 077 10 99 46</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>ԱՇԽԱՏԱԿԻՑ ՏՂԱՆԵՐ</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>(Anywhere)</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Լամինատի արտադրամասում ԱՇԽԱՏԱԿԻՑ ՏՂԱՆԵՐ փորձը պարտադիր չէ ժ.09.00-19.00Աշխ.՝6000-8000 Հեռ. 077 10 99 46</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>ԱԴՄԻՆԻՍՏՐԱՏՈՐ ԱՂՋԻԿ</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>(Anywhere)</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Ներմուծող ընկերության գրասենյակում ԱԴՄԻՆԻՍՏՐԱՏՈՐ ԱՂՋԻԿ լեզուների իմաց. ժ.09.00-18.00 2օր հանգիստ Աշխ՝120.000-ից սկսածՀեռ. 077 10 99 46</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>ՎԱՃԱՌՔԻ ՄԵՆԵՋԵՐ</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>(Anywhere)</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Արևածաղկ և չիպսեր արտադրուղ ընկերությունում ՎԱՃԱՌՔԻ ՄԵՆԵՋԵՐ մեքենան տրամադրում ենժ.09.00-18.00 2օր հանգիստԱշխ.100.000+%(250.000միջ.)Հեռ. 077 10 99 46</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>ԱԴՄԻՆԻՍՏՐԱՏԻՎ ԱՇԽԱՏԱԿԻՑ</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>(Anywhere)</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Ուսումնական կենտրոնում ԱԴՄԻՆԻՍՏՐԱՏԻՎ ԱՇԽԱՏԱԿԻՑ աղջիկ տղա մինչև 30տ. լեզուների իմաց.Ժ. 10.00-19.00 կիրակի հանգիստԱշխ.60.000-ից սկսզծՀեռ. 077 10 99 46</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>ԱՆԳԼԵՐԵՆԻ ՄԱՍՆԱԳԵՏ-ՄԱՆԿԱՎԱՐԺՆԵՐ</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>(Anywhere)</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>ՈՒսումնական կենտրունում ԱՆԳԼԵՐԵՆԻ ՄԱՍՆԱԳԵՏ-ՄԱՆԿԱՎԱՐԺՆԵՐ մինչև 30տ.փորձը պարտադիր չէ Դասավանդումը`խմբային և անհատական(4-ից 14տ. երեխաների հետ)ժ.10.00-14.30 1օր հանգիստԱշխ.60.000-ից սկսած…Հեռ. 077 10 99 46</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>ԱՆՎՏԱՆԳՈՒԹՅԱՆ ԱՇԽԱՏԱԿՑՈՒՀԻՆԵՐ</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>(Anywhere)</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Պահնորդական ընկորությունում ԱՆՎՏԱՆԳՈՒԹՅԱՆ ԱՇԽԱՏԱԿՑՈՒՀԻՆԵՐ մինչև 45տ.,ռուսերենի իմացությամբՏարբեր ժամային գրաֆիկովԱշխ. 70.000-ից սկսածՀեռ. 077 10 99 46</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>ՄԱՔՐՈՒՀԻ</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>(Anywhere)</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Գրասենյակի տարածքում ՄԱՔՐՈՒՀԻ մինչև 55տ.Ժ.08.00-16.00 կիրակի հանգիստԱշխ 100.000Հեռ.077 10 99 46</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>գիշերային հերթափոխով ՎԱՃԱՌՈՂ տղաներ</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>(Anywhere)</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Սուպերմարկետում գիշերային հերթափոխով ՎԱՃԱՌՈՂ տղաներ ժ. 24.00-09.00 Աշխ. 110.000Հեռ. 077 10 99 46</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>ՀՍԿԻՉ-ՎԱՃԱՌՈՂՈՒՀԻՆԵՐ</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>(Anywhere)</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Սուպերմարկետում Սուպերմարկետում ՀՍԿԻՉ-ՎԱՃԱՌՈՂՈՒՀԻՆԵՐ Ժ.09.00-16.00` 90.000 կամ 16.30-24.00` 95.000Հեռ.077 10 99 46</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>ՄԵՆԵՋԵՐ ՏՂԱՆԵՐ</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>(Anywhere)</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Բարձրակարգ ցանցային պանդոկներում ՄԵՆԵՋԵՐ ՏՂԱՆԵՐ փորձով և լեզուների իամաց.ժ. 09.30-23.00 օր ու մեջ գրաֆիկովԱշխ.9000Հեռ. 077 10 99 46</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>ՎԱՃԱՌՔԻ ՄԵՆԵՋԵՐ</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>(Anywhere)</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Կոշիկի բարձրակարգ խանութ-սրահում ՎԱՃԱՌՔԻ ՄԵՆԵՋԵՐփորձով,Ms Office-ի և լեզուների իմաց.Ժ.09.00-18.00 1օր հանգիստԱշխ. 120.000Հեռ. 077 10 99 46</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>ՀՅՈՒՐԸՆԿԱԼ ԱՂՋԻԿ</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>(Anywhere)</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Բարձրակարգ ռեստորանային համալիրում ՀՅՈՒՐԸՆԿԱԼ ԱՂՋԻԿ մինչև 35տ. ժ.11.00-23.00 աշխ.՝6000 կամ 17.00-23.00՝ 3000(հարմար է ուսանողներին)Հեռ. 077 10 99 46</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>ԱՌԱՔԻՉԻ ՕԳՆԱԿԱՆ</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>(Anywhere)</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Բարձրակարգ ցանցային պանդոկներում ԱՌԱՔԻՉԻ ՕԳՆԱԿԱՆ փորձը պարտադիր չէժ. 10.00-20.00 1օր հանգիստԱշխ. 4000-ից սկսածՀեռ.077 10 99 46</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>ԱՆՀԱՏԱԿԱՆ ԴԱՅԱԿ</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>ԱՆՀԱՏԱԿԱՆ ԴԱՅԱԿ մինչև 45 տարեկան, փորձով ժամերը 13.00-23.00 կամ 15.00-23.00, աշխատավարձը՝ 5000-7000 Բանգլադեշ հեռ.077712579</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>ՏՆԱՅՆԱԳՈՐԾ</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>ՏՆԱՅՆԱԳՈՐԾ մինչև 50 տարեկան, ժամերը 09.00-18.00, աշխատավարձը՝ ՝5000 օրավճարԲանգլադեշ: Հեռախոսահամար՝077712579</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Գրասենյակում մաքրուհի</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Գրասենյակում մաքրուհի մինչև 55 տարեկան, ժամերը՝ 08.00-16.00 կիրակի հանգիստ, աշխատավարձը՝ 100.000:</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Հուշանվերի պահեստում աշխատակից տղաներ</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Հուշանվերի պահեստում աշխատակից տղաներ մինչև 35 տարեկան, ժամերը 09.00-18.30 աշխատավարձը՝135.000 -ից սկսած փորձը պարտադիր չէ: հեռ.077712579</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Բարձրակարգ հյուրանոցում անվտանգության աշխատակիցներ</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Բարձրակարգ հյուրանոցում անվտանգության աշխատակիցներ մինչև 45 տարեկան,  մեկ օր ցերեկ մեկ օր գիշեր 2 օր հանգիստ,  աշխատավարձը՝90.000: հեռ.077712579</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Մանկական բրենդային հագուստի սրահում խորհրդատու-վաճառողուհի</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Մանկական բրենդային հագուստի սրահում խորհրդատու-վաճառողուհի մինչև 35 տարեկան,  ժամերը 10.00-16.00 կամ 16.00-22.00,  աշխատավարձը՝ 70.000+տոկոս:հեռ.077712579</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Տպագրատանն օպերատոր տղա</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Տպագրատանն օպերատոր տղա 1C-ի իմացությամբ, ժամերը 09.00-18.00 մեկ օր հանգիստ,  աշխատավարձը՝ 120.000:հեռ.077712579</t>
         </is>
       </c>
     </row>
